--- a/data/ouput/InstaLeaderShip.xlsx
+++ b/data/ouput/InstaLeaderShip.xlsx
@@ -1252,18 +1252,20 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col width="15.0909090909091" customWidth="1" style="2" min="1" max="1"/>
     <col width="17.2727272727273" customWidth="1" style="2" min="2" max="2"/>
     <col width="14.7272727272727" customWidth="1" style="2" min="3" max="4"/>
     <col width="14.1818181818182" customWidth="1" style="2" min="5" max="5"/>
     <col width="23.8181818181818" customWidth="1" style="2" min="6" max="6"/>
-    <col width="20.4545454545455" customWidth="1" style="2" min="7" max="8"/>
-    <col width="8.72727272727273" customWidth="1" style="2" min="9" max="16384"/>
+    <col width="20.4545454545455" customWidth="1" style="2" min="7" max="7"/>
+    <col width="26.3636363636364" customWidth="1" style="2" min="8" max="8"/>
+    <col width="20.3636363636364" customWidth="1" style="2" min="9" max="9"/>
+    <col width="8.72727272727273" customWidth="1" style="2" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.5" customFormat="1" customHeight="1" s="1">
@@ -1316,138 +1318,149 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Shirin “shireeeen” Oskooi</t>
+          <t>Kevin Rose</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>theshirin</t>
+          <t>instagram.com/kumar.raj509</t>
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>462</v>
+        <v>2172</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>7514</v>
+        <v>152000</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1083</v>
+        <v>556</v>
       </c>
       <c r="F2" s="0" t="inlineStr"/>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>www.floptimal.com</t>
+          <t>www.kevinrose.com</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>Shirin “shireeeen” Oskooi
-theshirin
-🏝 Survivor All Star 📀 Tech 🃏 Poker 🧩 Floptimal Founder 🔮
-www.floptimal.com</t>
+          <t>Kevin Rose
+kevinrose
+👨🏻‍💼 Partner: @trueventures; 400+ Founders, 4B invested. Rebooting Digg.
+🎥 The Kevin Rose Show, @thediggnation, The... 
+more
+www.kevinrose.com</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>theshirin
+          <t>kevinrose
 Follow
-462 posts
-7,514 followers
-1,083 following
-Shirin “shireeeen” Oskooi
-theshirin
-🏝 Survivor All Star 📀 Tech 🃏 Poker 🧩 Floptimal Founder 🔮
-www.floptimal.com</t>
+Message
+2,172 posts
+152K followers
+556 following
+Kevin Rose
+kevinrose
+👨🏻‍💼 Partner: @trueventures; 400+ Founders, 4B invested. Rebooting Digg.
+🎥 The Kevin Rose Show, @thediggnation, The... 
+more
+www.kevinrose.com
+Diggnation
+Japan ❤️
+🐛</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Nisha Agarwal | निशा | નિશા</t>
+          <t>Martin Varsavsky</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>ninjaa_nish</t>
+          <t>instagram.com/mirjam_gentner</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>332</v>
+        <v>2539</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>313</v>
+        <v>20600</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1205</v>
+        <v>579</v>
       </c>
       <c r="F3" s="0" t="inlineStr"/>
       <c r="G3" s="0" t="inlineStr"/>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>Nisha Agarwal | निशा | નિશા
-Fairy in the dragon forest, always wearing my invisible crown 👑
-Co-founder of @dhunki.life
-Works at @zanzibar.living
-Nisha Agarwal</t>
+          <t>Martin Varsavsky
+martinvars
+Founder of Jazztel, Ya.com, Eolia Renovables, Barter, Prelude Fertility, Gameto, Overture.
+Board member Vitara. CEO of... 
+more</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>ninjaa_nish
+          <t>martinvars
 Follow
-332 posts
-313 followers
-1,205 following
-Nisha Agarwal | निशा | નિશા
-Fairy in the dragon forest, always wearing my invisible crown 👑
-Co-founder of @dhunki.life
-Works at @zanzibar.living
-Nisha Agarwal</t>
+2,539 posts
+20.6K followers
+579 following
+Martin Varsavsky
+martinvars
+Founder of Jazztel, Ya.com, Eolia Renovables, Barter, Prelude Fertility, Gameto, Overture.
+Board member Vitara. CEO of... 
+more</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chris Cox</t>
+          <t>Michael Eyal Sharon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chriscox</t>
+          <t>instagram.com/globalgrind</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="D4" t="n">
-        <v>17600</v>
+        <v>3273</v>
       </c>
       <c r="E4" t="n">
-        <v>356</v>
+        <v>1830</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Chris Cox
-chriscox
-CPO @ Meta</t>
+          <t>Michael Eyal Sharon
+deprimer
+It's all in the timing • co-founder + CEO @taika • entrepreneur, investor, product guy • SF/LA/NYC
+🎉🎸⚡️☕️⚡️🐬🍾
+taika.co</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>chriscox
+          <t>deprimer
 Follow
-41 posts
-17.6K followers
-356 following
-Chris Cox
-chriscox
-CPO @ Meta
-Highlights
-Highlights</t>
+508 posts
+3,273 followers
+1,830 following
+Michael Eyal Sharon
+deprimer
+It's all in the timing • co-founder + CEO @taika • entrepreneur, investor, product guy • SF/LA/NYC
+🎉🎸⚡️☕️⚡️🐬🍾
+taika.co
+🔥☕️🔥</t>
         </is>
       </c>
     </row>

--- a/data/ouput/InstaLeaderShip.xlsx
+++ b/data/ouput/InstaLeaderShip.xlsx
@@ -1249,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -1418,28 +1418,28 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>Michael Eyal Sharon</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>instagram.com/globalgrind</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>508</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0" t="n">
         <v>3273</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0" t="n">
         <v>1830</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr"/>
+      <c r="G4" s="0" t="inlineStr"/>
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>Michael Eyal Sharon
 deprimer
@@ -1448,7 +1448,7 @@
 taika.co</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>deprimer
 Follow
@@ -1464,6 +1464,1110 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Eric Wuebben</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/billgross</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>636</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1412</v>
+      </c>
+      <c r="F5" s="0" t="inlineStr"/>
+      <c r="G5" s="0" t="inlineStr"/>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Eric Wuebben
+wuebben
+Midwest dad. Golfer. Previously a product leader at @Twitter on Longform and a founder of @HighlyTM.</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>wuebben
+Follow
+Message
+510 posts
+636 followers
+1,412 following
+Eric Wuebben
+wuebben
+Midwest dad. Golfer. Previously a product leader at @Twitter on Longform and a founder of @HighlyTM.
+Golf
+Recently
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Sophie-Charlotte Moatti</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/ricksmolan</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="inlineStr"/>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Sophie-Charlotte Moatti
+Founder of @mightycapital and @productscount. Married to the #amazing @speedgrins. Wannabe #rockstar singer.
+productsthatcount.com</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>scmoatti
+Follow
+36 posts
+477 followers
+424 following
+Sophie-Charlotte Moatti
+Founder of @mightycapital and @productscount. Married to the #amazing @speedgrins. Wannabe #rockstar singer.
+productsthatcount.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>tscottcase</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/weldy1</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>690</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>680</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr"/>
+      <c r="G7" s="0" t="inlineStr"/>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>tscottcase
+him/his/he
+@zettawattz Founder
+linktr.ee/tscottcase and 1 more</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>tscottcase
+Follow
+Message
+226 posts
+690 followers
+680 following
+tscottcase
+him/his/he
+@zettawattz Founder
+linktr.ee/tscottcase and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Ethan Anderson</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/powls27</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr"/>
+      <c r="G8" s="0" t="inlineStr"/>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Ethan Anderson
+ethananderson
+Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
+about.me/ethananderson and 1 more</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>ethananderson
+Follow
+132 posts
+598 followers
+284 following
+Ethan Anderson
+ethananderson
+Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
+about.me/ethananderson and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Ethan Anderson</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/scottevest</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="inlineStr"/>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Ethan Anderson
+ethananderson
+Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
+about.me/ethananderson and 1 more</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>ethananderson
+Follow
+132 posts
+598 followers
+284 following
+Ethan Anderson
+ethananderson
+Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
+about.me/ethananderson and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Clara Shih</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/hadaya__alryad</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr"/>
+      <c r="G10" s="0" t="inlineStr"/>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Clara Shih
+Hearsay founder + kindergarten room mom 🌼</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>clarashih
+Follow
+155 posts
+1,865 followers
+534 following
+Clara Shih
+Hearsay founder + kindergarten room mom 🌼
+🏋️‍♂️</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Eric Pilkington</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/_2s2e</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>817</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>18800</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4448</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr"/>
+      <c r="G11" s="0" t="inlineStr"/>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Eric Pilkington
+epilkington
+CXO @ LVLON, Advisor @ Sandbox Ventures, Contributing Editor @DigitalTrends, + Oxford comma advocate. I love all things... 
+more</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>epilkington
+Follow
+Message
+817 posts
+18.8K followers
+4,448 following
+Eric Pilkington
+epilkington
+CXO @ LVLON, Advisor @ Sandbox Ventures, Contributing Editor @DigitalTrends, + Oxford comma advocate. I love all things... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Sara Tillim Adler</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/rameshkashyap1486</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>648</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr"/>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>www.wave.capital</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Sara Tillim Adler
+saratadler
+Cofounder / GP @ Wave Capital. Marketplace enthusiast. Recovering M&amp;A junkie (@airbnb, @dropbox &amp; @meta). Mom of 2... 
+more
+www.wave.capital</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>saratadler
+Follow
+206 posts
+758 followers
+648 following
+Sara Tillim Adler
+saratadler
+Cofounder / GP @ Wave Capital. Marketplace enthusiast. Recovering M&amp;A junkie (@airbnb, @dropbox &amp; @meta). Mom of 2... 
+more
+www.wave.capital</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>annkono</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/ydanrubinstein</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr"/>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>www.teachaapi.org</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>annkono
+annkono
+Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+more
+www.teachaapi.org</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>annkono
+Follow
+1,564 posts
+220 followers
+317 following
+annkono
+annkono
+Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+more
+www.teachaapi.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Charles Dowd</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/preskasharma</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>539</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>820</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="inlineStr"/>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Charles Dowd
+charlespsdowd
+Fintech founder
+strikepay.co</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>charlespsdowd
+Follow
+85 posts
+539 followers
+820 following
+Charles Dowd
+charlespsdowd
+Fintech founder
+strikepay.co
+L’pool</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>annkono</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/dishapatani</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>www.teachaapi.org</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>annkono
+annkono
+Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+more
+www.teachaapi.org</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>annkono
+Follow
+1,564 posts
+220 followers
+317 following
+annkono
+annkono
+Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+more
+www.teachaapi.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Chris Pan</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/nostosalgos</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>18200</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6338</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr"/>
+      <c r="G16" s="0" t="inlineStr"/>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Chris Pan
+chrispan
+Founder @myintent @vomo.me
+Investor &amp; Bitcoin educator
+📍Ibiza; 🏡 LA
+💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
+chrispan.com and 4 more</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>chrispan
+Follow
+Message
+711 posts
+18.2K followers
+6,338 following
+Chris Pan
+chrispan
+Founder @myintent @vomo.me
+Investor &amp; Bitcoin educator
+📍Ibiza; 🏡 LA
+💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
+chrispan.com and 4 more
+Ibiza
+Monaco, Cannes
+Stockholm
+St Tropez
+Copenhagen
+Midsommar 🇸🇪
+Visby
+Amsterdam
+BTC Vegas 2025
+LA June 2025
+LA 2025
+Tulum April 25
+Bitcoin 2024
+VOMO Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Ethan Anderson</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/roquecal</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr"/>
+      <c r="G17" s="0" t="inlineStr"/>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Ethan Anderson
+ethananderson
+Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
+about.me/ethananderson and 1 more</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>ethananderson
+Follow
+132 posts
+598 followers
+284 following
+Ethan Anderson
+ethananderson
+Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
+about.me/ethananderson and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/andyyang410</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>998</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>623</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="F18" s="0" t="inlineStr"/>
+      <c r="G18" s="0" t="inlineStr"/>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Daniel
+Explorations in vinyl &amp; life @ Amsterdam, Valencia &amp; the world. 🎶 Danny Ocean / @groovebrigade. Founder of Cratebase.io
+cratebase.io and 1 more</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>dspijker
+Follow
+998 posts
+623 followers
+511 following
+Daniel
+Explorations in vinyl &amp; life @ Amsterdam, Valencia &amp; the world. 🎶 Danny Ocean / @groovebrigade. Founder of Cratebase.io
+cratebase.io and 1 more
+Dj’ing</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Derya Matras</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/dlrosensweig</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>42900</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>829</v>
+      </c>
+      <c r="F19" s="0" t="inlineStr"/>
+      <c r="G19" s="0" t="inlineStr"/>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Derya Matras
+deryamatras
+Vice President, EMEA at Meta. Proud mom of two, striving to leave a good world for the next gen.
+about.fb.com/news/h/__performance_talks_gymshark</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>deryamatras
+Follow
+Message
+269 posts
+42.9K followers
+829 following
+Derya Matras
+deryamatras
+Vice President, EMEA at Meta. Proud mom of two, striving to leave a good world for the next gen.
+about.fb.com/news/h/__performance_talks_gymshark
+Meta London 🇬🇧
+Save the world!
+❤️
+🤣
+Meta Dubai
+Facebook
+London
+YGA
+Corona Days
+Polls
+Womens Day🎈
+Bodrum
+Middle East
+NewYork</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Eric Schmidt</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/seradinmore</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>532</v>
+      </c>
+      <c r="F20" s="0" t="inlineStr"/>
+      <c r="G20" s="0" t="inlineStr"/>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Eric Schmidt
+Former Chairman and CEO</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>ericschmidt212
+Follow
+Message
+276 posts
+10.4K followers
+532 following
+Eric Schmidt
+Former Chairman and CEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Barak Hachamov</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/haneen.ba7r</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="F21" s="0" t="inlineStr"/>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>www.seetree.ai</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>Barak Hachamov
+barakh
+SeeTree, Co-founder &amp; Chairman • www.seetree.ai • Google, Launchpad Accelerator, Strategic Advisor</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>barakh
+Follow
+156 posts
+1,014 followers
+218 following
+Barak Hachamov
+barakh
+SeeTree, Co-founder &amp; Chairman • www.seetree.ai • Google, Launchpad Accelerator, Strategic Advisor
+Golan Heights
+לילה לבן בת״א
+Nature
+Route 1
+17-mile
+Yosemite
+Santa Monica
+Tech Event
+Paris
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Ian Schafer</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/haneen.ba7r</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1277</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="F22" s="0" t="inlineStr"/>
+      <c r="G22" s="0" t="inlineStr"/>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Ian Schafer
+ischafer
+Building @followensemble w/@issarae. Partner @lokee. Investor. Chairman Emeritus @deepfocus. Advisor @rockthebells... 
+more
+theensemble.co</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>ischafer
+Follow
+Message
+1,277 posts
+2,301 followers
+944 following
+Ian Schafer
+ischafer
+Building @followensemble w/@issarae. Partner @lokee. Investor. Chairman Emeritus @deepfocus. Advisor @rockthebells... 
+more
+theensemble.co
+ALL-STAR 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Anna Fieler</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/sparksocialsf</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>493</v>
+      </c>
+      <c r="F23" s="0" t="inlineStr"/>
+      <c r="G23" s="0" t="inlineStr"/>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>Anna Fieler
+Founder: @madisonparkventures BoD: @shakeshack @jcrew @madewell @sfopera ❤️: @sjfieler @thedipperdoodle my kids🍷🧘‍♀️✈️..... 
+more</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>annafieler
+Follow
+Message
+155 posts
+485 followers
+493 following
+Anna Fieler
+Founder: @madisonparkventures BoD: @shakeshack @jcrew @madewell @sfopera ❤️: @sjfieler @thedipperdoodle my kids🍷🧘‍♀️✈️..... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Jill Monk</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/nikiscarpacohen</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>931</v>
+      </c>
+      <c r="F24" s="0" t="inlineStr"/>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>www.tributarybotanicals.com</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>Jill Monk
+Founder &amp; CEO @TributaryBotancals
+Poet
+World traveler (55+ countries)
+Dog mom &amp; wife 💜
+www.tributarybotanicals.com</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>jillamonk
+Follow
+67 posts
+382 followers
+931 following
+Jill Monk
+Founder &amp; CEO @TributaryBotancals
+Poet
+World traveler (55+ countries)
+Dog mom &amp; wife 💜
+www.tributarybotanicals.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>David E. Weekly</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/hlth</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1797</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1771</v>
+      </c>
+      <c r="F25" s="0" t="inlineStr"/>
+      <c r="G25" s="0" t="inlineStr"/>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>David E. Weekly
+dweekly
+School board member, board director, corporate R&amp;D lab head, product executive, 3x startup founder. +1 of... 
+more
+david.weekly.org</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>dweekly
+Follow
+386 posts
+1,797 followers
+1,771 following
+David E. Weekly
+dweekly
+School board member, board director, corporate R&amp;D lab head, product executive, 3x startup founder. +1 of... 
+more
+david.weekly.org
+NZ
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Bhavya Kashyap</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>instagram.com/pwwyner</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="F26" s="0" t="inlineStr"/>
+      <c r="G26" s="0" t="inlineStr"/>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>Bhavya Kashyap
+bhavbhavbhav
+🇨🇦 | 📍🇺🇲
+Founder @oatproductivity
+Investor @browngirlangels</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>bhavbhavbhav
+Follow
+42 posts
+366 followers
+368 following
+Bhavya Kashyap
+bhavbhavbhav
+🇨🇦 | 📍🇺🇲
+Founder @oatproductivity
+Investor @browngirlangels</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kirthiga Reddy</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>instagram.com/monicajwalsh</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>636</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2838</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Kirthiga Reddy
+kirthiga.reddy
+Co-founder &amp; CEO at @verixverified | Technologist | Investor in bold founders | Inclusion &amp; diversity advocate
+kirthigareddy.com and 3 more</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>kirthiga.reddy
+Follow
+Message
+636 posts
+2,838 followers
+1,031 following
+Kirthiga Reddy
+kirthiga.reddy
+Co-founder &amp; CEO at @verixverified | Technologist | Investor in bold founders | Inclusion &amp; diversity advocate
+kirthigareddy.com and 3 more
+Sausalito Xmas
+Samir Bangara
+Coronation, ‘23
+AK Wedding ❤️❤️❤
+Disneyland 2022
+Syracuse 2022
+Christmas ‘21
+Thanksgiving 21
+San Mateo
+Nikitha&amp;Ashwin
+Aspen 2021
+1/2 Marathon 18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ouput/InstaLeaderShip.xlsx
+++ b/data/ouput/InstaLeaderShip.xlsx
@@ -637,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +650,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,10 +1256,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1318,30 +1325,3415 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dspijker/</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>998</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>623</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="F2" s="0" t="inlineStr"/>
+      <c r="G2" s="0" t="inlineStr"/>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Daniel
+Explorations in vinyl &amp; life @ Amsterdam, Valencia &amp; the world. 🎶 Danny Ocean / @groovebrigade. Founder of Cratebase.io
+cratebase.io and 1 more</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>dspijker
+Follow
+998 posts
+623 followers
+511 following
+Daniel
+Explorations in vinyl &amp; life @ Amsterdam, Valencia &amp; the world. 🎶 Danny Ocean / @groovebrigade. Founder of Cratebase.io
+cratebase.io and 1 more
+Dj’ing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Craig Coblenz</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/craigcoblenz/</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>674</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F3" s="0" t="inlineStr"/>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>www.amazon.com/hz/wishlist/ls/3AF7EO4LEDBYJ?ref_=wl_share</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Craig Coblenz
+craigcoblenz
+Dad, Husband, Entrepreneur, Cofounder of VidMob, ex early Facebook’er.
+www.amazon.com/hz/wishlist/ls/3AF7EO4LEDBYJ?ref_=wl_share</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>craigcoblenz
+Follow
+289 posts
+674 followers
+1,996 following
+Craig Coblenz
+craigcoblenz
+Dad, Husband, Entrepreneur, Cofounder of VidMob, ex early Facebook’er.
+www.amazon.com/hz/wishlist/ls/3AF7EO4LEDBYJ?ref_=wl_share</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Alex Wu</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/awu/</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2073</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7503</v>
+      </c>
+      <c r="F4" s="0" t="inlineStr"/>
+      <c r="G4" s="0" t="inlineStr"/>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Alex Wu
+awu
+吳明韋 Founding Team: NEX Team (makers of @homecourtai, @activearcade, @partyfowl_game, @starrigame)
+Co-Founder... 
+more</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>awu
+Follow
+700 posts
+2,073 followers
+7,503 following
+Alex Wu
+awu
+吳明韋 Founding Team: NEX Team (makers of @homecourtai, @activearcade, @partyfowl_game, @starrigame)
+Co-Founder... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Eric Schmidt</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ericschmidt212/</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>532</v>
+      </c>
+      <c r="F5" s="0" t="inlineStr"/>
+      <c r="G5" s="0" t="inlineStr"/>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Eric Schmidt
+Former Chairman and CEO</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>ericschmidt212
+Follow
+Message
+276 posts
+10.4K followers
+532 following
+Eric Schmidt
+Former Chairman and CEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Katie Jacobs Stanton</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/katies/</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>www.moxxie.vc</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Katie Jacobs Stanton
+katies
+Proud Mom of @twellie @caleighstantonn and @declanstanton_ ❤️ Founder of Moxxie Ventures 💙
+www.moxxie.vc</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>katies
+Follow
+490 posts
+688 followers
+927 following
+Katie Jacobs Stanton
+katies
+Proud Mom of @twellie @caleighstantonn and @declanstanton_ ❤️ Founder of Moxxie Ventures 💙
+www.moxxie.vc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Ian Schafer</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ischafer/</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1277</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr"/>
+      <c r="G7" s="0" t="inlineStr"/>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Ian Schafer
+ischafer
+Building @followensemble w/@issarae. Partner @lokee. Investor. Chairman Emeritus @deepfocus. Advisor @rockthebells... 
+more
+theensemble.co</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>ischafer
+Follow
+Message
+1,277 posts
+2,301 followers
+944 following
+Ian Schafer
+ischafer
+Building @followensemble w/@issarae. Partner @lokee. Investor. Chairman Emeritus @deepfocus. Advisor @rockthebells... 
+more
+theensemble.co
+ALL-STAR 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Spencer Rascoff</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/spencerrascoff/</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>593</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr"/>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>www.wsj.com/business/tinder-chief-spencer-rascoff-dating-app-4dff2615</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Spencer Rascoff
+CEO of Match Group.
+Co-founder @pacasohomes @heylibby.ai @downloadqueue, 75 &amp; Sunny Ventures, @harvard prof. Fmr:... 
+more
+www.wsj.com/business/tinder-chief-spencer-rascoff-dating-app-4dff2615 and 3 more</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>spencerrascoff
+Follow
+Message
+593 posts
+10.5K followers
+124 following
+Spencer Rascoff
+CEO of Match Group.
+Co-founder @pacasohomes @heylibby.ai @downloadqueue, 75 &amp; Sunny Ventures, @harvard prof. Fmr:... 
+more
+www.wsj.com/business/tinder-chief-spencer-rascoff-dating-app-4dff2615 and 3 more
+MG Life
+📚Harvard ES 134
+Harvard ES94
+🎙Office Hours
+HBS
+Travel
+Media
+Pacaso
+75 &amp; Sunny ☀️
+Year End
+dot.LA launch
+dot.LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Kulveer Taggar</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kulveer/</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1151</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>www.thetwentyminutevc.com/kulveertaggar</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Kulveer Taggar
+kulveer
+founder &amp; ceo @zeuslivinginc
+www.thetwentyminutevc.com/kulveertaggar</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>kulveer
+Follow
+69 posts
+2,190 followers
+1,151 following
+Kulveer Taggar
+kulveer
+founder &amp; ceo @zeuslivinginc
+www.thetwentyminutevc.com/kulveertaggar
+Norway
+Singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Fidji Simo</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fidjissimo/</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>27000</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr"/>
+      <c r="G10" s="0" t="inlineStr"/>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Fidji Simo
+fidjissimo
+CEO @ Instacart // Co-founder of Metrodora Institute // Former Head of Facebook at Meta // Artist in spare time</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>fidjissimo
+Follow
+389 posts
+27K followers
+1,535 following
+Fidji Simo
+fidjissimo
+CEO @ Instacart // Co-founder of Metrodora Institute // Former Head of Facebook at Meta // Artist in spare time</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Nisha Agarwal | निशा | નિશા</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ninjaa_nish/</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1205</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr"/>
+      <c r="G11" s="0" t="inlineStr"/>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Nisha Agarwal | निशा | નિશા
+Fairy in the dragon forest, always wearing my invisible crown 👑
+Co-founder of @dhunki.life
+Works at @zanzibar.living
+Nisha Agarwal</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>ninjaa_nish
+Follow
+332 posts
+313 followers
+1,205 following
+Nisha Agarwal | निशा | નિશા
+Fairy in the dragon forest, always wearing my invisible crown 👑
+Co-founder of @dhunki.life
+Works at @zanzibar.living
+Nisha Agarwal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Jon Ferrara</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jonferrara/</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5196</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2077</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3923</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr"/>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>www.nimble.com</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Jon Ferrara
+jonferrara
+Motivational speaker
+Pioneer of #CRM, Founder of Nimble, GoldMine. Interests; Social Selling, Social Business, Customer Lifecycle,... 
+more
+www.nimble.com</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>jonferrara
+Follow
+Message
+5,196 posts
+2,077 followers
+3,923 following
+Jon Ferrara
+jonferrara
+Motivational speaker
+Pioneer of #CRM, Founder of Nimble, GoldMine. Interests; Social Selling, Social Business, Customer Lifecycle,... 
+more
+www.nimble.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Jo Cronk-Smith</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jocronksmith/</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1494</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1446</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3026</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr"/>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>www.whalar.com</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>Jo Cronk-Smith
+jocronksmith
+Mum to Oscar. Co-CEO @ Whalar.
+www.whalar.com</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>jocronksmith
+Follow
+1,494 posts
+1,446 followers
+3,026 following
+Jo Cronk-Smith
+jocronksmith
+Mum to Oscar. Co-CEO @ Whalar.
+www.whalar.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Alex Wu</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/awu/</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2073</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>7503</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="inlineStr"/>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Alex Wu
+awu
+吳明韋 Founding Team: NEX Team (makers of @homecourtai, @activearcade, @partyfowl_game, @starrigame)
+Co-Founder... 
+more</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>awu
+Follow
+700 posts
+2,073 followers
+7,503 following
+Alex Wu
+awu
+吳明韋 Founding Team: NEX Team (makers of @homecourtai, @activearcade, @partyfowl_game, @starrigame)
+Co-Founder... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Whitney Wolfe Herd</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/whitney/</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>243000</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="G15" s="0" t="inlineStr"/>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>Whitney Wolfe Herd
+Entrepreneur
+Founder &amp; CEO of Bumble 🐝
+@bumble @bumbleforfriends</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>whitney
+Follow
+Message
+26 posts
+243K followers
+1,984 following
+Whitney Wolfe Herd
+Entrepreneur
+Founder &amp; CEO of Bumble 🐝
+@bumble @bumbleforfriends</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Trevor Sumner</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/trevnyc/</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>845</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr"/>
+      <c r="G16" s="0" t="inlineStr"/>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Trevor Sumner
+trevnyc
+CEO of I-Genie.ai, Founder of LocalVox, NYC native, amateur chef, global scuba diver, adventurer. When you find yourself... 
+more
+trevorsumner.com</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>trevnyc
+Follow
+195 posts
+845 followers
+378 following
+Trevor Sumner
+trevnyc
+CEO of I-Genie.ai, Founder of LocalVox, NYC native, amateur chef, global scuba diver, adventurer. When you find yourself... 
+more
+trevorsumner.com
+4.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Tod Sacerdoti</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/todsac/</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2804</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr"/>
+      <c r="G17" s="0" t="inlineStr"/>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Tod Sacerdoti
+todsac
+Entrepreneur. Founder/CEO @Pipedream. Also father, investor &amp; lifelong learner.
+todsacerdoti.com</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>todsac
+Follow
+138 posts
+2,804 followers
+31 following
+Tod Sacerdoti
+todsac
+Entrepreneur. Founder/CEO @Pipedream. Also father, investor &amp; lifelong learner.
+todsacerdoti.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Brian Dainton</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bdainton/</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>902</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1329</v>
+      </c>
+      <c r="F18" s="0" t="inlineStr"/>
+      <c r="G18" s="0" t="inlineStr"/>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Brian Dainton
+bdainton
+Engineering Leadership Coach fostering a generation of compassionate and effective dev leaders.
+Founder x 5, Emmy winner... 
+more
+briandainton.com</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>bdainton
+Follow
+Message
+508 posts
+902 followers
+1,329 following
+Brian Dainton
+bdainton
+Engineering Leadership Coach fostering a generation of compassionate and effective dev leaders.
+Founder x 5, Emmy winner... 
+more
+briandainton.com
+May Eggs
+April Eggs
+QOTD
+March Eggs
+Feb Eggs
+Jan eggs
+Dec Eggs
+Nov Eggs
+Oct Eggs
+Sept Eggs
+August Eggs
+July Eggs 🍳
+Slovakia 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Navarrow Wright</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/navarrow/</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>869</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>952</v>
+      </c>
+      <c r="F19" s="0" t="inlineStr"/>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>www.youtube.com/watch?v=G9ZtqsbLEDE</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Navarrow Wright
+navarrow
+Servant of God, entrepreneur, technology advocate, COO/CTO Mirror Digital, FMR Senior Director Product Marketing @meta... 
+more
+www.youtube.com/watch?v=G9ZtqsbLEDE</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>navarrow
+Follow
+Message
+1,480 posts
+869 followers
+952 following
+Navarrow Wright
+navarrow
+Servant of God, entrepreneur, technology advocate, COO/CTO Mirror Digital, FMR Senior Director Product Marketing @meta... 
+more
+www.youtube.com/watch?v=G9ZtqsbLEDE
+Quotes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Kai-Fu Lee</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kaifu_lee/</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>14900</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F20" s="0" t="inlineStr"/>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>www.ai2041.com</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Kai-Fu Lee
+kaifu_lee
+AI Expert, CEO of 创新工场 Sinovation Ventures, former President of Google China, Author of #AI2041 #AISuperpowers
+www.ai2041.com</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>kaifu_lee
+Follow
+Message
+24 posts
+14.9K followers
+22 following
+Kai-Fu Lee
+kaifu_lee
+AI Expert, CEO of 创新工场 Sinovation Ventures, former President of Google China, Author of #AI2041 #AISuperpowers
+www.ai2041.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Rob Goldberg</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/iamrobgoldberg/</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1163</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1824</v>
+      </c>
+      <c r="F21" s="0" t="inlineStr"/>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>www.4rg.com</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>Rob Goldberg
+iamrobgoldberg
+Father. Builder (not physically, I’m Jewish)...Founder of Forge...After work you can find me b/c I’m 6’3” and don’t hide... 
+more
+www.4rg.com</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>iamrobgoldberg
+Follow
+211 posts
+1,163 followers
+1,824 following
+Rob Goldberg
+iamrobgoldberg
+Father. Builder (not physically, I’m Jewish)...Founder of Forge...After work you can find me b/c I’m 6’3” and don’t hide... 
+more
+www.4rg.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Mike Schroepfer</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/schrep/</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>33400</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" s="0" t="inlineStr"/>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>www.linkedin.com/in/schrep</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Mike Schroepfer
+schrep
+Climate and AI, Gigascale and Meta
+www.linkedin.com/in/schrep</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>schrep
+Follow
+39 posts
+33.4K followers
+384 following
+Mike Schroepfer
+schrep
+Climate and AI, Gigascale and Meta
+www.linkedin.com/in/schrep</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>David Kidder</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/davidskidder/</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>4465</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="F23" s="0" t="inlineStr"/>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>www.davidskidder.com</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>David Kidder
+davidskidder
+Entrepreneur
+Founder, TheBoardOfLife.ai
+Co-Founder, Bionic (Acquired by Accenture)
+4x Exited Founder. 2x NYT Best Sellers. 100+ Angel... 
+more
+www.davidskidder.com</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>davidskidder
+Follow
+Message
+130 posts
+4,465 followers
+294 following
+David Kidder
+davidskidder
+Entrepreneur
+Founder, TheBoardOfLife.ai
+Co-Founder, Bionic (Acquired by Accenture)
+4x Exited Founder. 2x NYT Best Sellers. 100+ Angel... 
+more
+www.davidskidder.com
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Sheryl Sandberg</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sherylsandberg/</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F24" s="0" t="inlineStr"/>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>www.screamsbeforesilence.com</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>Sheryl Sandberg
+sherylsandberg
+former COO of @meta and founder of @leaninorg and @optionb
+www.screamsbeforesilence.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>sherylsandberg
+Follow
+1,391 posts
+1.2M followers
+2,013 following
+Sheryl Sandberg
+sherylsandberg
+former COO of @meta and founder of @leaninorg and @optionb
+www.screamsbeforesilence.com and 1 more
+Massachusetts 🇺🇸
+North Carolina
+Dubai
+Mental Health
+Giving Tuesday
+#BuyBlack
+#LoveLocal MENA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Shellye Archambeau</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/shelarchambeau/</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>6683</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="F25" s="0" t="inlineStr"/>
+      <c r="G25" s="0" t="inlineStr"/>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>Shellye Archambeau
+shelarchambeau
+Author
+One of tech's 1ST black female CEOs
+Fortune 500 board member
+Founder: @igniteambition_ ✨
+Author:“Unapologetically... 
+more
+linktr.ee/Shellyearchambeau and 4 more</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>shelarchambeau
+Follow
+Message
+1,015 posts
+6,683 followers
+264 following
+Shellye Archambeau
+shelarchambeau
+Author
+One of tech's 1ST black female CEOs
+Fortune 500 board member
+Founder: @igniteambition_ ✨
+Author:“Unapologetically... 
+more
+linktr.ee/Shellyearchambeau and 4 more
+Lifestyle
+Chef Shellye
+Career Tips
+Ignite Ambition
+Events
+Book Reviews
+AMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Danielle Slaton</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/daniellevslaton/</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2738</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="F26" s="0" t="inlineStr"/>
+      <c r="G26" s="0" t="inlineStr"/>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>Danielle Slaton
+she/her
+daniellevslaton
+Mom to 2 cute kids, wife to a cute fella. Trying to leave the world a little better than I found it. Proud co-founder of... 
+more</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>daniellevslaton
+Follow
+167 posts
+2,738 followers
+343 following
+Danielle Slaton
+she/her
+daniellevslaton
+Mom to 2 cute kids, wife to a cute fella. Trying to leave the world a little better than I found it. Proud co-founder of... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr"/>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dr.laura.sapa/</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="F27" s="0" t="inlineStr"/>
+      <c r="G27" s="0" t="inlineStr"/>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>🎤 Speaker | 🎓 DBA Candidate
+📚 UK &amp; US Education | Career Pathways
+Helping you choose smarter, not harder
+Founder... 
+more</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>dr.laura.sapa
+Follow
+0 posts
+15 followers
+345 following
+🎤 Speaker | 🎓 DBA Candidate
+📚 UK &amp; US Education | Career Pathways
+Helping you choose smarter, not harder
+Founder... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>The Shortform CEO</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theshortform_ceo/</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="F28" s="0" t="inlineStr"/>
+      <c r="G28" s="0" t="inlineStr"/>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>The Shortform CEO
+ENFP</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>theshortform_ceo
+Follow
+2 posts
+7 followers
+191 following
+The Shortform CEO
+ENFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Tracy Chou</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/triketora/</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>4381</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1151</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1317</v>
+      </c>
+      <c r="F29" s="0" t="inlineStr"/>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>www.triketora.com</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>Tracy Chou
+follow me @exhaustedfemalefounder
+www.triketora.com</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>triketora
+Follow
+4,381 posts
+1,151 followers
+1,317 following
+Tracy Chou
+follow me @exhaustedfemalefounder
+www.triketora.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Vijay Ravindran</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/vijayravindran/</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>483</v>
+      </c>
+      <c r="F30" s="0" t="inlineStr"/>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>www.nytimes.com/2022/06/14/business/virtual-reality-autism-children-telehealth-floreo.html</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>Vijay Ravindran
+vijayravindran
+Entrepreneur
+CEO at Floreo/@floreovr
+www.nytimes.com/2022/06/14/business/virtual-reality-autism-children-telehealth-floreo.html</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>vijayravindran
+Follow
+Message
+215 posts
+519 followers
+483 following
+Vijay Ravindran
+vijayravindran
+Entrepreneur
+CEO at Floreo/@floreovr
+www.nytimes.com/2022/06/14/business/virtual-reality-autism-children-telehealth-floreo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Brad Garlinghouse</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bgarlinghouse/</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>669</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>805</v>
+      </c>
+      <c r="F31" s="0" t="inlineStr"/>
+      <c r="G31" s="0" t="inlineStr"/>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>Brad Garlinghouse
+bgarlinghouse
+CEO at Ripple</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>bgarlinghouse
+Follow
+50 posts
+669 followers
+805 following
+Brad Garlinghouse
+bgarlinghouse
+CEO at Ripple</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Amanda Terry</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/amandaterry/</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>612</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2327</v>
+      </c>
+      <c r="F32" s="0" t="inlineStr"/>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>www.virgin.com/branson-family/holly-branson-blog/investing-with-purpose-how-metagood-is-combining-purpose-with-innovation</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>Amanda Terry
+amandaterry
+🐵 Co-Founder, COO @onchainmonkey, 1st 10K NFT collection on Bitcoin &amp; innovative community🔥
+🌱Co-Founder &amp; Managing... 
+more
+www.virgin.com/branson-family/holly-branson-blog/investing-with-purpose-how-metagood-is-combining-purpose-with-innovation and 4 more</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>amandaterry
+Follow
+612 posts
+2,004 followers
+2,327 following
+Amanda Terry
+amandaterry
+🐵 Co-Founder, COO @onchainmonkey, 1st 10K NFT collection on Bitcoin &amp; innovative community🔥
+🌱Co-Founder &amp; Managing... 
+more
+www.virgin.com/branson-family/holly-branson-blog/investing-with-purpose-how-metagood-is-combining-purpose-with-innovation and 4 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Michael Ramsay</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mikeramsayphoto/</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>483</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="F33" s="0" t="inlineStr"/>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>www.mikeramsay.com</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>Michael Ramsay
+Traveler, Entrepreneur, Co founder, ex-CEO TiVo
+www.mikeramsay.com</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>mikeramsayphoto
+Follow
+477 posts
+483 followers
+386 following
+Michael Ramsay
+Traveler, Entrepreneur, Co founder, ex-CEO TiVo
+www.mikeramsay.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>jim cuene</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jcuene/</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="F34" s="0" t="inlineStr"/>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>www.cuene.com</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>jim cuene
+jcuene
+This is my work account. Founder at @hellofahren, Prev: @gokartlabs, General Mills, Ameriprise, Amex, Husband, dad,... 
+more
+www.cuene.com</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>jcuene
+Follow
+89 posts
+194 followers
+111 following
+jim cuene
+jcuene
+This is my work account. Founder at @hellofahren, Prev: @gokartlabs, General Mills, Ameriprise, Amex, Husband, dad,... 
+more
+www.cuene.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sopharicks/</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>591</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1591</v>
+      </c>
+      <c r="F35" s="0" t="inlineStr"/>
+      <c r="G35" s="0" t="inlineStr"/>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>Sophia
+Simulated agent in search of the meaning of life
+Fan of astrophysics
+Founder: BuzzRobot. Ex-OpenAI fellow
+youtube.com/@buzzrobot?si=5E9p4r9kcGUbbIAd</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>sopharicks
+Follow
+170 posts
+591 followers
+1,591 following
+Sophia
+Simulated agent in search of the meaning of life
+Fan of astrophysics
+Founder: BuzzRobot. Ex-OpenAI fellow
+youtube.com/@buzzrobot?si=5E9p4r9kcGUbbIAd</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Paul Elderkin</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/paulelderkin_/</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="F36" s="0" t="inlineStr"/>
+      <c r="G36" s="0" t="inlineStr"/>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>Paul Elderkin
+One world, one wellbeing.
+🎙️Co-host @outofplaece | real, raw &amp; a bit out of place
+❤️ Founder @plaece.io | apps for... 
+more
+plaece.io/en-au/founding</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>paulelderkin_
+Follow
+Message
+41 posts
+233 followers
+197 following
+Paul Elderkin
+One world, one wellbeing.
+🎙️Co-host @outofplaece | real, raw &amp; a bit out of place
+❤️ Founder @plaece.io | apps for... 
+more
+plaece.io/en-au/founding</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Michael Lazerow</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lazerow/</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>12700</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>906</v>
+      </c>
+      <c r="F37" s="0" t="inlineStr"/>
+      <c r="G37" s="0" t="inlineStr"/>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>Michael Lazerow
+Serial Entrepreneur • Early-Stage Investor • Founder of Golf.com + Buddy Media • NYT Bestselling Author
+📖Shoveling... 
+more
+a.co/d/gDYSM9J and 1 more</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>lazerow
+Follow
+522 posts
+12.7K followers
+906 following
+Michael Lazerow
+Serial Entrepreneur • Early-Stage Investor • Founder of Golf.com + Buddy Media • NYT Bestselling Author
+📖Shoveling... 
+more
+a.co/d/gDYSM9J and 1 more
+The 💩Show
+📗Reviews
+Shoveling💩
+NSD 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Richard Ardis</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/richardardis/</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="F38" s="0" t="inlineStr"/>
+      <c r="G38" s="0" t="inlineStr"/>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>Richard Ardis
+richardardis
+Richard of Ireland. Co-founder &amp; CSO @wearefulfilment. Married to @sallykateardis.</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>richardardis
+Follow
+239 posts
+253 followers
+510 following
+Richard Ardis
+richardardis
+Richard of Ireland. Co-founder &amp; CSO @wearefulfilment. Married to @sallykateardis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Tim Young</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/timyoung/</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1554</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>4116</v>
+      </c>
+      <c r="F39" s="0" t="inlineStr"/>
+      <c r="G39" s="0" t="inlineStr"/>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>Tim Young
+Entrepreneur | past: President @Dropbox, founder of About.me &amp; Socialcast, VMware, Interscope Records. Friend of 🐨... 
+more
+tim.me</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>timyoung
+Follow
+34 posts
+1,554 followers
+4,116 following
+Tim Young
+Entrepreneur | past: President @Dropbox, founder of About.me &amp; Socialcast, VMware, Interscope Records. Friend of 🐨... 
+more
+tim.me</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/joottiitaa/</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>959</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="F40" s="0" t="inlineStr"/>
+      <c r="G40" s="0" t="inlineStr"/>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>.
+joottiitaa
+Entrepreneur
+FOUNDER - @eirtech.sl 🏦
+🎯 Branding | Marketing | Software | Start-Ups | Finanzas |
+A qué esperas para unirte al... 
+more
+kitmarca.carrd.co</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>joottiitaa
+Follow
+Message
+2 posts
+959 followers
+305 following
+.
+joottiitaa
+Entrepreneur
+FOUNDER - @eirtech.sl 🏦
+🎯 Branding | Marketing | Software | Start-Ups | Finanzas |
+A qué esperas para unirte al... 
+more
+kitmarca.carrd.co
+🚨
+GR✅
+🙋🏽‍♂️
+👨🏽‍💻</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>eric toda</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/toda/</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>7676</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>985</v>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>1144097858</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>www.barnesandnoble.com/w/what-in-the-world-is-ezras-art-eric-toda/1144097858</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>eric toda
+toda
+dad and husband ❤️
+work: @meta @metaprosper
+boards: @taaforg @letsreimagine @thetown_fc
+author: @thirdstatebooks
+www.barnesandnoble.com/w/what-in-the-world-is-ezras-art-eric-toda/1144097858 and 2 more</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>toda
+Follow
+Message
+93 posts
+7,676 followers
+985 following
+eric toda
+toda
+dad and husband ❤️
+work: @meta @metaprosper
+boards: @taaforg @letsreimagine @thetown_fc
+author: @thirdstatebooks
+www.barnesandnoble.com/w/what-in-the-world-is-ezras-art-eric-toda/1144097858 and 2 more
+let him cook
+📰</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Brian Magierski</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bmagierski/</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="F42" s="0" t="inlineStr"/>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>https://xponetiq.com</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>Brian Magierski
+Serial entrepreneur. Founder of Cerebrum DAO and xponetiq https://xponetiq.com
+xponetiq.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>bmagierski
+Follow
+32 posts
+322 followers
+273 following
+Brian Magierski
+Serial entrepreneur. Founder of Cerebrum DAO and xponetiq https://xponetiq.com
+xponetiq.com and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Chad Hurley</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chad_hurley/</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>27400</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="F43" s="0" t="inlineStr"/>
+      <c r="G43" s="0" t="inlineStr"/>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>Chad Hurley
+chad_hurley
+Co-Founder, @YouTube &amp; other stupid ideas.
+youtube.com/chad</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>chad_hurley
+Follow
+Message
+103 posts
+27.4K followers
+564 following
+Chad Hurley
+chad_hurley
+Co-Founder, @YouTube &amp; other stupid ideas.
+youtube.com/chad</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Christoph Nakazawa</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cpojer/</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="F44" s="0" t="inlineStr"/>
+      <c r="G44" s="0" t="inlineStr"/>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>Christoph Nakazawa
+CEO at @nakazawa_tech</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>cpojer
+Follow
+Message
+5 posts
+158 followers
+69 following
+Christoph Nakazawa
+CEO at @nakazawa_tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Ashley Yuki Alexander</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ashleyyuki/</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F45" s="0" t="inlineStr"/>
+      <c r="G45" s="0" t="inlineStr"/>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>Ashley Yuki Alexander
+ashleyyuki
+👩🏻‍💻 Co-Head of Product @instagram
+🎀+🐶 mom
+🌸🌻There are always flowers for those who want to see them 🌻🌸</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>ashleyyuki
+Follow
+Message
+344 posts
+17.7K followers
+1,140 following
+Ashley Yuki Alexander
+ashleyyuki
+👩🏻‍💻 Co-Head of Product @instagram
+🎀+🐶 mom
+🌸🌻There are always flowers for those who want to see them 🌻🌸
+KTBSPA 💕
+Highlights
+Disneyland!
+🇬🇷
+👰🏻‍♀️🤵🏼‍♂️🌴
+🇮🇪
+IGTV launch
+🇻🇳</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Shirin “shireeeen” Oskooi</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theshirin/</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>462</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>7515</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1084</v>
+      </c>
+      <c r="F46" s="0" t="inlineStr"/>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>www.floptimal.com</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>Shirin “shireeeen” Oskooi
+theshirin
+🏝 Survivor All Star 📀 Tech 🃏 Poker 🧩 Floptimal Founder 🔮
+www.floptimal.com</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>theshirin
+Follow
+462 posts
+7,515 followers
+1,084 following
+Shirin “shireeeen” Oskooi
+theshirin
+🏝 Survivor All Star 📀 Tech 🃏 Poker 🧩 Floptimal Founder 🔮
+www.floptimal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Todd McKinnon</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/toddmckinnon/</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="F47" s="0" t="inlineStr"/>
+      <c r="G47" s="0" t="inlineStr"/>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>Todd McKinnon
+Co-Founder and CEO of @oktainc
+okta.com</t>
+        </is>
+      </c>
+      <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>toddmckinnon
+Follow
+119 posts
+1,990 followers
+131 following
+Todd McKinnon
+Co-Founder and CEO of @oktainc
+okta.com
+“The Okta”</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Scott Mitic</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/scottmitic/</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>781</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="F48" s="0" t="inlineStr"/>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>www.drinksomethingelse.com</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>Scott Mitic
+scottmitic
+Co-founder of SomethingElse, makers of Kally non-alc beverages.
+www.drinksomethingelse.com</t>
+        </is>
+      </c>
+      <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>scottmitic
+Follow
+781 posts
+56 followers
+193 following
+Scott Mitic
+scottmitic
+Co-founder of SomethingElse, makers of Kally non-alc beverages.
+www.drinksomethingelse.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Chris Cox</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chriscox/</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="F49" s="0" t="inlineStr"/>
+      <c r="G49" s="0" t="inlineStr"/>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>Chris Cox
+chriscox
+CPO @ Meta</t>
+        </is>
+      </c>
+      <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>chriscox
+Follow
+42 posts
+17.7K followers
+356 following
+Chris Cox
+chriscox
+CPO @ Meta
+Highlights
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>𝐋 𝐀 𝐑 𝐒 𝐇 𝐈 𝐍 𝐑 𝐈 𝐂 𝐇 𝐒</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/larshinrichs/</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>705</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1528</v>
+      </c>
+      <c r="F50" s="0" t="inlineStr"/>
+      <c r="G50" s="0" t="inlineStr"/>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>𝐋 𝐀 𝐑 𝐒 𝐇 𝐈 𝐍 𝐑 𝐈 𝐂 𝐇 𝐒
+larshinrichs
+Entrepreneur, Investor &amp; Chairman
+in love with unicorns 🐉
+Founder Cinco-Capital, XING, HackFWD, DAM, YPOS, SSLS... 
+more
+hinrichs.com</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>larshinrichs
+Follow
+1,086 posts
+705 followers
+1,528 following
+𝐋 𝐀 𝐑 𝐒 𝐇 𝐈 𝐍 𝐑 𝐈 𝐂 𝐇 𝐒
+larshinrichs
+Entrepreneur, Investor &amp; Chairman
+in love with unicorns 🐉
+Founder Cinco-Capital, XING, HackFWD, DAM, YPOS, SSLS... 
+more
+hinrichs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Susan Wojcicki</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/susanwojcicki/</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>55300</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="F51" s="0" t="inlineStr"/>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>www.youtube.com/susanwojcicki</t>
+        </is>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>Susan Wojcicki
+susanwojcicki
+YouTube CEO
+www.youtube.com/susanwojcicki</t>
+        </is>
+      </c>
+      <c r="I51" s="0" t="inlineStr">
+        <is>
+          <t>susanwojcicki
+Follow
+Message
+40 posts
+55.3K followers
+125 following
+Susan Wojcicki
+susanwojcicki
+YouTube CEO
+www.youtube.com/susanwojcicki</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Cosme Gomes da Silva</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cosmegomesdasilva/</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>475</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1525</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>4992</v>
+      </c>
+      <c r="F52" s="0" t="inlineStr"/>
+      <c r="G52" s="0" t="inlineStr"/>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>Cosme Gomes da Silva
+cosmegomesdasilva
+👪 Marido, pai, apaixonado pela família
+⠀⠀⠀⠀⠀⠀⠀⠀⠀
+📢 Founder e idealizador da
+@comticomunicacao @direcaosobrerodas... 
+more</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>cosmegomesdasilva
+Follow
+Message
+475 posts
+1,525 followers
+4,992 following
+Cosme Gomes da Silva
+cosmegomesdasilva
+👪 Marido, pai, apaixonado pela família
+⠀⠀⠀⠀⠀⠀⠀⠀⠀
+📢 Founder e idealizador da
+@comticomunicacao @direcaosobrerodas... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>jessica sherrets</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jessicasherrets/</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2445</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>8936</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3554</v>
+      </c>
+      <c r="F53" s="0" t="inlineStr"/>
+      <c r="G53" s="0" t="inlineStr"/>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>jessica sherrets
+jessicasherrets
+&lt;there's a crack in everything that's how the light gets in&gt;
+Founder @lalumiereny
+🏢 @meta
+Mom of three boys ❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="I53" s="0" t="inlineStr">
+        <is>
+          <t>jessicasherrets
+Follow
+Message
+2,445 posts
+8,936 followers
+3,554 following
+jessica sherrets
+jessicasherrets
+&lt;there's a crack in everything that's how the light gets in&gt;
+Founder @lalumiereny
+🏢 @meta
+Mom of three boys ❤️❤️❤️
+♥️♥️
+🏔
+Homaha
+Nyc
+Cali
+Austin
+❤️
+Bucket list ✅
+Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Martin Ingemansson</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/martiningemansson76/</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1511</v>
+      </c>
+      <c r="F54" s="0" t="inlineStr"/>
+      <c r="G54" s="0" t="inlineStr"/>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>Martin Ingemansson
+martiningemansson76
+Founder of Facebook / Meta in the Nordics exited ,UEFA C ,Investor, dad of two , coach to Brommapojkarna P2011</t>
+        </is>
+      </c>
+      <c r="I54" s="0" t="inlineStr">
+        <is>
+          <t>martiningemansson76
+Follow
+2,026 posts
+662 followers
+1,511 following
+Martin Ingemansson
+martiningemansson76
+Founder of Facebook / Meta in the Nordics exited ,UEFA C ,Investor, dad of two , coach to Brommapojkarna P2011
+Sea
+practise
+Grow
+Food
+BBQ
+tgif
+Visitors
+My little girl</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Leila Janah</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/leilajanah/</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2953</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>3155</v>
+      </c>
+      <c r="F55" s="0" t="inlineStr"/>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>www.ft.com/content/56dde36c-aa40-11e9-984c-fac8325aaa04</t>
+        </is>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>Leila Janah
+Entrepreneur
+👩🏽‍💻 founder @samasource | @samaschoolorg |@LXMIofficial
+📖 author of #GiveWork
+🌍 adventure lover
+🎗sarcoma fighter
+www.ft.com/content/56dde36c-aa40-11e9-984c-fac8325aaa04</t>
+        </is>
+      </c>
+      <c r="I55" s="0" t="inlineStr">
+        <is>
+          <t>leilajanah
+Follow
+Message
+2,953 posts
+24K followers
+3,155 following
+Leila Janah
+Entrepreneur
+👩🏽‍💻 founder @samasource | @samaschoolorg |@LXMIofficial
+📖 author of #GiveWork
+🌍 adventure lover
+🎗sarcoma fighter
+www.ft.com/content/56dde36c-aa40-11e9-984c-fac8325aaa04
+Family ❤️
+Samasource
+Kenya
+Vegan Inspo
+LXMI
+#GiveWork
+Kite + surf
+Samaschool</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Phillip Rather</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/philliprather/</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>780</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1423</v>
+      </c>
+      <c r="F56" s="0" t="inlineStr"/>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>www.guildtogether.com</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>Phillip Rather
+philliprather
+Founder and CEO of @guildtogether | ex Meta / fb / IG | Investor | Advisor | Songwriter | Girl Dad and Husband
+www.guildtogether.com</t>
+        </is>
+      </c>
+      <c r="I56" s="0" t="inlineStr">
+        <is>
+          <t>philliprather
+Follow
+Message
+91 posts
+780 followers
+1,423 following
+Phillip Rather
+philliprather
+Founder and CEO of @guildtogether | ex Meta / fb / IG | Investor | Advisor | Songwriter | Girl Dad and Husband
+www.guildtogether.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>RJ Love</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ryanjlove/</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>911</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>6520</v>
+      </c>
+      <c r="F57" s="0" t="inlineStr"/>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>www.thegoldenhope.com</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>RJ Love
+ryanjlove
+Co-Founder/CEO @
+The Golden Hope
+www.thegoldenhope.com</t>
+        </is>
+      </c>
+      <c r="I57" s="0" t="inlineStr">
+        <is>
+          <t>ryanjlove
+Follow
+1,031 posts
+911 followers
+6,520 following
+RJ Love
+ryanjlove
+Co-Founder/CEO @
+The Golden Hope
+www.thegoldenhope.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Nada Stirratt</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nadastir/</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1158</v>
+      </c>
+      <c r="F58" s="0" t="inlineStr"/>
+      <c r="G58" s="0" t="inlineStr"/>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>Nada Stirratt
+she/her
+nadastir
+Tech Exec. Design Enthusiast. Sportswoman. Bookworm. Director @bluestarfamilies.
+linktr.ee/NadaStirratt</t>
+        </is>
+      </c>
+      <c r="I58" s="0" t="inlineStr">
+        <is>
+          <t>nadastir
+Follow
+289 posts
+1,143 followers
+1,158 following
+Nada Stirratt
+she/her
+nadastir
+Tech Exec. Design Enthusiast. Sportswoman. Bookworm. Director @bluestarfamilies.
+linktr.ee/NadaStirratt
+#BuyBlack 2022
+Facebook
+Brands I Love
+Team Stirratt</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Sarah Leary</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sarahleary/</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>729</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>976</v>
+      </c>
+      <c r="F59" s="0" t="inlineStr"/>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>www.nextdoor.com</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>Sarah Leary
+sarahleary
+Co-Founder, Nextdoor. Investor, Unusual. Boston/Bay. Diehard BOS/DHA sports fan. Uber cheerleader of nieces, nephews,... 
+more
+www.nextdoor.com</t>
+        </is>
+      </c>
+      <c r="I59" s="0" t="inlineStr">
+        <is>
+          <t>sarahleary
+Follow
+729 posts
+1,108 followers
+976 following
+Sarah Leary
+sarahleary
+Co-Founder, Nextdoor. Investor, Unusual. Boston/Bay. Diehard BOS/DHA sports fan. Uber cheerleader of nieces, nephews,... 
+more
+www.nextdoor.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Net Jacobsson</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/netanel/</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2166</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>996</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1542</v>
+      </c>
+      <c r="F60" s="0" t="inlineStr"/>
+      <c r="G60" s="0" t="inlineStr"/>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>Net Jacobsson
+Public figure
+💼Entrepreneur.
+🚀Adventure Capitalist @Stoked Capital
+🚵Mountain biker. 🇮🇱🇸🇪
+netjacobsson.com</t>
+        </is>
+      </c>
+      <c r="I60" s="0" t="inlineStr">
+        <is>
+          <t>netanel
+Follow
+Message
+2,166 posts
+996 followers
+1,542 following
+Net Jacobsson
+Public figure
+💼Entrepreneur.
+🚀Adventure Capitalist @Stoked Capital
+🚵Mountain biker. 🇮🇱🇸🇪
+netjacobsson.com
+What’s cookin’
+Bikeology
+Work
+Investments
+Necker Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>David Lee</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/daslee/</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>733</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2813</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1719</v>
+      </c>
+      <c r="F61" s="0" t="inlineStr"/>
+      <c r="G61" s="0" t="inlineStr"/>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>David Lee
+daslee
+Samsung Electronics | Board of Directors @uclajonssoncancercenter | prior: Google, SV Angel, Refactor Capital
+samsungnext.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I61" s="0" t="inlineStr">
+        <is>
+          <t>daslee
+Follow
+733 posts
+2,813 followers
+1,719 following
+David Lee
+daslee
+Samsung Electronics | Board of Directors @uclajonssoncancercenter | prior: Google, SV Angel, Refactor Capital
+samsungnext.com and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Brian Sugar</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/briansugar/</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2109</v>
+      </c>
+      <c r="F62" s="0" t="inlineStr"/>
+      <c r="G62" s="0" t="inlineStr"/>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>Brian Sugar
+briansugar
+Entrepreneur
+💙 @lisapopsugar
+👧 #girldad x 3
+👨‍💻 Founder @ps.feelgood @SugarCapital
+sugarcap.com/brian-sugar</t>
+        </is>
+      </c>
+      <c r="I62" s="0" t="inlineStr">
+        <is>
+          <t>briansugar
+Follow
+Message
+1,130 posts
+15.6K followers
+2,109 following
+Brian Sugar
+briansugar
+Entrepreneur
+💙 @lisapopsugar
+👧 #girldad x 3
+👨‍💻 Founder @ps.feelgood @SugarCapital
+sugarcap.com/brian-sugar
+💙
+College Tours
+Hawaii 23
+Spain 2022
+Italy 2022
+Singapore 2022
+Australia 2022
+Mexico 2022
+Israel 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Nisha Chittal</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nishachittal/</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>6959</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F63" s="0" t="inlineStr"/>
+      <c r="G63" s="0" t="inlineStr"/>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>Nisha Chittal
+she/her
+nishachittal
+vp + chief of staff @voxdotcom. cooking + wine enthusiast. working mom life in brooklyn.
+nishachittal.substack.com</t>
+        </is>
+      </c>
+      <c r="I63" s="0" t="inlineStr">
+        <is>
+          <t>nishachittal
+Follow
+72 posts
+6,959 followers
+1,000 following
+Nisha Chittal
+she/her
+nishachittal
+vp + chief of staff @voxdotcom. cooking + wine enthusiast. working mom life in brooklyn.
+nishachittal.substack.com
+South Africa
+Cookies 2024
+🇮🇸
+Wine
+🇮🇹
+🇵🇹
+🇫🇷
+Cooking
+Toronto
+Kyoto
+Cece eats
+My writing
+Restaurants
+Beauty faves</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Farhad Aghaie-Mibody 🔵</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/farhadam/</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>905</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>918</v>
+      </c>
+      <c r="F64" s="0" t="inlineStr"/>
+      <c r="G64" s="0" t="inlineStr"/>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>Farhad Aghaie-Mibody 🔵
+farhadam
+Entrepreneur
+🌎 in my 👁, Co-Founder &amp; CEO @silobeeinc - Co-Founder &amp; Principal @topdotarchitects
+facebook.com/farhadam</t>
+        </is>
+      </c>
+      <c r="I64" s="0" t="inlineStr">
+        <is>
+          <t>farhadam
+Follow
+Message
+905 posts
+2,482 followers
+918 following
+Farhad Aghaie-Mibody 🔵
+farhadam
+Entrepreneur
+🌎 in my 👁, Co-Founder &amp; CEO @silobeeinc - Co-Founder &amp; Principal @topdotarchitects
+facebook.com/farhadam</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>John Furrier</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/johnfurrier/</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1134</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="F65" s="0" t="inlineStr"/>
+      <c r="G65" s="0" t="inlineStr"/>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>John Furrier
+johnfurrier
+Entrepreneur
+Cofounder</t>
+        </is>
+      </c>
+      <c r="I65" s="0" t="inlineStr">
+        <is>
+          <t>johnfurrier
+Follow
+Message
+284 posts
+1,134 followers
+272 following
+John Furrier
+johnfurrier
+Entrepreneur
+Cofounder
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Matteo Petrelli</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/matteopetrelly/</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>836</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>5372</v>
+      </c>
+      <c r="F66" s="0" t="inlineStr"/>
+      <c r="G66" s="0" t="inlineStr"/>
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>Matteo Petrelli
+🇮🇹 CEO &amp; Founder of “Sig.” | real life, less social
+👨🏻‍💻 VD | CC | BC - Brand • E-com Mogul</t>
+        </is>
+      </c>
+      <c r="I66" s="0" t="inlineStr">
+        <is>
+          <t>matteopetrelly
+Follow
+0 posts
+836 followers
+5,372 following
+Matteo Petrelli
+🇮🇹 CEO &amp; Founder of “Sig.” | real life, less social
+👨🏻‍💻 VD | CC | BC - Brand • E-com Mogul</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Adnan Khan</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/adnankhan/</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1796</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F67" s="0" t="inlineStr"/>
+      <c r="G67" s="0" t="inlineStr"/>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>Adnan Khan
+adnankhan
+Co-Founder at stitch | ex-Meta | ex-Microsoft | AdTech &amp; Martech | Aussie 🇦🇺 &amp; Kiwi 🇳🇿
+adnan.co.nz and 1 more</t>
+        </is>
+      </c>
+      <c r="I67" s="0" t="inlineStr">
+        <is>
+          <t>adnankhan
+Follow
+1,796 posts
+2,301 followers
+1,123 following
+Adnan Khan
+adnankhan
+Co-Founder at stitch | ex-Meta | ex-Microsoft | AdTech &amp; Martech | Aussie 🇦🇺 &amp; Kiwi 🇳🇿
+adnan.co.nz and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>Devi Parikh</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/deviparikh/</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1288</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>523</v>
+      </c>
+      <c r="F68" s="0" t="inlineStr"/>
+      <c r="G68" s="0" t="inlineStr"/>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>Devi Parikh
+deviparikh
+Co-CEO, Yutori. Join the waitlist at yutori.com.
+deviparikh.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I68" s="0" t="inlineStr">
+        <is>
+          <t>deviparikh
+Follow
+Message
+238 posts
+1,288 followers
+523 following
+Devi Parikh
+deviparikh
+Co-CEO, Yutori. Join the waitlist at yutori.com.
+deviparikh.com and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Veronica Belmont</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/veronica/</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2555</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>898</v>
+      </c>
+      <c r="F69" s="0" t="inlineStr"/>
+      <c r="G69" s="0" t="inlineStr"/>
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>Veronica Belmont
+she/her
+veronica
+Public figure
+Skiing, climbing, mom-ing ✨ Podcasts @swordandlaser 🚀 Director of Product @EA</t>
+        </is>
+      </c>
+      <c r="I69" s="0" t="inlineStr">
+        <is>
+          <t>veronica
+Follow
+Message
+2,555 posts
+59.8K followers
+898 following
+Veronica Belmont
+she/her
+veronica
+Public figure
+Skiing, climbing, mom-ing ✨ Podcasts @swordandlaser 🚀 Director of Product @EA
+Hot Chocolate!
+Hiking
+Whiskey</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Corregan Brown</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/brokenbeatnik/</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1473</v>
+      </c>
+      <c r="F70" s="0" t="inlineStr"/>
+      <c r="G70" s="0" t="inlineStr"/>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>Corregan Brown
+brokenbeatnik
+Engineering Director, @chickfila. Co-Founder, ProjectLocker (exited), 3 other cos. Occasional musician, poet, pundit.
+hughtdouglas.org and 2 more</t>
+        </is>
+      </c>
+      <c r="I70" s="0" t="inlineStr">
+        <is>
+          <t>brokenbeatnik
+Follow
+298 posts
+1,008 followers
+1,473 following
+Corregan Brown
+brokenbeatnik
+Engineering Director, @chickfila. Co-Founder, ProjectLocker (exited), 3 other cos. Occasional musician, poet, pundit.
+hughtdouglas.org and 2 more
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
           <t>Kevin Rose</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/kumar.raj509</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kevinrose/</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="n">
         <v>2172</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D71" s="0" t="n">
         <v>152000</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E71" s="0" t="n">
         <v>556</v>
       </c>
-      <c r="F2" s="0" t="inlineStr"/>
-      <c r="G2" s="0" t="inlineStr">
+      <c r="F71" s="0" t="inlineStr"/>
+      <c r="G71" s="0" t="inlineStr">
         <is>
           <t>www.kevinrose.com</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H71" s="0" t="inlineStr">
         <is>
           <t>Kevin Rose
 kevinrose
@@ -1351,7 +4743,7 @@
 www.kevinrose.com</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="I71" s="0" t="inlineStr">
         <is>
           <t>kevinrose
 Follow
@@ -1371,29 +4763,29 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
         <is>
           <t>Martin Varsavsky</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/mirjam_gentner</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2539</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/martinvars/</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2540</v>
+      </c>
+      <c r="D72" s="0" t="n">
         <v>20600</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E72" s="0" t="n">
         <v>579</v>
       </c>
-      <c r="F3" s="0" t="inlineStr"/>
-      <c r="G3" s="0" t="inlineStr"/>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="F72" s="0" t="inlineStr"/>
+      <c r="G72" s="0" t="inlineStr"/>
+      <c r="H72" s="0" t="inlineStr">
         <is>
           <t>Martin Varsavsky
 martinvars
@@ -1402,11 +4794,11 @@
 more</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="I72" s="0" t="inlineStr">
         <is>
           <t>martinvars
 Follow
-2,539 posts
+2,540 posts
 20.6K followers
 579 following
 Martin Varsavsky
@@ -1417,29 +4809,29 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
         <is>
           <t>Michael Eyal Sharon</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/globalgrind</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/deprimer/</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="n">
         <v>508</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>3273</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D73" s="0" t="n">
+        <v>3274</v>
+      </c>
+      <c r="E73" s="0" t="n">
         <v>1830</v>
       </c>
-      <c r="F4" s="0" t="inlineStr"/>
-      <c r="G4" s="0" t="inlineStr"/>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="F73" s="0" t="inlineStr"/>
+      <c r="G73" s="0" t="inlineStr"/>
+      <c r="H73" s="0" t="inlineStr">
         <is>
           <t>Michael Eyal Sharon
 deprimer
@@ -1448,12 +4840,12 @@
 taika.co</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I73" s="0" t="inlineStr">
         <is>
           <t>deprimer
 Follow
 508 posts
-3,273 followers
+3,274 followers
 1,830 following
 Michael Eyal Sharon
 deprimer
@@ -1464,43 +4856,183 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Jeff Housenbold</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jtbold/</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="F74" s="0" t="inlineStr"/>
+      <c r="G74" s="0" t="inlineStr"/>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>Jeff Housenbold
+Lucky husband, dad of three crazy boys plus one furry girl, former CEO of Shutterfly and now venture capitalist at... 
+more
+shutterfly.com</t>
+        </is>
+      </c>
+      <c r="I74" s="0" t="inlineStr">
+        <is>
+          <t>jtbold
+Follow
+23 posts
+294 followers
+84 following
+Jeff Housenbold
+Lucky husband, dad of three crazy boys plus one furry girl, former CEO of Shutterfly and now venture capitalist at... 
+more
+shutterfly.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Jeff Pulver</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jeffkenipulver/</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>4964</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>9901</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>2671</v>
+      </c>
+      <c r="F75" s="0" t="inlineStr"/>
+      <c r="G75" s="0" t="inlineStr"/>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>Jeff Pulver
+jeffkenipulver
+Entrepreneur
+Exploring the Future.
+Internet Pioneer, VoIP; co-founder Vonage. Astrophotographer. Artist.
+Host: Jeff’s Place, VON:... 
+more
+pulver.com</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>jeffkenipulver
+Follow
+Message
+4,964 posts
+9,901 followers
+2,671 following
+Jeff Pulver
+jeffkenipulver
+Entrepreneur
+Exploring the Future.
+Internet Pioneer, VoIP; co-founder Vonage. Astrophotographer. Artist.
+Host: Jeff’s Place, VON:... 
+more
+pulver.com
+#PulverOrder
+Guidance
+Music Night</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>Tom Cook</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tcook___/</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="F76" s="0" t="inlineStr"/>
+      <c r="G76" s="0" t="inlineStr"/>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>Tom Cook
+tom.horse and 2 more</t>
+        </is>
+      </c>
+      <c r="I76" s="0" t="inlineStr">
+        <is>
+          <t>tcook___
+Follow
+3 posts
+183 followers
+310 following
+Tom Cook
+tom.horse and 2 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
         <is>
           <t>Eric Wuebben</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/billgross</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/wuebben/</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="n">
         <v>510</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>636</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1412</v>
-      </c>
-      <c r="F5" s="0" t="inlineStr"/>
-      <c r="G5" s="0" t="inlineStr"/>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="D77" s="0" t="n">
+        <v>637</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F77" s="0" t="inlineStr"/>
+      <c r="G77" s="0" t="inlineStr"/>
+      <c r="H77" s="0" t="inlineStr">
         <is>
           <t>Eric Wuebben
 wuebben
 Midwest dad. Golfer. Previously a product leader at @Twitter on Longform and a founder of @HighlyTM.</t>
         </is>
       </c>
-      <c r="I5" s="0" t="inlineStr">
+      <c r="I77" s="0" t="inlineStr">
         <is>
           <t>wuebben
 Follow
 Message
 510 posts
-636 followers
-1,412 following
+637 followers
+1,413 following
 Eric Wuebben
 wuebben
 Midwest dad. Golfer. Previously a product leader at @Twitter on Longform and a founder of @HighlyTM.
@@ -1510,36 +5042,80 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>Founder/CEO- CLASSY WHEELS</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ras_kobbie/</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>1403</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>7502</v>
+      </c>
+      <c r="F78" s="0" t="inlineStr"/>
+      <c r="G78" s="0" t="inlineStr"/>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>Founder/CEO- CLASSY WHEELS
+ras_kobbie
+@classy.wheels
+raskobbie.bigcartel.com</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="inlineStr">
+        <is>
+          <t>ras_kobbie
+Follow
+227 posts
+1,403 followers
+7,502 following
+Founder/CEO- CLASSY WHEELS
+ras_kobbie
+@classy.wheels
+raskobbie.bigcartel.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
         <is>
           <t>Sophie-Charlotte Moatti</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/ricksmolan</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/scmoatti/</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D79" s="0" t="n">
         <v>477</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E79" s="0" t="n">
         <v>424</v>
       </c>
-      <c r="F6" s="0" t="inlineStr"/>
-      <c r="G6" s="0" t="inlineStr"/>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="F79" s="0" t="inlineStr"/>
+      <c r="G79" s="0" t="inlineStr"/>
+      <c r="H79" s="0" t="inlineStr">
         <is>
           <t>Sophie-Charlotte Moatti
 Founder of @mightycapital and @productscount. Married to the #amazing @speedgrins. Wannabe #rockstar singer.
 productsthatcount.com</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="I79" s="0" t="inlineStr">
         <is>
           <t>scmoatti
 Follow
@@ -1552,74 +5128,263 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>tscottcase</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/weldy1</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>226</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>690</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>680</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr"/>
-      <c r="G7" s="0" t="inlineStr"/>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>tscottcase
-him/his/he
-@zettawattz Founder
-linktr.ee/tscottcase and 1 more</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>tscottcase
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Padmasree Warrior</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/padmasree/</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>7190</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>914</v>
+      </c>
+      <c r="F80" s="0" t="inlineStr"/>
+      <c r="G80" s="0" t="inlineStr"/>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>Padmasree Warrior
+she/her
+Founder &amp; CEO of Fable ❤️tech, art, books. padmasree_art to see my art
+fable.co and 1 more</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>padmasree
+Follow
+366 posts
+7,190 followers
+914 following
+Padmasree Warrior
+she/her
+Founder &amp; CEO of Fable ❤️tech, art, books. padmasree_art to see my art
+fable.co and 1 more
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Jeff Hennion</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jeffhennion/</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>634</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>693</v>
+      </c>
+      <c r="F81" s="0" t="inlineStr"/>
+      <c r="G81" s="0" t="inlineStr"/>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>Jeff Hennion
+jeffhennion
+CEO at Knockaround &amp; Dr. Emil Nutrition. Managing Partner at Woodside Ventures.</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="inlineStr">
+        <is>
+          <t>jeffhennion
+Follow
+282 posts
+634 followers
+693 following
+Jeff Hennion
+jeffhennion
+CEO at Knockaround &amp; Dr. Emil Nutrition. Managing Partner at Woodside Ventures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>Jim Renaud</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/renaudical/</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>3367</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>964</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F82" s="0" t="inlineStr"/>
+      <c r="G82" s="0" t="inlineStr"/>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>Jim Renaud
+he/him/his
+renaudical
+// Husband / Father / Soccer Card Collector / Barbecue Enthusiast / Startup Unicorn Maker //
+jimrenaud.com</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>renaudical
+Follow
+3,367 posts
+964 followers
+1,667 following
+Jim Renaud
+he/him/his
+renaudical
+// Husband / Father / Soccer Card Collector / Barbecue Enthusiast / Startup Unicorn Maker //
+jimrenaud.com
+2020
+30 Songs
+Highlights
+Glen Arbor Trip
+GP Pride
+Miles reading
+Luke’s Reality
+Pizza</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Sundar Pichai</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sundarpichai/</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="F83" s="0" t="inlineStr"/>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>www.youtube.com/watch?v=OzANTpDLBMQ</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>Sundar Pichai
+sundarpichai
+Dad, Barça/football, Cricket/IPL, CEO @Google and Alphabet
+📱: Google Pixel 9 Pro
+www.youtube.com/watch?v=OzANTpDLBMQ</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="inlineStr">
+        <is>
+          <t>sundarpichai
 Follow
 Message
-226 posts
-690 followers
-680 following
-tscottcase
-him/his/he
-@zettawattz Founder
-linktr.ee/tscottcase and 1 more</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+128 posts
+3.5M followers
+42 following
+Sundar Pichai
+sundarpichai
+Dad, Barça/football, Cricket/IPL, CEO @Google and Alphabet
+📱: Google Pixel 9 Pro
+www.youtube.com/watch?v=OzANTpDLBMQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>midema</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/midema/</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="F84" s="0" t="inlineStr"/>
+      <c r="G84" s="0" t="inlineStr"/>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>midema
+midema
+Dad. President and COO @ Aurora Solar, former WhatsApp &amp; Facebook exec. UMich grad.</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="inlineStr">
+        <is>
+          <t>midema
+Follow
+119 posts
+283 followers
+334 following
+midema
+midema
+Dad. President and COO @ Aurora Solar, former WhatsApp &amp; Facebook exec. UMich grad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
         <is>
           <t>Ethan Anderson</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/powls27</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ethananderson/</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D85" s="0" t="n">
         <v>598</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>284</v>
-      </c>
-      <c r="F8" s="0" t="inlineStr"/>
-      <c r="G8" s="0" t="inlineStr"/>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="E85" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="F85" s="0" t="inlineStr"/>
+      <c r="G85" s="0" t="inlineStr"/>
+      <c r="H85" s="0" t="inlineStr">
         <is>
           <t>Ethan Anderson
 ethananderson
@@ -1627,13 +5392,13 @@
 about.me/ethananderson and 1 more</t>
         </is>
       </c>
-      <c r="I8" s="0" t="inlineStr">
+      <c r="I85" s="0" t="inlineStr">
         <is>
           <t>ethananderson
 Follow
 132 posts
 598 followers
-284 following
+285 following
 Ethan Anderson
 ethananderson
 Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
@@ -1641,84 +5406,88 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>Ethan Anderson</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/scottevest</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>132</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>598</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>284</v>
-      </c>
-      <c r="F9" s="0" t="inlineStr"/>
-      <c r="G9" s="0" t="inlineStr"/>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>Ethan Anderson
-ethananderson
-Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
-about.me/ethananderson and 1 more</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>ethananderson
-Follow
-132 posts
-598 followers
-284 following
-Ethan Anderson
-ethananderson
-Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
-about.me/ethananderson and 1 more</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>Tiffany R. Warren</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/diverstar/</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>8036</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>1732</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>910</v>
+      </c>
+      <c r="F86" s="0" t="inlineStr"/>
+      <c r="G86" s="0" t="inlineStr"/>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>Tiffany R. Warren
+she/her/hers
+diverstar
+EVP, CDIO, Sony Music Group |Founder &amp; President, ADCOLOR |Board Director | College Trustee |Emmy Nominee |Henry Crown... 
+more
+linktr.ee/diverstar</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="inlineStr">
+        <is>
+          <t>diverstar
+Follow
+8,036 posts
+1,732 followers
+910 following
+Tiffany R. Warren
+she/her/hers
+diverstar
+EVP, CDIO, Sony Music Group |Founder &amp; President, ADCOLOR |Board Director | College Trustee |Emmy Nominee |Henry Crown... 
+more
+linktr.ee/diverstar</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
         <is>
           <t>Clara Shih</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/hadaya__alryad</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/clarashih/</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1865</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D87" s="0" t="n">
+        <v>1866</v>
+      </c>
+      <c r="E87" s="0" t="n">
         <v>534</v>
       </c>
-      <c r="F10" s="0" t="inlineStr"/>
-      <c r="G10" s="0" t="inlineStr"/>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="F87" s="0" t="inlineStr"/>
+      <c r="G87" s="0" t="inlineStr"/>
+      <c r="H87" s="0" t="inlineStr">
         <is>
           <t>Clara Shih
 Hearsay founder + kindergarten room mom 🌼</t>
         </is>
       </c>
-      <c r="I10" s="0" t="inlineStr">
+      <c r="I87" s="0" t="inlineStr">
         <is>
           <t>clarashih
 Follow
 155 posts
-1,865 followers
+1,866 followers
 534 following
 Clara Shih
 Hearsay founder + kindergarten room mom 🌼
@@ -1726,29 +5495,29 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
         <is>
           <t>Eric Pilkington</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/_2s2e</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/epilkington/</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="n">
         <v>817</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D88" s="0" t="n">
         <v>18800</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>4448</v>
-      </c>
-      <c r="F11" s="0" t="inlineStr"/>
-      <c r="G11" s="0" t="inlineStr"/>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="E88" s="0" t="n">
+        <v>4449</v>
+      </c>
+      <c r="F88" s="0" t="inlineStr"/>
+      <c r="G88" s="0" t="inlineStr"/>
+      <c r="H88" s="0" t="inlineStr">
         <is>
           <t>Eric Pilkington
 epilkington
@@ -1756,14 +5525,14 @@
 more</t>
         </is>
       </c>
-      <c r="I11" s="0" t="inlineStr">
+      <c r="I88" s="0" t="inlineStr">
         <is>
           <t>epilkington
 Follow
 Message
 817 posts
 18.8K followers
-4,448 following
+4,449 following
 Eric Pilkington
 epilkington
 CXO @ LVLON, Advisor @ Sandbox Ventures, Contributing Editor @DigitalTrends, + Oxford comma advocate. I love all things... 
@@ -1771,33 +5540,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
         <is>
           <t>Sara Tillim Adler</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/rameshkashyap1486</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/saratadler/</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D89" s="0" t="n">
         <v>758</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E89" s="0" t="n">
         <v>648</v>
       </c>
-      <c r="F12" s="0" t="inlineStr"/>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="F89" s="0" t="inlineStr"/>
+      <c r="G89" s="0" t="inlineStr">
         <is>
           <t>www.wave.capital</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H89" s="0" t="inlineStr">
         <is>
           <t>Sara Tillim Adler
 saratadler
@@ -1806,7 +5575,7 @@
 www.wave.capital</t>
         </is>
       </c>
-      <c r="I12" s="0" t="inlineStr">
+      <c r="I89" s="0" t="inlineStr">
         <is>
           <t>saratadler
 Follow
@@ -1821,290 +5590,802 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>annkono</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/ydanrubinstein</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1564</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>317</v>
-      </c>
-      <c r="F13" s="0" t="inlineStr"/>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>www.teachaapi.org</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>annkono
-annkono
-Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Joanna Shields</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/joannashields1/</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="F90" s="0" t="inlineStr"/>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>www.joannashields.com</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>Joanna Shields
+Passionate about building tech that benefits humanity. Founder, Precognition and WeProtect.org, co-chair Global... 
 more
-www.teachaapi.org</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>annkono
-Follow
-1,564 posts
-220 followers
-317 following
-annkono
-annkono
-Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+www.joannashields.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>joannashields1
+Follow
+Message
+39 posts
+1,315 followers
+349 following
+Joanna Shields
+Passionate about building tech that benefits humanity. Founder, Precognition and WeProtect.org, co-chair Global... 
 more
-www.teachaapi.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>Charles Dowd</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/preskasharma</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>539</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>820</v>
-      </c>
-      <c r="F14" s="0" t="inlineStr"/>
-      <c r="G14" s="0" t="inlineStr"/>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>Charles Dowd
-charlespsdowd
-Fintech founder
-strikepay.co</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>charlespsdowd
-Follow
-85 posts
-539 followers
-820 following
-Charles Dowd
-charlespsdowd
-Fintech founder
-strikepay.co
-L’pool</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>annkono</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/dishapatani</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1564</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>317</v>
-      </c>
-      <c r="F15" s="0" t="inlineStr"/>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>www.teachaapi.org</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>annkono
-annkono
-Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+www.joannashields.com and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Keith Peiris</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/klp33/</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>2332</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>959</v>
+      </c>
+      <c r="F91" s="0" t="inlineStr"/>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>www.tome.app</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>Keith Peiris
+klp33
+🪄Co-Founder at Tome
+🔲 Maker of various digital rectangles
+www.tome.app</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>klp33
+Follow
+266 posts
+2,332 followers
+959 following
+Keith Peiris
+klp33
+🪄Co-Founder at Tome
+🔲 Maker of various digital rectangles
+www.tome.app</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Craig Coblenz</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/craigcoblenz/</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>674</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F92" s="0" t="inlineStr"/>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>www.amazon.com/hz/wishlist/ls/3AF7EO4LEDBYJ?ref_=wl_share</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>Craig Coblenz
+craigcoblenz
+Dad, Husband, Entrepreneur, Cofounder of VidMob, ex early Facebook’er.
+www.amazon.com/hz/wishlist/ls/3AF7EO4LEDBYJ?ref_=wl_share</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>craigcoblenz
+Follow
+289 posts
+674 followers
+1,996 following
+Craig Coblenz
+craigcoblenz
+Dad, Husband, Entrepreneur, Cofounder of VidMob, ex early Facebook’er.
+www.amazon.com/hz/wishlist/ls/3AF7EO4LEDBYJ?ref_=wl_share</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Julie Pellet</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/juju_pellet/</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>5013</v>
+      </c>
+      <c r="F93" s="0" t="inlineStr"/>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>www.maisoncanopia.com</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>Julie Pellet
+juju_pellet
+💻 Directrice Générale @livystudio
+🌴 Co-Founder of @maisoncanopia
+🪩 Rénovation @anamour.toujours
+www.maisoncanopia.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>juju_pellet
+Follow
+Message
+1,019 posts
+15.9K followers
+5,013 following
+Julie Pellet
+juju_pellet
+💻 Directrice Générale @livystudio
+🌴 Co-Founder of @maisoncanopia
+🪩 Rénovation @anamour.toujours
+www.maisoncanopia.com and 1 more
+Rio
+Hotte 2023
+OOTD
+Hotte Liste
+Q&amp;A Polynésie
+Polynésie 2/2
+Polynésie 1/2
+🧒🏼👶🏻
+#OOTD
+Hack
+Work
+La Hotte Liste
+2018
+Together</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>Kevin Systrom</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kevin/</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1512</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>7700000</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>641</v>
+      </c>
+      <c r="F94" s="0" t="inlineStr"/>
+      <c r="G94" s="0" t="inlineStr"/>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>Kevin Systrom
+kevin
+Co-founder &amp; former CEO of @instagram</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="inlineStr">
+        <is>
+          <t>kevin
+Follow
+1,512 posts
+7.7M followers
+641 following
+Kevin Systrom
+kevin
+Co-founder &amp; former CEO of @instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>shin</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/shin.hasegawa.personal/</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>601</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="F95" s="0" t="inlineStr"/>
+      <c r="G95" s="0" t="inlineStr"/>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>shin
+元Facebook Japan代表取締役。2019年にMOON-X創業。趣味はサーフィン、キックボクシング、スキンケア、クラフトビール。
+*MOON-X founder, ex-Facebook JP managing... 
+more</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>shin.hasegawa.personal
+Follow
+Message
+29 posts
+601 followers
+270 following
+shin
+元Facebook Japan代表取締役。2019年にMOON-X創業。趣味はサーフィン、キックボクシング、スキンケア、クラフトビール。
+*MOON-X founder, ex-Facebook JP managing... 
 more
-www.teachaapi.org</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>annkono
-Follow
-1,564 posts
-220 followers
-317 following
-annkono
-annkono
-Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+AESOP
+Morning Surf
+SG Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Jess Lee</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jesskah/</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>687</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>7806</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>2449</v>
+      </c>
+      <c r="F96" s="0" t="inlineStr"/>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t>www.sequoiacap.com/people/jess-lee</t>
+        </is>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>Jess Lee
+jesskah
+Just for fun
+Partner @sequoiacapital / Cofounder &amp; CEO @Polyvore / Cofounder @allraiseorg / Manga / Cosplay / Bacon
+www.sequoiacap.com/people/jess-lee</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="inlineStr">
+        <is>
+          <t>jesskah
+Follow
+Message
+687 posts
+7,806 followers
+2,449 following
+Jess Lee
+jesskah
+Just for fun
+Partner @sequoiacapital / Cofounder &amp; CEO @Polyvore / Cofounder @allraiseorg / Manga / Cosplay / Bacon
+www.sequoiacap.com/people/jess-lee
+❤️
+Motherhood
+Food
+Comic-Con
+Base Camp
+Founders
+Ask Me Anything</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>Katie Jacobs Stanton</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/katies/</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>689</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="F97" s="0" t="inlineStr"/>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>www.moxxie.vc</t>
+        </is>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>Katie Jacobs Stanton
+katies
+Proud Mom of @twellie @caleighstantonn and @declanstanton_ ❤️ Founder of Moxxie Ventures 💙
+www.moxxie.vc</t>
+        </is>
+      </c>
+      <c r="I97" s="0" t="inlineStr">
+        <is>
+          <t>katies
+Follow
+490 posts
+689 followers
+927 following
+Katie Jacobs Stanton
+katies
+Proud Mom of @twellie @caleighstantonn and @declanstanton_ ❤️ Founder of Moxxie Ventures 💙
+www.moxxie.vc</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>Spencer Rascoff</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/spencerrascoff/</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>593</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="F98" s="0" t="inlineStr"/>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>www.wsj.com/business/tinder-chief-spencer-rascoff-dating-app-4dff2615</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>Spencer Rascoff
+CEO of Match Group.
+Co-founder @pacasohomes @heylibby.ai @downloadqueue, 75 &amp; Sunny Ventures, @harvard prof. Fmr:... 
 more
-www.teachaapi.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>Chris Pan</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/nostosalgos</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>711</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>18200</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>6338</v>
-      </c>
-      <c r="F16" s="0" t="inlineStr"/>
-      <c r="G16" s="0" t="inlineStr"/>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>Chris Pan
-chrispan
-Founder @myintent @vomo.me
-Investor &amp; Bitcoin educator
-📍Ibiza; 🏡 LA
-💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
-chrispan.com and 4 more</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>chrispan
+www.wsj.com/business/tinder-chief-spencer-rascoff-dating-app-4dff2615 and 3 more</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="inlineStr">
+        <is>
+          <t>spencerrascoff
 Follow
 Message
-711 posts
-18.2K followers
-6,338 following
-Chris Pan
-chrispan
-Founder @myintent @vomo.me
-Investor &amp; Bitcoin educator
-📍Ibiza; 🏡 LA
-💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
-chrispan.com and 4 more
-Ibiza
-Monaco, Cannes
-Stockholm
-St Tropez
-Copenhagen
-Midsommar 🇸🇪
-Visby
-Amsterdam
-BTC Vegas 2025
-LA June 2025
-LA 2025
-Tulum April 25
-Bitcoin 2024
-VOMO Studio</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>Ethan Anderson</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/roquecal</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>132</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>598</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>284</v>
-      </c>
-      <c r="F17" s="0" t="inlineStr"/>
-      <c r="G17" s="0" t="inlineStr"/>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>Ethan Anderson
-ethananderson
-Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
-about.me/ethananderson and 1 more</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>ethananderson
-Follow
-132 posts
-598 followers
-284 following
-Ethan Anderson
-ethananderson
-Founder &amp; CEO of MyTime. Winner of TechCrunch50. Harvard Business School grad. Builder, creator and learner.
-about.me/ethananderson and 1 more</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+593 posts
+10.5K followers
+124 following
+Spencer Rascoff
+CEO of Match Group.
+Co-founder @pacasohomes @heylibby.ai @downloadqueue, 75 &amp; Sunny Ventures, @harvard prof. Fmr:... 
+more
+www.wsj.com/business/tinder-chief-spencer-rascoff-dating-app-4dff2615 and 3 more
+MG Life
+📚Harvard ES 134
+Harvard ES94
+🎙Office Hours
+HBS
+Travel
+Media
+Pacaso
+75 &amp; Sunny ☀️
+Year End
+dot.LA launch
+dot.LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>Beth Flippo</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bethflippode/</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="F99" s="0" t="inlineStr"/>
+      <c r="G99" s="0" t="inlineStr"/>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>Beth Flippo
+CEO of @flydexa
+Host of @SOFLYpodcast
+flydexa.com</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="inlineStr">
+        <is>
+          <t>bethflippode
+Follow
+41 posts
+68 followers
+185 following
+Beth Flippo
+CEO of @flydexa
+Host of @SOFLYpodcast
+flydexa.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Kulveer Taggar</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kulveer/</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>1151</v>
+      </c>
+      <c r="F100" s="0" t="inlineStr"/>
+      <c r="G100" s="0" t="inlineStr">
+        <is>
+          <t>www.thetwentyminutevc.com/kulveertaggar</t>
+        </is>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>Kulveer Taggar
+kulveer
+founder &amp; ceo @zeuslivinginc
+www.thetwentyminutevc.com/kulveertaggar</t>
+        </is>
+      </c>
+      <c r="I100" s="0" t="inlineStr">
+        <is>
+          <t>kulveer
+Follow
+69 posts
+2,190 followers
+1,151 following
+Kulveer Taggar
+kulveer
+founder &amp; ceo @zeuslivinginc
+www.thetwentyminutevc.com/kulveertaggar
+Norway
+Singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Chris Sacca</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sacca/</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="F101" s="0" t="inlineStr"/>
+      <c r="G101" s="0" t="inlineStr"/>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>Chris Sacca
+sacca
+Co-Founder of Lowercarbon Capital working to unf*ck the planet.
+chrissacca.com</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>sacca
+Follow
+Message
+350 posts
+56.1K followers
+354 following
+Chris Sacca
+sacca
+Co-Founder of Lowercarbon Capital working to unf*ck the planet.
+chrissacca.com
+6 Games 1 Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>Rachel Tipograph</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/racheltipograph/</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1253</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>3843</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>1518</v>
+      </c>
+      <c r="F102" s="0" t="inlineStr"/>
+      <c r="G102" s="0" t="inlineStr"/>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>Rachel Tipograph
+racheltipograph
+👩🏻‍💻Founder &amp; CEO: @mikmaktv
+🎧 Co-host: BRAVE COMMERCE podcast
+🗽NYC + Catskills 🏔
+mikmak.com</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="inlineStr">
+        <is>
+          <t>racheltipograph
+Follow
+1,253 posts
+3,843 followers
+1,518 following
+Rachel Tipograph
+racheltipograph
+👩🏻‍💻Founder &amp; CEO: @mikmaktv
+🎧 Co-host: BRAVE COMMERCE podcast
+🗽NYC + Catskills 🏔
+mikmak.com
+Best day ever
+MikMak</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Mike Krieger</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mikeyk/</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>895</v>
+      </c>
+      <c r="F103" s="0" t="inlineStr"/>
+      <c r="G103" s="0" t="inlineStr">
+        <is>
+          <t>www.anthropic.com/careers</t>
+        </is>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>Mike Krieger
+mikeyk
+Chief Product Officer at @anthropicai.
+Before: co-founder &amp; CTO of @instagram and @artifact_news
+www.anthropic.com/careers</t>
+        </is>
+      </c>
+      <c r="I103" s="0" t="inlineStr">
+        <is>
+          <t>mikeyk
+Follow
+Message
+1,999 posts
+4.7M followers
+895 following
+Mike Krieger
+mikeyk
+Chief Product Officer at @anthropicai.
+Before: co-founder &amp; CTO of @instagram and @artifact_news
+www.anthropic.com/careers
+Recommendations
+#emptyLouvre
+Pizza Night
+🍽
+Canadian GP
+Met Gala
+Juno x Dogist
+Golden Globes
+🐾
+Detroit</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Nicole Halbeisen Keller</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nicolehkeller/</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>864</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>893</v>
+      </c>
+      <c r="F104" s="0" t="inlineStr"/>
+      <c r="G104" s="0" t="inlineStr"/>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>Nicole Halbeisen Keller
+nicolehkeller
+NYC 🌃 and Hamptons 🌊 / dog mom to @daisyandmoby 🐩 / married to @rhettk5 🤍/ CPO at @unitedmasters 🎵 and @wearetranslation</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
+          <t>nicolehkeller
+Follow
+864 posts
+389 followers
+893 following
+Nicole Halbeisen Keller
+nicolehkeller
+NYC 🌃 and Hamptons 🌊 / dog mom to @daisyandmoby 🐩 / married to @rhettk5 🤍/ CPO at @unitedmasters 🎵 and @wearetranslation</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/andyyang410</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dspijker/</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="n">
         <v>998</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D105" s="0" t="n">
         <v>623</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E105" s="0" t="n">
         <v>511</v>
       </c>
-      <c r="F18" s="0" t="inlineStr"/>
-      <c r="G18" s="0" t="inlineStr"/>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="F105" s="0" t="inlineStr"/>
+      <c r="G105" s="0" t="inlineStr"/>
+      <c r="H105" s="0" t="inlineStr">
         <is>
           <t>Daniel
 Explorations in vinyl &amp; life @ Amsterdam, Valencia &amp; the world. 🎶 Danny Ocean / @groovebrigade. Founder of Cratebase.io
 cratebase.io and 1 more</t>
         </is>
       </c>
-      <c r="I18" s="0" t="inlineStr">
+      <c r="I105" s="0" t="inlineStr">
         <is>
           <t>dspijker
 Follow
@@ -2118,29 +6399,878 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>Adam Marc Munder</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/munder/</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F106" s="0" t="inlineStr"/>
+      <c r="G106" s="0" t="inlineStr">
+        <is>
+          <t>www.omnibridge.ai</t>
+        </is>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
+        <is>
+          <t>Adam Marc Munder
+munder
+Adam Munder —&gt; Engineer, Co-Founder &amp; Head of @omnibridgeai acquired by @sorenson_comm. Husband, Father, Explorer,... 
+more
+www.omnibridge.ai and 1 more</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="inlineStr">
+        <is>
+          <t>munder
+Follow
+Message
+1,098 posts
+1,478 followers
+1,005 following
+Adam Marc Munder
+munder
+Adam Munder —&gt; Engineer, Co-Founder &amp; Head of @omnibridgeai acquired by @sorenson_comm. Husband, Father, Explorer,... 
+more
+www.omnibridge.ai and 1 more
+Family
+OmniBridge
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>Nicola Mendelsohn</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nicolamen/</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>945</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>44800</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>821</v>
+      </c>
+      <c r="F107" s="0" t="inlineStr"/>
+      <c r="G107" s="0" t="inlineStr"/>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>Nicola Mendelsohn
+she/her
+nicolamen
+Working mum &amp; Head of Global Business Group at @Meta. Champion of SMBs &amp; female founders
+Cancer survivor &amp; founder of... 
+more
+linkstre.am/nicolamen and 1 more</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="inlineStr">
+        <is>
+          <t>nicolamen
+Follow
+Message
+945 posts
+44.8K followers
+821 following
+Nicola Mendelsohn
+she/her
+nicolamen
+Working mum &amp; Head of Global Business Group at @Meta. Champion of SMBs &amp; female founders
+Cancer survivor &amp; founder of... 
+more
+linkstre.am/nicolamen and 1 more
+Travel
+Meta
+Shop Small
+NYC
+Family
+FLF
+Women</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>Eric Schmidt</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ericschmidt212/</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>532</v>
+      </c>
+      <c r="F108" s="0" t="inlineStr"/>
+      <c r="G108" s="0" t="inlineStr"/>
+      <c r="H108" s="0" t="inlineStr">
+        <is>
+          <t>Eric Schmidt
+Former Chairman and CEO</t>
+        </is>
+      </c>
+      <c r="I108" s="0" t="inlineStr">
+        <is>
+          <t>ericschmidt212
+Follow
+Message
+276 posts
+10.4K followers
+532 following
+Eric Schmidt
+Former Chairman and CEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>Ian Schafer</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ischafer/</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1277</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="F109" s="0" t="inlineStr"/>
+      <c r="G109" s="0" t="inlineStr"/>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>Ian Schafer
+ischafer
+Building @followensemble w/@issarae. Partner @lokee. Investor. Chairman Emeritus @deepfocus. Advisor @rockthebells... 
+more
+theensemble.co</t>
+        </is>
+      </c>
+      <c r="I109" s="0" t="inlineStr">
+        <is>
+          <t>ischafer
+Follow
+Message
+1,277 posts
+2,301 followers
+944 following
+Ian Schafer
+ischafer
+Building @followensemble w/@issarae. Partner @lokee. Investor. Chairman Emeritus @deepfocus. Advisor @rockthebells... 
+more
+theensemble.co
+ALL-STAR 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>Dan Schulman</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dan_schulman/</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="F110" s="0" t="inlineStr"/>
+      <c r="G110" s="0" t="inlineStr"/>
+      <c r="H110" s="0" t="inlineStr">
+        <is>
+          <t>Dan Schulman
+he/him
+Former CEO @paypal. NJ native. Started my career as a 🚛 driver. Krav Maga taught me to #NeverStandStill.</t>
+        </is>
+      </c>
+      <c r="I110" s="0" t="inlineStr">
+        <is>
+          <t>dan_schulman
+Follow
+Message
+140 posts
+11.9K followers
+81 following
+Dan Schulman
+he/him
+Former CEO @paypal. NJ native. Started my career as a 🚛 driver. Krav Maga taught me to #NeverStandStill.
+MLW Award
+NSS S4
+NSS S3</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Illai Gescheit</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/illaigescheit/</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="F111" s="0" t="inlineStr"/>
+      <c r="G111" s="0" t="inlineStr">
+        <is>
+          <t>www.linkedin.com/in/illaigescheit?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+        </is>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
+        <is>
+          <t>Illai Gescheit
+Public figure
+AI Expert, Senior Advisor, NED, Venture capitalist and 4X Founder.
+www.linkedin.com/in/illaigescheit?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app and 1 more</t>
+        </is>
+      </c>
+      <c r="I111" s="0" t="inlineStr">
+        <is>
+          <t>illaigescheit
+Follow
+Message
+57 posts
+48 followers
+369 following
+Illai Gescheit
+Public figure
+AI Expert, Senior Advisor, NED, Venture capitalist and 4X Founder.
+www.linkedin.com/in/illaigescheit?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app and 1 more
+Golden Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>Lucien Ndabagera</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lucienndabagera/</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>996</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>4854</v>
+      </c>
+      <c r="F112" s="0" t="inlineStr"/>
+      <c r="G112" s="0" t="inlineStr"/>
+      <c r="H112" s="0" t="inlineStr">
+        <is>
+          <t>Lucien Ndabagera
+Entrepreneur
+🏝️🇲🇨 God’s plan 🙏🏾 « 🪂🛩️🛳️🏎️ »
+CEO &amp; Founder @lund_group &amp; more
+🗣️: 🇫🇷 🇺🇸 🇪🇸 🇷🇺🇨🇳🇧🇮🇨🇩
+🧳 +100 countries
+lucienndabagera.com</t>
+        </is>
+      </c>
+      <c r="I112" s="0" t="inlineStr">
+        <is>
+          <t>lucienndabagera
+Follow
+Message
+996 posts
+1M followers
+4,854 following
+Lucien Ndabagera
+Entrepreneur
+🏝️🇲🇨 God’s plan 🙏🏾 « 🪂🛩️🛳️🏎️ »
+CEO &amp; Founder @lund_group &amp; more
+🗣️: 🇫🇷 🇺🇸 🇪🇸 🇷🇺🇨🇳🇧🇮🇨🇩
+🧳 +100 countries
+lucienndabagera.com
+Lucien 30 🎂
+Singapore 24 🇸🇬
+Cannes 🇫🇷 2024
+Monaco 🏡
+St-Tropez 🌞
+Ibiza 🌞 24
+🏎️F1 Monaco 24 🇲
+Dubai 🇦🇪 2024
+Monaco 2024
+Paris 🇫🇷 2024
+Brazil 🇧🇷 23/24
+🪂 skydiver
+🛳️ MYS 2023
+🏝️🌏2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>Lingjia Tang-Mars</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lingjiat/</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>783</v>
+      </c>
+      <c r="F113" s="0" t="inlineStr"/>
+      <c r="G113" s="0" t="inlineStr"/>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>Lingjia Tang-Mars
+- Computer science professor @uofmichigan
+- Entrepreneur, co-founder of @myca.ai and Clinc
+- Mother of two</t>
+        </is>
+      </c>
+      <c r="I113" s="0" t="inlineStr">
+        <is>
+          <t>lingjiat
+Follow
+Message
+57 posts
+203 followers
+783 following
+Lingjia Tang-Mars
+- Computer science professor @uofmichigan
+- Entrepreneur, co-founder of @myca.ai and Clinc
+- Mother of two</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>Rousseau Kazi</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rousseaukazi/</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>4666</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>2146</v>
+      </c>
+      <c r="F114" s="0" t="inlineStr"/>
+      <c r="G114" s="0" t="inlineStr"/>
+      <c r="H114" s="0" t="inlineStr">
+        <is>
+          <t>Rousseau Kazi
+rousseaukazi
+special projects @shopify,
+prev ceo @ threads.com
+twitter.com/rousseaukazi</t>
+        </is>
+      </c>
+      <c r="I114" s="0" t="inlineStr">
+        <is>
+          <t>rousseaukazi
+Follow
+2 posts
+4,666 followers
+2,146 following
+Rousseau Kazi
+rousseaukazi
+special projects @shopify,
+prev ceo @ threads.com
+twitter.com/rousseaukazi</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>Poorvi Patodia</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/poorvione/</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>814</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>554</v>
+      </c>
+      <c r="F115" s="0" t="inlineStr"/>
+      <c r="G115" s="0" t="inlineStr"/>
+      <c r="H115" s="0" t="inlineStr">
+        <is>
+          <t>Poorvi Patodia
+Entrepreneur
+Founder &amp; CEO, Biena Snacks
+bienasnacks.com</t>
+        </is>
+      </c>
+      <c r="I115" s="0" t="inlineStr">
+        <is>
+          <t>poorvione
+Follow
+Message
+105 posts
+814 followers
+554 following
+Poorvi Patodia
+Entrepreneur
+Founder &amp; CEO, Biena Snacks
+bienasnacks.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>Lars Eilstrup Rasmussen</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/larster/</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>1529</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F116" s="0" t="inlineStr"/>
+      <c r="G116" s="0" t="inlineStr"/>
+      <c r="H116" s="0" t="inlineStr">
+        <is>
+          <t>Lars Eilstrup Rasmussen
+larster
+Proud Dad / Google Maps Co-Founder / Angel Investor / Panathēnea Co-Founder / Kite Surfing Coffee Enthusiast
+panathenea.org</t>
+        </is>
+      </c>
+      <c r="I116" s="0" t="inlineStr">
+        <is>
+          <t>larster
+Follow
+28 posts
+1,529 followers
+1,349 following
+Lars Eilstrup Rasmussen
+larster
+Proud Dad / Google Maps Co-Founder / Angel Investor / Panathēnea Co-Founder / Kite Surfing Coffee Enthusiast
+panathenea.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>Jason Preston</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jasonp/</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="F117" s="0" t="inlineStr"/>
+      <c r="G117" s="0" t="inlineStr"/>
+      <c r="H117" s="0" t="inlineStr">
+        <is>
+          <t>Jason Preston
+jasonp
+Co-founder of Dent!
+dentthefuture.com</t>
+        </is>
+      </c>
+      <c r="I117" s="0" t="inlineStr">
+        <is>
+          <t>jasonp
+Follow
+265 posts
+728 followers
+269 following
+Jason Preston
+jasonp
+Co-founder of Dent!
+dentthefuture.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>Drew Houston</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/drewhouston/</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>19400</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="F118" s="0" t="inlineStr"/>
+      <c r="G118" s="0" t="inlineStr"/>
+      <c r="H118" s="0" t="inlineStr">
+        <is>
+          <t>Drew Houston
+drewhouston
+Entrepreneur
+Founder &amp; CEO @Dropbox • Board of Directors @Meta</t>
+        </is>
+      </c>
+      <c r="I118" s="0" t="inlineStr">
+        <is>
+          <t>drewhouston
+Follow
+Message
+28 posts
+19.4K followers
+353 following
+Drew Houston
+drewhouston
+Entrepreneur
+Founder &amp; CEO @Dropbox • Board of Directors @Meta</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>Marika Shaub</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/marikatogo/</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>486</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="F119" s="0" t="inlineStr"/>
+      <c r="G119" s="0" t="inlineStr"/>
+      <c r="H119" s="0" t="inlineStr">
+        <is>
+          <t>Marika Shaub
+marikatogo
+Entrepreneur
+CEO, @sociallumiereagency
+Former Exec @MLB, @Verizon, @nbcuniversal
+Cali in NY 🌊
+linkedin.com/in/marika-shaub</t>
+        </is>
+      </c>
+      <c r="I119" s="0" t="inlineStr">
+        <is>
+          <t>marikatogo
+Follow
+Message
+486 posts
+1,007 followers
+816 following
+Marika Shaub
+marikatogo
+Entrepreneur
+CEO, @sociallumiereagency
+Former Exec @MLB, @Verizon, @nbcuniversal
+Cali in NY 🌊
+linkedin.com/in/marika-shaub
+GrandCay 🐚
+Napa 🥂
+Hamptons⛱️
+Kaua’i 🌺
+NU 💟
+Praha 🏰
+Miami 🐚
+Tulum 🪸
+Barbados 🐠
+Maika‘i 🌺
+Europa ⛲️
+2022 🎍
+2021 🗓️
+🎄2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>Jessica Ewing</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jessicarewing/</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>832</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="F120" s="0" t="inlineStr"/>
+      <c r="G120" s="0" t="inlineStr"/>
+      <c r="H120" s="0" t="inlineStr">
+        <is>
+          <t>Jessica Ewing
+jessicarewing
+🗝 Founder and CEO @literati Lover of literature, lover of life.
+literati.com</t>
+        </is>
+      </c>
+      <c r="I120" s="0" t="inlineStr">
+        <is>
+          <t>jessicarewing
+Follow
+Message
+37 posts
+832 followers
+153 following
+Jessica Ewing
+jessicarewing
+🗝 Founder and CEO @literati Lover of literature, lover of life.
+literati.com
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>Deb Liu</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/debliu_/</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>6188</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>638</v>
+      </c>
+      <c r="F121" s="0" t="inlineStr"/>
+      <c r="G121" s="0" t="inlineStr">
+        <is>
+          <t>www.mommyschool.net</t>
+        </is>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>Deb Liu
+debliu_
+Personal blog
+Mom of three in Silicon Valley, co-founder of @womeninproduct
+www.mommyschool.net
+debliu.substack.com</t>
+        </is>
+      </c>
+      <c r="I121" s="0" t="inlineStr">
+        <is>
+          <t>debliu_
+Follow
+Message
+436 posts
+6,188 followers
+638 following
+Deb Liu
+debliu_
+Personal blog
+Mom of three in Silicon Valley, co-founder of @womeninproduct
+www.mommyschool.net
+debliu.substack.com
+#mommyschool
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Brusilovsky</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/danielbru/</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>926</v>
+      </c>
+      <c r="F122" s="0" t="inlineStr"/>
+      <c r="G122" s="0" t="inlineStr">
+        <is>
+          <t>www.danielbru.com</t>
+        </is>
+      </c>
+      <c r="H122" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Brusilovsky
+danielbru
+🏈 CTO of @Broncos
+🏀 Former VP, Technology at @warriors &amp; @chase_center
+📱 Co-Founded @imojiapp
+www.danielbru.com</t>
+        </is>
+      </c>
+      <c r="I122" s="0" t="inlineStr">
+        <is>
+          <t>danielbru
+Follow
+336 posts
+10K followers
+926 following
+Daniel Brusilovsky
+danielbru
+🏈 CTO of @Broncos
+🏀 Former VP, Technology at @warriors &amp; @chase_center
+📱 Co-Founded @imojiapp
+www.danielbru.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
         <is>
           <t>Derya Matras</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/dlrosensweig</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/deryamatras/</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D123" s="0" t="n">
         <v>42900</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E123" s="0" t="n">
         <v>829</v>
       </c>
-      <c r="F19" s="0" t="inlineStr"/>
-      <c r="G19" s="0" t="inlineStr"/>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="F123" s="0" t="inlineStr"/>
+      <c r="G123" s="0" t="inlineStr"/>
+      <c r="H123" s="0" t="inlineStr">
         <is>
           <t>Derya Matras
 deryamatras
@@ -2148,7 +7278,7 @@
 about.fb.com/news/h/__performance_talks_gymshark</t>
         </is>
       </c>
-      <c r="I19" s="0" t="inlineStr">
+      <c r="I123" s="0" t="inlineStr">
         <is>
           <t>deryamatras
 Follow
@@ -2177,363 +7307,29 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>Eric Schmidt</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/seradinmore</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>276</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>532</v>
-      </c>
-      <c r="F20" s="0" t="inlineStr"/>
-      <c r="G20" s="0" t="inlineStr"/>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>Eric Schmidt
-Former Chairman and CEO</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>ericschmidt212
-Follow
-Message
-276 posts
-10.4K followers
-532 following
-Eric Schmidt
-Former Chairman and CEO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>Barak Hachamov</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/haneen.ba7r</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>156</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1014</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>218</v>
-      </c>
-      <c r="F21" s="0" t="inlineStr"/>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>www.seetree.ai</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>Barak Hachamov
-barakh
-SeeTree, Co-founder &amp; Chairman • www.seetree.ai • Google, Launchpad Accelerator, Strategic Advisor</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>barakh
-Follow
-156 posts
-1,014 followers
-218 following
-Barak Hachamov
-barakh
-SeeTree, Co-founder &amp; Chairman • www.seetree.ai • Google, Launchpad Accelerator, Strategic Advisor
-Golan Heights
-לילה לבן בת״א
-Nature
-Route 1
-17-mile
-Yosemite
-Santa Monica
-Tech Event
-Paris
-Highlights</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>Ian Schafer</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/haneen.ba7r</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1277</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>2301</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>944</v>
-      </c>
-      <c r="F22" s="0" t="inlineStr"/>
-      <c r="G22" s="0" t="inlineStr"/>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>Ian Schafer
-ischafer
-Building @followensemble w/@issarae. Partner @lokee. Investor. Chairman Emeritus @deepfocus. Advisor @rockthebells... 
-more
-theensemble.co</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>ischafer
-Follow
-Message
-1,277 posts
-2,301 followers
-944 following
-Ian Schafer
-ischafer
-Building @followensemble w/@issarae. Partner @lokee. Investor. Chairman Emeritus @deepfocus. Advisor @rockthebells... 
-more
-theensemble.co
-ALL-STAR 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>Anna Fieler</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/sparksocialsf</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>485</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>493</v>
-      </c>
-      <c r="F23" s="0" t="inlineStr"/>
-      <c r="G23" s="0" t="inlineStr"/>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>Anna Fieler
-Founder: @madisonparkventures BoD: @shakeshack @jcrew @madewell @sfopera ❤️: @sjfieler @thedipperdoodle my kids🍷🧘‍♀️✈️..... 
-more</t>
-        </is>
-      </c>
-      <c r="I23" s="0" t="inlineStr">
-        <is>
-          <t>annafieler
-Follow
-Message
-155 posts
-485 followers
-493 following
-Anna Fieler
-Founder: @madisonparkventures BoD: @shakeshack @jcrew @madewell @sfopera ❤️: @sjfieler @thedipperdoodle my kids🍷🧘‍♀️✈️..... 
-more</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>Jill Monk</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/nikiscarpacohen</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>382</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>931</v>
-      </c>
-      <c r="F24" s="0" t="inlineStr"/>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>www.tributarybotanicals.com</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>Jill Monk
-Founder &amp; CEO @TributaryBotancals
-Poet
-World traveler (55+ countries)
-Dog mom &amp; wife 💜
-www.tributarybotanicals.com</t>
-        </is>
-      </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>jillamonk
-Follow
-67 posts
-382 followers
-931 following
-Jill Monk
-Founder &amp; CEO @TributaryBotancals
-Poet
-World traveler (55+ countries)
-Dog mom &amp; wife 💜
-www.tributarybotanicals.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>David E. Weekly</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/hlth</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>386</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1797</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1771</v>
-      </c>
-      <c r="F25" s="0" t="inlineStr"/>
-      <c r="G25" s="0" t="inlineStr"/>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>David E. Weekly
-dweekly
-School board member, board director, corporate R&amp;D lab head, product executive, 3x startup founder. +1 of... 
-more
-david.weekly.org</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>dweekly
-Follow
-386 posts
-1,797 followers
-1,771 following
-David E. Weekly
-dweekly
-School board member, board director, corporate R&amp;D lab head, product executive, 3x startup founder. +1 of... 
-more
-david.weekly.org
-NZ
-Highlights</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>Bhavya Kashyap</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>instagram.com/pwwyner</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>366</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>368</v>
-      </c>
-      <c r="F26" s="0" t="inlineStr"/>
-      <c r="G26" s="0" t="inlineStr"/>
-      <c r="H26" s="0" t="inlineStr">
-        <is>
-          <t>Bhavya Kashyap
-bhavbhavbhav
-🇨🇦 | 📍🇺🇲
-Founder @oatproductivity
-Investor @browngirlangels</t>
-        </is>
-      </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t>bhavbhavbhav
-Follow
-42 posts
-366 followers
-368 following
-Bhavya Kashyap
-bhavbhavbhav
-🇨🇦 | 📍🇺🇲
-Founder @oatproductivity
-Investor @browngirlangels</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
         <is>
           <t>Kirthiga Reddy</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>instagram.com/monicajwalsh</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kirthiga.reddy/</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="n">
         <v>636</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D124" s="0" t="n">
         <v>2838</v>
       </c>
-      <c r="E27" t="n">
-        <v>1031</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+      <c r="E124" s="0" t="n">
+        <v>1032</v>
+      </c>
+      <c r="F124" s="0" t="inlineStr"/>
+      <c r="G124" s="0" t="inlineStr"/>
+      <c r="H124" s="0" t="inlineStr">
         <is>
           <t>Kirthiga Reddy
 kirthiga.reddy
@@ -2541,14 +7337,14 @@
 kirthigareddy.com and 3 more</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I124" s="0" t="inlineStr">
         <is>
           <t>kirthiga.reddy
 Follow
 Message
 636 posts
 2,838 followers
-1,031 following
+1,032 following
 Kirthiga Reddy
 kirthiga.reddy
 Co-founder &amp; CEO at @verixverified | Technologist | Investor in bold founders | Inclusion &amp; diversity advocate
@@ -2568,7 +7364,1615 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>Emily Dalton Smith</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/emmyloop/</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>1268</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>2368</v>
+      </c>
+      <c r="F125" s="0" t="inlineStr"/>
+      <c r="G125" s="0" t="inlineStr"/>
+      <c r="H125" s="0" t="inlineStr">
+        <is>
+          <t>Emily Dalton Smith
+emmyloop
+vp of product @threads 🌟 l short order cook 👧 👦 l Queen of Sicily</t>
+        </is>
+      </c>
+      <c r="I125" s="0" t="inlineStr">
+        <is>
+          <t>emmyloop
+Follow
+580 posts
+1,268 followers
+2,368 following
+Emily Dalton Smith
+emmyloop
+vp of product @threads 🌟 l short order cook 👧 👦 l Queen of Sicily</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>Barak Hachamov</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/barakh/</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="F126" s="0" t="inlineStr"/>
+      <c r="G126" s="0" t="inlineStr">
+        <is>
+          <t>www.seetree.ai</t>
+        </is>
+      </c>
+      <c r="H126" s="0" t="inlineStr">
+        <is>
+          <t>Barak Hachamov
+barakh
+SeeTree, Co-founder &amp; Chairman • www.seetree.ai • Google, Launchpad Accelerator, Strategic Advisor</t>
+        </is>
+      </c>
+      <c r="I126" s="0" t="inlineStr">
+        <is>
+          <t>barakh
+Follow
+156 posts
+1,015 followers
+218 following
+Barak Hachamov
+barakh
+SeeTree, Co-founder &amp; Chairman • www.seetree.ai • Google, Launchpad Accelerator, Strategic Advisor
+Golan Heights
+לילה לבן בת״א
+Nature
+Route 1
+17-mile
+Yosemite
+Santa Monica
+Tech Event
+Paris
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>Mark Wayman</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mark__wayman/</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>757</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="F127" s="0" t="inlineStr"/>
+      <c r="G127" s="0" t="inlineStr"/>
+      <c r="H127" s="0" t="inlineStr">
+        <is>
+          <t>Mark Wayman
+Co-Founder, Product Designer @puzzletubes
+puzzletubes.com/promo</t>
+        </is>
+      </c>
+      <c r="I127" s="0" t="inlineStr">
+        <is>
+          <t>mark__wayman
+Follow
+Message
+196 posts
+757 followers
+248 following
+Mark Wayman
+Co-Founder, Product Designer @puzzletubes
+puzzletubes.com/promo</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>Debbie Sterling</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/debsterling/</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>469</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>2755</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>871</v>
+      </c>
+      <c r="F128" s="0" t="inlineStr"/>
+      <c r="G128" s="0" t="inlineStr"/>
+      <c r="H128" s="0" t="inlineStr">
+        <is>
+          <t>Debbie Sterling
+debsterling
+Public figure
+Founder/CEO of @GoldieBlox, AAAS IF/THEN Ambassador, Engineer, Artist, Public Speaker, Wife of @rhymecombinator, Mom,... 
+more
+Debbie Sterling and 1 more</t>
+        </is>
+      </c>
+      <c r="I128" s="0" t="inlineStr">
+        <is>
+          <t>debsterling
+Follow
+Message
+469 posts
+2,755 followers
+871 following
+Debbie Sterling
+debsterling
+Public figure
+Founder/CEO of @GoldieBlox, AAAS IF/THEN Ambassador, Engineer, Artist, Public Speaker, Wife of @rhymecombinator, Mom,... 
+more
+Debbie Sterling and 1 more
+#IfThenSheCan
+Miles
+VidCon 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>Naomi Gleit</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/naomigleit/</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>27600</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F129" s="0" t="inlineStr"/>
+      <c r="G129" s="0" t="inlineStr">
+        <is>
+          <t>www.wsj.com/lifestyle/fitness/how-a-meta-executive-strong-arms-workouts-into-her-schedule-57b9ab03</t>
+        </is>
+      </c>
+      <c r="H129" s="0" t="inlineStr">
+        <is>
+          <t>Naomi Gleit
+naomigleit
+Head of Product @meta
+naomi.com
+www.wsj.com/lifestyle/fitness/how-a-meta-executive-strong-arms-workouts-into-her-schedule-57b9ab03</t>
+        </is>
+      </c>
+      <c r="I129" s="0" t="inlineStr">
+        <is>
+          <t>naomigleit
+Follow
+124 posts
+27.6K followers
+3,298 following
+Naomi Gleit
+naomigleit
+Head of Product @meta
+naomi.com
+www.wsj.com/lifestyle/fitness/how-a-meta-executive-strong-arms-workouts-into-her-schedule-57b9ab03</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>Andrew Bosworth (Boz)</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boztank/</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>954</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>30100</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>978</v>
+      </c>
+      <c r="F130" s="0" t="inlineStr"/>
+      <c r="G130" s="0" t="inlineStr">
+        <is>
+          <t>boz.com</t>
+        </is>
+      </c>
+      <c r="H130" s="0" t="inlineStr">
+        <is>
+          <t>Andrew Bosworth (Boz)
+boztank
+CTO @Meta
+boz.com and 2 more</t>
+        </is>
+      </c>
+      <c r="I130" s="0" t="inlineStr">
+        <is>
+          <t>boztank
+Follow
+Message
+954 posts
+30.1K followers
+978 following
+Andrew Bosworth (Boz)
+boztank
+CTO @Meta
+boz.com and 2 more
+AMA 6/10/25
+AMA 5/15/25
+AMA 4/28/25
+AMA 3/3/25
+AMA 2/3/25
+AMA 12/16/24
+AMA 10/21/24
+AMA 10/9/24
+AMA 9/24/24
+AMA 9/9/24
+AMA 8/26/24
+AMA 8/12/24
+AMA 7/29/24
+AMA 7/1/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>Heather Hartnett</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/heatherhartnett/</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>3039</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1463</v>
+      </c>
+      <c r="F131" s="0" t="inlineStr"/>
+      <c r="G131" s="0" t="inlineStr">
+        <is>
+          <t>human.vc</t>
+        </is>
+      </c>
+      <c r="H131" s="0" t="inlineStr">
+        <is>
+          <t>Heather Hartnett
+heatherhartnett
+CEO &amp; Founding Partner at Human Ventures @humaninthewild
+human.vc</t>
+        </is>
+      </c>
+      <c r="I131" s="0" t="inlineStr">
+        <is>
+          <t>heatherhartnett
+Follow
+583 posts
+3,039 followers
+1,463 following
+Heather Hartnett
+heatherhartnett
+CEO &amp; Founding Partner at Human Ventures @humaninthewild
+human.vc</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>Karen Cahn</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/karencahn/</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>84100</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>993</v>
+      </c>
+      <c r="F132" s="0" t="inlineStr"/>
+      <c r="G132" s="0" t="inlineStr">
+        <is>
+          <t>www.honeycombcredit.com/ifundwomen</t>
+        </is>
+      </c>
+      <c r="H132" s="0" t="inlineStr">
+        <is>
+          <t>Karen Cahn
+karencahn
+Entrepreneur
+Founder @ifundwomen • Board @honeycombcredit • Angel Investor • 🏈Football lover • 🇺🇸 Country over party •💡Views are my... 
+more
+www.honeycombcredit.com/ifundwomen and 3 more</t>
+        </is>
+      </c>
+      <c r="I132" s="0" t="inlineStr">
+        <is>
+          <t>karencahn
+Follow
+Message
+1,231 posts
+84.1K followers
+993 following
+Karen Cahn
+karencahn
+Entrepreneur
+Founder @ifundwomen • Board @honeycombcredit • Angel Investor • 🏈Football lover • 🇺🇸 Country over party •💡Views are my... 
+more
+www.honeycombcredit.com/ifundwomen and 3 more
+Barbie Things
+IFW
+Music
+Harris Walz 2024
+Teddy
+Dis House
+Cooking
+#KarenMemes
+IFW Show Pod</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Becky</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/drbeckyatgoodinside/</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>856</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="F133" s="0" t="inlineStr"/>
+      <c r="G133" s="0" t="inlineStr"/>
+      <c r="H133" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Becky
+drbeckyatgoodinside
+👉Founder of ✨Good Inside✨
+⭐️ Get 24/7 parenting support in our app 📱
+🏠Resources for Parents of Kids Ages 0-18 ⤵️
+linkin.bio/drbeckyatgoodinside</t>
+        </is>
+      </c>
+      <c r="I133" s="0" t="inlineStr">
+        <is>
+          <t>drbeckyatgoodinside
+Follow
+Message
+856 posts
+3.3M followers
+118 following
+Dr. Becky
+drbeckyatgoodinside
+👉Founder of ✨Good Inside✨
+⭐️ Get 24/7 parenting support in our app 📱
+🏠Resources for Parents of Kids Ages 0-18 ⤵️
+linkin.bio/drbeckyatgoodinside
+App
+DFK | ADHD
+Book
+Podcast
+Newsletter
+About Me</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>annkono</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/annkono/</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="F134" s="0" t="inlineStr"/>
+      <c r="G134" s="0" t="inlineStr">
+        <is>
+          <t>www.teachaapi.org</t>
+        </is>
+      </c>
+      <c r="H134" s="0" t="inlineStr">
+        <is>
+          <t>annkono
+annkono
+Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+more
+www.teachaapi.org</t>
+        </is>
+      </c>
+      <c r="I134" s="0" t="inlineStr">
+        <is>
+          <t>annkono
+Follow
+1,564 posts
+220 followers
+319 following
+annkono
+annkono
+Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+more
+www.teachaapi.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>Anna Fieler</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/annafieler/</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>493</v>
+      </c>
+      <c r="F135" s="0" t="inlineStr"/>
+      <c r="G135" s="0" t="inlineStr"/>
+      <c r="H135" s="0" t="inlineStr">
+        <is>
+          <t>Anna Fieler
+Founder: @madisonparkventures BoD: @shakeshack @jcrew @madewell @sfopera ❤️: @sjfieler @thedipperdoodle my kids🍷🧘‍♀️✈️..... 
+more</t>
+        </is>
+      </c>
+      <c r="I135" s="0" t="inlineStr">
+        <is>
+          <t>annafieler
+Follow
+Message
+155 posts
+485 followers
+493 following
+Anna Fieler
+Founder: @madisonparkventures BoD: @shakeshack @jcrew @madewell @sfopera ❤️: @sjfieler @thedipperdoodle my kids🍷🧘‍♀️✈️..... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>Chris Pan</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chrispan/</t>
+        </is>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>18200</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>6365</v>
+      </c>
+      <c r="F136" s="0" t="inlineStr"/>
+      <c r="G136" s="0" t="inlineStr">
+        <is>
+          <t>vomo.me, chrispan.com</t>
+        </is>
+      </c>
+      <c r="H136" s="0" t="inlineStr">
+        <is>
+          <t>Chris Pan
+chrispan
+Founder @myintent @vomo.me
+Investor &amp; Bitcoin educator
+📍Ibiza; 🏡 LA
+💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
+chrispan.com and 4 more</t>
+        </is>
+      </c>
+      <c r="I136" s="0" t="inlineStr">
+        <is>
+          <t>chrispan
+Follow
+Message
+711 posts
+18.2K followers
+6,365 following
+Chris Pan
+chrispan
+Founder @myintent @vomo.me
+Investor &amp; Bitcoin educator
+📍Ibiza; 🏡 LA
+💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
+chrispan.com and 4 more
+Ibiza Wellness
+Ibiza Parties
+Monaco, Cannes
+Stockholm
+St Tropez
+Copenhagen
+Midsommar 🇸🇪
+Visby
+Amsterdam
+BTC Vegas 2025
+LA June 2025
+LA 2025
+Tulum April 25
+Bitcoin 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>Vinny Lingham</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/vinnylingham/</t>
+        </is>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>848</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>12200</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>3061</v>
+      </c>
+      <c r="F137" s="0" t="inlineStr">
+        <is>
+          <t>2023
+2023</t>
+        </is>
+      </c>
+      <c r="G137" s="0" t="inlineStr"/>
+      <c r="H137" s="0" t="inlineStr">
+        <is>
+          <t>Vinny Lingham
+vinnylingham
+Tech Entrepreneur, Investor, Biohacker, Filmmaker @animaldocfilm &amp; co-founder @rumidotai. Budding Poker Pro. Based in... 
+more</t>
+        </is>
+      </c>
+      <c r="I137" s="0" t="inlineStr">
+        <is>
+          <t>vinnylingham
+Follow
+Message
+848 posts
+12.2K followers
+3,061 following
+Vinny Lingham
+vinnylingham
+Tech Entrepreneur, Investor, Biohacker, Filmmaker @animaldocfilm &amp; co-founder @rumidotai. Budding Poker Pro. Based in... 
+more
+WSOP 2025
+Cote D’Azur
+Feb ‘25
+Vegas Nights
+Poker nights
+Flights
+2024
+Vitamin Stack
+Charlene
+Del Mar
+Car Wash
+Monaco GP 2023
+Nice, 🇫🇷, 2023
+2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>Anthony Noto</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/notoa44/</t>
+        </is>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>489</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F138" s="0" t="inlineStr"/>
+      <c r="G138" s="0" t="inlineStr"/>
+      <c r="H138" s="0" t="inlineStr">
+        <is>
+          <t>Anthony Noto
+notoa44
+Father of Fab 5, Bear&amp; Bodie Husband to Klo. SoFi CEO prev COO/CFO Twitter, CFO NFL, Partner at Goldman Sachs.</t>
+        </is>
+      </c>
+      <c r="I138" s="0" t="inlineStr">
+        <is>
+          <t>notoa44
+Follow
+7 posts
+489 followers
+376 following
+Anthony Noto
+notoa44
+Father of Fab 5, Bear&amp; Bodie Husband to Klo. SoFi CEO prev COO/CFO Twitter, CFO NFL, Partner at Goldman Sachs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>Jill Monk</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jillamonk/</t>
+        </is>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>932</v>
+      </c>
+      <c r="F139" s="0" t="inlineStr"/>
+      <c r="G139" s="0" t="inlineStr">
+        <is>
+          <t>www.tributarybotanicals.com</t>
+        </is>
+      </c>
+      <c r="H139" s="0" t="inlineStr">
+        <is>
+          <t>Jill Monk
+Founder &amp; CEO @TributaryBotancals
+Poet
+World traveler (55+ countries)
+Dog mom &amp; wife 💜
+www.tributarybotanicals.com</t>
+        </is>
+      </c>
+      <c r="I139" s="0" t="inlineStr">
+        <is>
+          <t>jillamonk
+Follow
+67 posts
+382 followers
+932 following
+Jill Monk
+Founder &amp; CEO @TributaryBotancals
+Poet
+World traveler (55+ countries)
+Dog mom &amp; wife 💜
+www.tributarybotanicals.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>Heather Hartnett</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/heatherhartnett/</t>
+        </is>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>3039</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>1467</v>
+      </c>
+      <c r="F140" s="0" t="inlineStr"/>
+      <c r="G140" s="0" t="inlineStr">
+        <is>
+          <t>human.vc</t>
+        </is>
+      </c>
+      <c r="H140" s="0" t="inlineStr">
+        <is>
+          <t>Heather Hartnett
+heatherhartnett
+CEO &amp; Founding Partner at Human Ventures @humaninthewild
+human.vc</t>
+        </is>
+      </c>
+      <c r="I140" s="0" t="inlineStr">
+        <is>
+          <t>heatherhartnett
+Follow
+583 posts
+3,039 followers
+1,467 following
+Heather Hartnett
+heatherhartnett
+CEO &amp; Founding Partner at Human Ventures @humaninthewild
+human.vc</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>Andrew Bosworth (Boz)</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boztank/</t>
+        </is>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>955</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>30100</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>977</v>
+      </c>
+      <c r="F141" s="0" t="inlineStr"/>
+      <c r="G141" s="0" t="inlineStr">
+        <is>
+          <t>boz.com</t>
+        </is>
+      </c>
+      <c r="H141" s="0" t="inlineStr">
+        <is>
+          <t>Andrew Bosworth (Boz)
+boztank
+CTO @Meta
+boz.com and 2 more</t>
+        </is>
+      </c>
+      <c r="I141" s="0" t="inlineStr">
+        <is>
+          <t>boztank
+Follow
+Message
+955 posts
+30.1K followers
+977 following
+Andrew Bosworth (Boz)
+boztank
+CTO @Meta
+boz.com and 2 more
+AMA 6/10/25
+AMA 5/15/25
+AMA 4/28/25
+AMA 3/3/25
+AMA 2/3/25
+AMA 12/16/24
+AMA 10/21/24
+AMA 10/9/24
+AMA 9/24/24
+AMA 9/9/24
+AMA 8/26/24
+AMA 8/12/24
+AMA 7/29/24
+AMA 7/1/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>Bhavya Kashyap</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bhavbhavbhav/</t>
+        </is>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="F142" s="0" t="inlineStr"/>
+      <c r="G142" s="0" t="inlineStr"/>
+      <c r="H142" s="0" t="inlineStr">
+        <is>
+          <t>Bhavya Kashyap
+bhavbhavbhav
+🇨🇦 | 📍🇺🇲
+Founder @oatproductivity
+Investor @browngirlangels</t>
+        </is>
+      </c>
+      <c r="I142" s="0" t="inlineStr">
+        <is>
+          <t>bhavbhavbhav
+Follow
+42 posts
+368 followers
+369 following
+Bhavya Kashyap
+bhavbhavbhav
+🇨🇦 | 📍🇺🇲
+Founder @oatproductivity
+Investor @browngirlangels</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>annkono</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/annkono/</t>
+        </is>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="F143" s="0" t="inlineStr"/>
+      <c r="G143" s="4" t="inlineStr">
+        <is>
+          <t>www.teachaapi.org</t>
+        </is>
+      </c>
+      <c r="H143" s="0" t="inlineStr">
+        <is>
+          <t>annkono
+annkono
+Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+more
+www.teachaapi.org</t>
+        </is>
+      </c>
+      <c r="I143" s="0" t="inlineStr">
+        <is>
+          <t>annkono
+Follow
+1,564 posts
+220 followers
+319 following
+annkono
+annkono
+Joy Seeker, Creator, Mother. Mama to @therealdjkono. Wifey to @konokars. Co-Founder @teachaapi , @ledaadvisorygroup... 
+more
+www.teachaapi.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="29" customHeight="1" s="6">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/greece_france_usa/</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>4146</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>601</v>
+      </c>
+      <c r="F144" s="0" t="inlineStr"/>
+      <c r="G144" s="5" t="inlineStr">
+        <is>
+          <t>tray.com
+ tray.com</t>
+        </is>
+      </c>
+      <c r="H144" s="0" t="inlineStr">
+        <is>
+          <t>Peter
+greece_france_usa
+💻 Founder &amp; CEO @ tray.com
+🏛 MIT, INSEAD
+📍 Miami, FL
+tray.com</t>
+        </is>
+      </c>
+      <c r="I144" s="0" t="inlineStr">
+        <is>
+          <t>greece_france_usa
+Follow
+36 posts
+4,146 followers
+601 following
+Peter
+greece_france_usa
+💻 Founder &amp; CEO @ tray.com
+🏛 MIT, INSEAD
+📍 Miami, FL
+tray.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>Anna Fieler</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/annafieler/</t>
+        </is>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>494</v>
+      </c>
+      <c r="F145" s="0" t="inlineStr"/>
+      <c r="G145" s="0" t="inlineStr"/>
+      <c r="H145" s="0" t="inlineStr">
+        <is>
+          <t>Anna Fieler
+Founder: @madisonparkventures BoD: @shakeshack @jcrew @madewell @sfopera ❤️: @sjfieler @thedipperdoodle my kids🍷🧘‍♀️✈️..... 
+more</t>
+        </is>
+      </c>
+      <c r="I145" s="0" t="inlineStr">
+        <is>
+          <t>annafieler
+Follow
+Message
+155 posts
+485 followers
+494 following
+Anna Fieler
+Founder: @madisonparkventures BoD: @shakeshack @jcrew @madewell @sfopera ❤️: @sjfieler @thedipperdoodle my kids🍷🧘‍♀️✈️..... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>Vinny Lingham</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/vinnylingham/</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>848</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>12200</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>3062</v>
+      </c>
+      <c r="F146" s="0" t="inlineStr">
+        <is>
+          <t>2023
+2023</t>
+        </is>
+      </c>
+      <c r="G146" s="0" t="inlineStr"/>
+      <c r="H146" s="0" t="inlineStr">
+        <is>
+          <t>Vinny Lingham
+vinnylingham
+Tech Entrepreneur, Investor, Biohacker, Filmmaker @animaldocfilm &amp; co-founder @rumidotai. Budding Poker Pro. Based in... 
+more</t>
+        </is>
+      </c>
+      <c r="I146" s="0" t="inlineStr">
+        <is>
+          <t>vinnylingham
+Follow
+Message
+848 posts
+12.2K followers
+3,062 following
+Vinny Lingham
+vinnylingham
+Tech Entrepreneur, Investor, Biohacker, Filmmaker @animaldocfilm &amp; co-founder @rumidotai. Budding Poker Pro. Based in... 
+more
+WSOP 2025
+Cote D’Azur
+Feb ‘25
+Vegas Nights
+Poker nights
+Flights
+2024
+Vitamin Stack
+Charlene
+Del Mar
+Car Wash
+Monaco GP 2023
+Nice, 🇫🇷, 2023
+2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>Karen Cahn</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/karencahn/</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>84300</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>995</v>
+      </c>
+      <c r="F147" s="0" t="inlineStr"/>
+      <c r="G147" s="0" t="inlineStr">
+        <is>
+          <t>www.honeycombcredit.com/ifundwomen</t>
+        </is>
+      </c>
+      <c r="H147" s="0" t="inlineStr">
+        <is>
+          <t>Karen Cahn
+karencahn
+Entrepreneur
+Founder @ifundwomen • Board @honeycombcredit • Angel Investor • 🏈Football lover • 🇺🇸 Country over party •💡Views are my... 
+more
+www.honeycombcredit.com/ifundwomen and 3 more</t>
+        </is>
+      </c>
+      <c r="I147" s="0" t="inlineStr">
+        <is>
+          <t>karencahn
+Follow
+Message
+1,233 posts
+84.3K followers
+995 following
+Karen Cahn
+karencahn
+Entrepreneur
+Founder @ifundwomen • Board @honeycombcredit • Angel Investor • 🏈Football lover • 🇺🇸 Country over party •💡Views are my... 
+more
+www.honeycombcredit.com/ifundwomen and 3 more
+Barbie Things
+IFW
+Music
+Harris Walz 2024
+Teddy
+Dis House
+Cooking
+#KarenMemes
+IFW Show Pod</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>Anthony Noto</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/notoa44/</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>489</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F148" s="0" t="inlineStr"/>
+      <c r="G148" s="0" t="inlineStr"/>
+      <c r="H148" s="0" t="inlineStr">
+        <is>
+          <t>Anthony Noto
+notoa44
+Father of Fab 5, Bear&amp; Bodie Husband to Klo. SoFi CEO prev COO/CFO Twitter, CFO NFL, Partner at Goldman Sachs.</t>
+        </is>
+      </c>
+      <c r="I148" s="0" t="inlineStr">
+        <is>
+          <t>notoa44
+Follow
+7 posts
+489 followers
+376 following
+Anthony Noto
+notoa44
+Father of Fab 5, Bear&amp; Bodie Husband to Klo. SoFi CEO prev COO/CFO Twitter, CFO NFL, Partner at Goldman Sachs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>Chris Pan</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chrispan/</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>712</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>18200</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>6393</v>
+      </c>
+      <c r="F149" s="0" t="inlineStr"/>
+      <c r="G149" s="0" t="inlineStr">
+        <is>
+          <t>vomo.me
+ chrispan.com</t>
+        </is>
+      </c>
+      <c r="H149" s="0" t="inlineStr">
+        <is>
+          <t>Chris Pan
+chrispan
+Founder @myintent @vomo.me
+Investor &amp; Bitcoin educator
+📍Ibiza; 🏡 LA
+💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
+chrispan.com and 4 more</t>
+        </is>
+      </c>
+      <c r="I149" s="0" t="inlineStr">
+        <is>
+          <t>chrispan
+Follow
+Message
+712 posts
+18.2K followers
+6,393 following
+Chris Pan
+chrispan
+Founder @myintent @vomo.me
+Investor &amp; Bitcoin educator
+📍Ibiza; 🏡 LA
+💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
+chrispan.com and 4 more
+Ibiza Wellness
+Ibiza Parties
+Monaco, Cannes
+Stockholm
+St Tropez
+Copenhagen
+Midsommar 🇸🇪
+Visby
+Amsterdam
+BTC Vegas 2025
+LA June 2025
+LA 2025
+Tulum April 25
+Bitcoin 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>tscottcase</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tscottcase/</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>689</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>680</v>
+      </c>
+      <c r="F150" s="0" t="inlineStr"/>
+      <c r="G150" s="0" t="inlineStr"/>
+      <c r="H150" s="0" t="inlineStr">
+        <is>
+          <t>tscottcase
+him/his/he
+@zettawattz Founder
+linktr.ee/tscottcase and 1 more</t>
+        </is>
+      </c>
+      <c r="I150" s="0" t="inlineStr">
+        <is>
+          <t>tscottcase
+Follow
+Message
+226 posts
+689 followers
+680 following
+tscottcase
+him/his/he
+@zettawattz Founder
+linktr.ee/tscottcase and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>Melody McCloskey</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/melody/</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>1503</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>903</v>
+      </c>
+      <c r="F151" s="0" t="inlineStr"/>
+      <c r="G151" s="0" t="inlineStr"/>
+      <c r="H151" s="0" t="inlineStr">
+        <is>
+          <t>Melody McCloskey
+melody
+Entrepreneur
+Founder of @styleseat the premiere destination to book beauty and barber appointments, angel investor for @cleocapital... 
+more</t>
+        </is>
+      </c>
+      <c r="I151" s="0" t="inlineStr">
+        <is>
+          <t>melody
+Follow
+Message
+1,503 posts
+66.8K followers
+903 following
+Melody McCloskey
+melody
+Entrepreneur
+Founder of @styleseat the premiere destination to book beauty and barber appointments, angel investor for @cleocapital... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>Shervin Kordary Pishevar</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/shervin/</t>
+        </is>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>902</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>29300</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>7498</v>
+      </c>
+      <c r="F152" s="0" t="inlineStr"/>
+      <c r="G152" s="0" t="inlineStr">
+        <is>
+          <t>Pishevar.org</t>
+        </is>
+      </c>
+      <c r="H152" s="0" t="inlineStr">
+        <is>
+          <t>Shervin Kordary Pishevar
+shervin
+Tech founder, investor, philanthropist, driver of change. Iranian American immigrant working to spread American Dream... 
+more
+youtu.be/gG_xGhwVgfc?feature=shared and 2 more</t>
+        </is>
+      </c>
+      <c r="I152" s="0" t="inlineStr">
+        <is>
+          <t>shervin
+Follow
+902 posts
+29.3K followers
+7,498 following
+Shervin Kordary Pishevar
+shervin
+Tech founder, investor, philanthropist, driver of change. Iranian American immigrant working to spread American Dream... 
+more
+youtu.be/gG_xGhwVgfc?feature=shared and 2 more
+Free Iran
+Family 3
+Startup V
+America 2.0
+Florida Life
+Miami
+Wisdom
+Ghibli
+Last ones
+Travel 2024
+DC
+Uber Wars
+Family 2
+Pishevar.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>Chris Pan</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chrispan/</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>712</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>18200</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>6393</v>
+      </c>
+      <c r="F153" s="0" t="inlineStr"/>
+      <c r="G153" s="0" t="inlineStr">
+        <is>
+          <t>vomo.me
+ chrispan.com</t>
+        </is>
+      </c>
+      <c r="H153" s="0" t="inlineStr">
+        <is>
+          <t>Chris Pan
+chrispan
+Founder @myintent @vomo.me
+Investor &amp; Bitcoin educator
+📍Ibiza; 🏡 LA
+💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
+chrispan.com and 4 more</t>
+        </is>
+      </c>
+      <c r="I153" s="0" t="inlineStr">
+        <is>
+          <t>chrispan
+Follow
+Message
+712 posts
+18.2K followers
+6,393 following
+Chris Pan
+chrispan
+Founder @myintent @vomo.me
+Investor &amp; Bitcoin educator
+📍Ibiza; 🏡 LA
+💻 Harvard MBA, ex-FB, McK &amp; PepsiCo
+chrispan.com and 4 more
+Ibiza Wellness
+Ibiza Parties
+Monaco, Cannes
+Stockholm
+St Tropez
+Copenhagen
+Midsommar 🇸🇪
+Visby
+Amsterdam
+BTC Vegas 2025
+LA June 2025
+LA 2025
+Tulum April 25
+Bitcoin 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Melody McCloskey</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/melody/</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1503</v>
+      </c>
+      <c r="D154" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E154" t="n">
+        <v>903</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Melody McCloskey
+melody
+Entrepreneur
+Founder of @styleseat the premiere destination to book beauty and barber appointments, angel investor for @cleocapital... 
+more</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>melody
+Follow
+Message
+1,503 posts
+66.8K followers
+903 following
+Melody McCloskey
+melody
+Entrepreneur
+Founder of @styleseat the premiere destination to book beauty and barber appointments, angel investor for @cleocapital... 
+more</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G143" display="www.teachaapi.org" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/ouput/InstaLeaderShip.xlsx
+++ b/data/ouput/InstaLeaderShip.xlsx
@@ -1256,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
       <selection activeCell="G134" sqref="G134"/>
@@ -8923,28 +8923,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="0" t="inlineStr">
         <is>
           <t>Melody McCloskey</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="0" t="inlineStr">
         <is>
           <t>https://www.instagram.com/melody/</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="0" t="n">
         <v>1503</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="0" t="n">
         <v>66800</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154" s="0" t="n">
         <v>903</v>
       </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
+      <c r="F154" s="0" t="inlineStr"/>
+      <c r="G154" s="0" t="inlineStr"/>
+      <c r="H154" s="0" t="inlineStr">
         <is>
           <t>Melody McCloskey
 melody
@@ -8953,7 +8953,7 @@
 more</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="I154" s="0" t="inlineStr">
         <is>
           <t>melody
 Follow
@@ -8969,6 +8969,130 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>Arian Hushyar Van de Carr</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/arianvdc/</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>1493</v>
+      </c>
+      <c r="F155" s="0" t="inlineStr"/>
+      <c r="G155" s="0" t="inlineStr">
+        <is>
+          <t>supplefi.co</t>
+        </is>
+      </c>
+      <c r="H155" s="0" t="inlineStr">
+        <is>
+          <t>Arian Hushyar Van de Carr
+arianvdc
+🌟 Jesus
+✨ Co-founder &amp; CEO @supplefi_official
+🏡 livin’ in Austin
+❤️ married to @kedricv
+👦🏻 👧🏻 👦🏻 my babies: Knox,... 
+more
+supplefi.co</t>
+        </is>
+      </c>
+      <c r="I155" s="0" t="inlineStr">
+        <is>
+          <t>arianvdc
+Follow
+960 posts
+460 followers
+1,493 following
+Arian Hushyar Van de Carr
+arianvdc
+🌟 Jesus
+✨ Co-founder &amp; CEO @supplefi_official
+🏡 livin’ in Austin
+❤️ married to @kedricv
+👦🏻 👧🏻 👦🏻 my babies: Knox,... 
+more
+supplefi.co
+My 40th
+Health &amp; Fitnes
+My babies
+Maui</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Steve Martocci</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/smart/</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>463</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27100</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1745</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>supp.co/about/founder-story</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Steve Martocci
+smart
+Co-Founder of @joinsuppco, @splice , @flyblade &amp; @groupme. Mostly Harmless.
+supp.co/about/founder-story</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>smart
+Follow
+463 posts
+27.1K followers
+1,745 following
+Steve Martocci
+smart
+Co-Founder of @joinsuppco, @splice , @flyblade &amp; @groupme. Mostly Harmless.
+supp.co/about/founder-story
+Porto Marina
+Palisades Fire
+SuppCo
+Jaxson
+Steve 4.0
+Christina
+Cal
+Splice
+Komet
+Christmas '20
+Summer Tour ‘20
+The Phish
+Thanksgiving 19
+Halloween '19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G143" display="www.teachaapi.org" r:id="rId1"/>

--- a/data/ouput/InstaLeaderShip.xlsx
+++ b/data/ouput/InstaLeaderShip.xlsx
@@ -1256,10 +1256,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -9032,32 +9034,32 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="0" t="inlineStr">
         <is>
           <t>Steve Martocci</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="0" t="inlineStr">
         <is>
           <t>https://www.instagram.com/smart/</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="0" t="n">
         <v>463</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="0" t="n">
         <v>27100</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156" s="0" t="n">
         <v>1745</v>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
+      <c r="F156" s="0" t="inlineStr"/>
+      <c r="G156" s="0" t="inlineStr">
         <is>
           <t>supp.co/about/founder-story</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H156" s="0" t="inlineStr">
         <is>
           <t>Steve Martocci
 smart
@@ -9065,7 +9067,7 @@
 supp.co/about/founder-story</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="I156" s="0" t="inlineStr">
         <is>
           <t>smart
 Follow
@@ -9093,6 +9095,7760 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>BORIS GRANT LAURSEN</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/borislaursen/</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>877000</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>2170</v>
+      </c>
+      <c r="F157" s="0" t="inlineStr"/>
+      <c r="G157" s="0" t="inlineStr"/>
+      <c r="H157" s="0" t="inlineStr">
+        <is>
+          <t>BORIS GRANT LAURSEN
+borislaursen
+I don’t post. I build.
+Not an influencer. A founder.
+The new world launches soon.</t>
+        </is>
+      </c>
+      <c r="I157" s="0" t="inlineStr">
+        <is>
+          <t>borislaursen
+Follow
+34 posts
+877K followers
+2,170 following
+BORIS GRANT LAURSEN
+borislaursen
+I don’t post. I build.
+Not an influencer. A founder.
+The new world launches soon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>Joseph Abehsera</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/josephabehsera/</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>2038</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>276000</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>2643</v>
+      </c>
+      <c r="F158" s="0" t="inlineStr">
+        <is>
+          <t>joseph@visble.io</t>
+        </is>
+      </c>
+      <c r="G158" s="0" t="inlineStr">
+        <is>
+          <t>Visble.io
+ visble.io
+ link.me/josephabehsera</t>
+        </is>
+      </c>
+      <c r="H158" s="0" t="inlineStr">
+        <is>
+          <t>Joseph Abehsera
+josephabehsera
+For the love of technology &amp; innovation
+Founder of Visble.io (video marketing agency)
+Contact - joseph@visble.io for... 
+more
+link.me/josephabehsera</t>
+        </is>
+      </c>
+      <c r="I158" s="0" t="inlineStr">
+        <is>
+          <t>josephabehsera
+Follow
+Message
+2,038 posts
+276K followers
+2,643 following
+Joseph Abehsera
+josephabehsera
+For the love of technology &amp; innovation
+Founder of Visble.io (video marketing agency)
+Contact - joseph@visble.io for... 
+more
+link.me/josephabehsera</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>Ariel Lopez</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/arieldlopez__/</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>4476</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>3459</v>
+      </c>
+      <c r="F159" s="0" t="inlineStr"/>
+      <c r="G159" s="0" t="inlineStr">
+        <is>
+          <t>beacons.ai/arieldlopez</t>
+        </is>
+      </c>
+      <c r="H159" s="0" t="inlineStr">
+        <is>
+          <t>Ariel Lopez
+All things Tech👩🏽‍💻Careers📝Entrepreneurship🚀and Venture Capital 💵 Founder of @helloknac Follow for tips, inspiration,... 
+more
+beacons.ai/arieldlopez</t>
+        </is>
+      </c>
+      <c r="I159" s="0" t="inlineStr">
+        <is>
+          <t>arieldlopez__
+Follow
+196 posts
+4,476 followers
+3,459 following
+Ariel Lopez
+All things Tech👩🏽‍💻Careers📝Entrepreneurship🚀and Venture Capital 💵 Founder of @helloknac Follow for tips, inspiration,... 
+more
+beacons.ai/arieldlopez</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>H.E. Justin Sun 🇬🇩</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/justinsun/</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>790</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>241000</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="F160" s="0" t="inlineStr"/>
+      <c r="G160" s="0" t="inlineStr">
+        <is>
+          <t>t.me/hejustinsuntron</t>
+        </is>
+      </c>
+      <c r="H160" s="0" t="inlineStr">
+        <is>
+          <t>H.E. Justin Sun 🇬🇩
+justinsun
+H.E. Justin Sun | Founder of @trondaoofficial | Advisor to @htxglobalofficial
+t.me/hejustinsuntron</t>
+        </is>
+      </c>
+      <c r="I160" s="0" t="inlineStr">
+        <is>
+          <t>justinsun
+Follow
+Message
+790 posts
+241K followers
+183 following
+H.E. Justin Sun 🇬🇩
+justinsun
+H.E. Justin Sun | Founder of @trondaoofficial | Advisor to @htxglobalofficial
+t.me/hejustinsuntron
+Forbes</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>Ryan Spoon</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rspoon/</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>2115</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>6704</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>1228</v>
+      </c>
+      <c r="F161" s="0" t="inlineStr"/>
+      <c r="G161" s="0" t="inlineStr">
+        <is>
+          <t>sports.yahoo.com</t>
+        </is>
+      </c>
+      <c r="H161" s="0" t="inlineStr">
+        <is>
+          <t>Ryan Spoon
+rspoon
+President Yahoo Media Group ( @yahoosports + @yahoofinance). Former COO @sorare, COO BetMGM, SVP Digital at @espn,... 
+more
+sports.yahoo.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I161" s="0" t="inlineStr">
+        <is>
+          <t>rspoon
+Follow
+Message
+2,115 posts
+6,704 followers
+1,228 following
+Ryan Spoon
+rspoon
+President Yahoo Media Group ( @yahoosports + @yahoofinance). Former COO @sorare, COO BetMGM, SVP Digital at @espn,... 
+more
+sports.yahoo.com and 1 more
+Swim camp 2022
+Duke
+Swim meets
+Dancing
+Aulani
+Vail 2019
+Pool time
+Pool flip
+Sports!
+Family
+Jaden golf
+Dillon Skiing</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>Dia Simms</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/diasimms/</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>44600</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F162" s="0" t="inlineStr"/>
+      <c r="G162" s="0" t="inlineStr"/>
+      <c r="H162" s="0" t="inlineStr">
+        <is>
+          <t>Dia Simms
+diasimms
+Entrepreneur
+Co-Founder Pronghorn</t>
+        </is>
+      </c>
+      <c r="I162" s="0" t="inlineStr">
+        <is>
+          <t>diasimms
+Follow
+Message
+15 posts
+44.6K followers
+5,432 following
+Dia Simms
+diasimms
+Entrepreneur
+Co-Founder Pronghorn</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>Jerry Lee</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jerryjhlee/</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>1298</v>
+      </c>
+      <c r="F163" s="0" t="inlineStr">
+        <is>
+          <t>Hello@wonsulting.com</t>
+        </is>
+      </c>
+      <c r="G163" s="0" t="inlineStr">
+        <is>
+          <t>wonsulting.com
+ bit.ly/free-job-resources</t>
+        </is>
+      </c>
+      <c r="H163" s="0" t="inlineStr">
+        <is>
+          <t>Jerry Lee
+Digital creator
+💼 Co-Founder @wonsulting / Prev. @google
+📄 Forbes 30 under 30
+📧 Hello@wonsulting.com
+Free job resources 👇
+bit.ly/free-job-resources</t>
+        </is>
+      </c>
+      <c r="I163" s="0" t="inlineStr">
+        <is>
+          <t>jerryjhlee
+Follow
+Message
+1,505 posts
+1.4M followers
+1,298 following
+Jerry Lee
+Digital creator
+💼 Co-Founder @wonsulting / Prev. @google
+📄 Forbes 30 under 30
+📧 Hello@wonsulting.com
+Free job resources 👇
+bit.ly/free-job-resources
+Success Stories</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>Dr Ritesh Malik</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/drriteshmalik/</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>1319</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>286000</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>1896</v>
+      </c>
+      <c r="F164" s="0" t="inlineStr"/>
+      <c r="G164" s="0" t="inlineStr">
+        <is>
+          <t>www.drriteshmalik.com</t>
+        </is>
+      </c>
+      <c r="H164" s="0" t="inlineStr">
+        <is>
+          <t>Dr Ritesh Malik
+Entrepreneur
+Founder @innov8.work sold to @oyorooms | Founder &amp; Trustee @plakshauniversity | @worldeconomicforum YGL 22 |... 
+more
+www.drriteshmalik.com and 2 more</t>
+        </is>
+      </c>
+      <c r="I164" s="0" t="inlineStr">
+        <is>
+          <t>drriteshmalik
+Follow
+Message
+1,319 posts
+286K followers
+1,896 following
+Dr Ritesh Malik
+Entrepreneur
+Founder @innov8.work sold to @oyorooms | Founder &amp; Trustee @plakshauniversity | @worldeconomicforum YGL 22 |... 
+more
+www.drriteshmalik.com and 2 more
+Plaksha
+Travel
+Family
+My Life
+Home
+Ritesh
+Farm
+Public Speaking
+Philosophy
+WEF / YGL
+New Delhi
+Media
+Passion</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>Resa Quinn</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/resaquinnm/</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>62300</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="F165" s="0" t="inlineStr"/>
+      <c r="G165" s="0" t="inlineStr"/>
+      <c r="H165" s="0" t="inlineStr">
+        <is>
+          <t>Resa Quinn
+resaquinnm
+Wife + mom
+The Jessica Pearson of tech
+Founder &amp; Managing Partner
+@tezhlyinc @thetechfirm @cmbyresa
+linktr.ee/resaquinn and 1 more</t>
+        </is>
+      </c>
+      <c r="I165" s="0" t="inlineStr">
+        <is>
+          <t>resaquinnm
+Follow
+Message
+168 posts
+62.3K followers
+191 following
+Resa Quinn
+resaquinnm
+Wife + mom
+The Jessica Pearson of tech
+Founder &amp; Managing Partner
+@tezhlyinc @thetechfirm @cmbyresa
+linktr.ee/resaquinn and 1 more
+substack🫶🏾
+tezhly
+love + life
+faqs
+Tech Firm HQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>Mustafa Suleyman</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mustafasuleymanai/</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>2120</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F166" s="0" t="inlineStr"/>
+      <c r="G166" s="0" t="inlineStr"/>
+      <c r="H166" s="0" t="inlineStr">
+        <is>
+          <t>Mustafa Suleyman
+mustafasuleymanai
+CEO of Microsoft AI</t>
+        </is>
+      </c>
+      <c r="I166" s="0" t="inlineStr">
+        <is>
+          <t>mustafasuleymanai
+Follow
+3 posts
+2,120 followers
+20 following
+Mustafa Suleyman
+mustafasuleymanai
+CEO of Microsoft AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>Joanna Soricelli</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jojos827/</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>1474</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>802</v>
+      </c>
+      <c r="F167" s="0" t="inlineStr"/>
+      <c r="G167" s="0" t="inlineStr">
+        <is>
+          <t>js-mgmt.com</t>
+        </is>
+      </c>
+      <c r="H167" s="0" t="inlineStr">
+        <is>
+          <t>Joanna Soricelli
+Founder: @js__mgmt
+Co-Founder: @1seven_ventures
+Past: @vaynertalent &amp; @vaynermedia
+📍LA
+js-mgmt.com</t>
+        </is>
+      </c>
+      <c r="I167" s="0" t="inlineStr">
+        <is>
+          <t>jojos827
+Follow
+Message
+178 posts
+1,474 followers
+802 following
+Joanna Soricelli
+Founder: @js__mgmt
+Co-Founder: @1seven_ventures
+Past: @vaynertalent &amp; @vaynermedia
+📍LA
+js-mgmt.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>Nikitha Shiv</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nikithashiv13/</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F168" s="0" t="inlineStr"/>
+      <c r="G168" s="0" t="inlineStr"/>
+      <c r="H168" s="0" t="inlineStr">
+        <is>
+          <t>Nikitha Shiv
+Entrepreneur
+Learn, Interact, Experience &amp; Elevate!⚡
+Strategy &amp; Marketing @getfleekapp
+Founder @themananetwork
+Founder @bar_episodes... 
+more</t>
+        </is>
+      </c>
+      <c r="I168" s="0" t="inlineStr">
+        <is>
+          <t>nikithashiv13
+Follow
+Message
+35 posts
+1,099 followers
+18 following
+Nikitha Shiv
+Entrepreneur
+Learn, Interact, Experience &amp; Elevate!⚡
+Strategy &amp; Marketing @getfleekapp
+Founder @themananetwork
+Founder @bar_episodes... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>Paloma - Linux | AWS | Cloud Security</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/palomanat/</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>888</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>2246</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F169" s="0" t="inlineStr"/>
+      <c r="G169" s="0" t="inlineStr"/>
+      <c r="H169" s="0" t="inlineStr">
+        <is>
+          <t>Paloma - Linux | AWS | Cloud Security
+palomanat
+Entrepreneur
+☁️ 💻
+Co-Founder @yellowtail.tech
+cook | dine | dance | learn | travel
+yellowtail.tech and 1 more</t>
+        </is>
+      </c>
+      <c r="I169" s="0" t="inlineStr">
+        <is>
+          <t>palomanat
+Follow
+Message
+888 posts
+2,246 followers
+7,430 following
+Paloma - Linux | AWS | Cloud Security
+palomanat
+Entrepreneur
+☁️ 💻
+Co-Founder @yellowtail.tech
+cook | dine | dance | learn | travel
+yellowtail.tech and 1 more
+Vegas
+Movies
+🇨🇴 Wed
+🇧🇷
+BiP
+April Cooking
+March Cooking
+Medellín
+Jan cooking
+2024 Hikes
+Cartagena
+💃🏻 Salsa
+Workouts</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>Farhan Bin Fazil</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/farhan_bin_fazil/</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>153000</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>437</v>
+      </c>
+      <c r="F170" s="0" t="inlineStr">
+        <is>
+          <t>ceo@offensoacademy.com</t>
+        </is>
+      </c>
+      <c r="G170" s="0" t="inlineStr">
+        <is>
+          <t>offensoacademy.com</t>
+        </is>
+      </c>
+      <c r="H170" s="0" t="inlineStr">
+        <is>
+          <t>Farhan Bin Fazil
+Certified Ethical Hacker 👨‍💻
+FPV Pilot 🧑‍✈️
+Founder | CEO @offensoacademy
+Email : ceo@offensoacademy.com</t>
+        </is>
+      </c>
+      <c r="I170" s="0" t="inlineStr">
+        <is>
+          <t>farhan_bin_fazil
+Follow
+Message
+64 posts
+153K followers
+437 following
+Farhan Bin Fazil
+Certified Ethical Hacker 👨‍💻
+FPV Pilot 🧑‍✈️
+Founder | CEO @offensoacademy
+Email : ceo@offensoacademy.com
+Singapore
+Banglore
+Kochi
+Hyderabad
+Malaysia
+Offenso 💚
+Kasol
+Delhi
+Manali
+Workshops
+Vagamon
+Poondi
+Pondicheri</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>Kike Oniwinde Agoro</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kikeoniwinde/</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>867</v>
+      </c>
+      <c r="F171" s="0" t="inlineStr"/>
+      <c r="G171" s="0" t="inlineStr">
+        <is>
+          <t>www.kikeoniwinde.com</t>
+        </is>
+      </c>
+      <c r="H171" s="0" t="inlineStr">
+        <is>
+          <t>Kike Oniwinde Agoro
+kikeoniwinde
+Entrepreneur
+Award-winning Founder &amp; CEO of multi-million pound company @bypnetwork | Wife &amp; Mum | Forbes 30 under 30 | as seen on... 
+more
+www.kikeoniwinde.com and 2 more</t>
+        </is>
+      </c>
+      <c r="I171" s="0" t="inlineStr">
+        <is>
+          <t>kikeoniwinde
+Follow
+Message
+290 posts
+16K followers
+867 following
+Kike Oniwinde Agoro
+kikeoniwinde
+Entrepreneur
+Award-winning Founder &amp; CEO of multi-million pound company @bypnetwork | Wife &amp; Mum | Forbes 30 under 30 | as seen on... 
+more
+www.kikeoniwinde.com and 2 more
+Jamaica
+Kenya/Zanzibar
+Wins
+Bday 2020
+Aruba
+RocNation
+Conference</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>Garrett Camp</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/gc/</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>1374</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>9319</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>895</v>
+      </c>
+      <c r="F172" s="0" t="inlineStr"/>
+      <c r="G172" s="0" t="inlineStr">
+        <is>
+          <t>minml.com
+ gtraxx.com</t>
+        </is>
+      </c>
+      <c r="H172" s="0" t="inlineStr">
+        <is>
+          <t>Garrett Camp
+Entrepreneur, product/systems designer. Founder of Expa, Uber, Aero &amp; Mix. Now designing @ minml.com, and making music... 
+more
+gtraxx.com</t>
+        </is>
+      </c>
+      <c r="I172" s="0" t="inlineStr">
+        <is>
+          <t>gc
+Follow
+Message
+1,374 posts
+9,319 followers
+895 following
+Garrett Camp
+Entrepreneur, product/systems designer. Founder of Expa, Uber, Aero &amp; Mix. Now designing @ minml.com, and making music... 
+more
+gtraxx.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Dannielle Eason DBA CISSP</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/drdannielleeason/</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>902</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>1163</v>
+      </c>
+      <c r="F173" s="0" t="inlineStr"/>
+      <c r="G173" s="0" t="inlineStr">
+        <is>
+          <t>cybermotivation.org/career-match</t>
+        </is>
+      </c>
+      <c r="H173" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Dannielle Eason DBA CISSP
+she/her
+drdannielleeason
+Techie 🤓|Mentor|🎤Speaker|📍DMV
+CEO/Founder @cyber.motivation 🛡️ 💻
+Host 🎙️ @rawrightafterwork
+TechYogi Instructor 🧘🏽‍♀️
+cybermotivation.org/career-match and 4 more</t>
+        </is>
+      </c>
+      <c r="I173" s="0" t="inlineStr">
+        <is>
+          <t>drdannielleeason
+Follow
+Message
+256 posts
+902 followers
+1,163 following
+Dr. Dannielle Eason DBA CISSP
+she/her
+drdannielleeason
+Techie 🤓|Mentor|🎤Speaker|📍DMV
+CEO/Founder @cyber.motivation 🛡️ 💻
+Host 🎙️ @rawrightafterwork
+TechYogi Instructor 🧘🏽‍♀️
+cybermotivation.org/career-match and 4 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>The Tech Unicorn ™ 👩🏽‍💻🦄</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jamilaparham/</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>1304</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>5076</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>3282</v>
+      </c>
+      <c r="F174" s="0" t="inlineStr"/>
+      <c r="G174" s="0" t="inlineStr"/>
+      <c r="H174" s="0" t="inlineStr">
+        <is>
+          <t>The Tech Unicorn ™ 👩🏽‍💻🦄
+👩🏽‍💻🦄 Founder of The Tech Unicorn ™
+👩🏽‍🏫 STEM Advocate
+🦄 Curator @thetechunicorns
+🔭 Tech Leader
+🗣 Speake... 
+more
+linktr.ee/jamilaparham</t>
+        </is>
+      </c>
+      <c r="I174" s="0" t="inlineStr">
+        <is>
+          <t>jamilaparham
+Follow
+Message
+1,304 posts
+5,076 followers
+3,282 following
+The Tech Unicorn ™ 👩🏽‍💻🦄
+👩🏽‍💻🦄 Founder of The Tech Unicorn ™
+👩🏽‍🏫 STEM Advocate
+🦄 Curator @thetechunicorns
+🔭 Tech Leader
+🗣 Speake... 
+more
+linktr.ee/jamilaparham
+🎓Keynote
+👩🏽‍💻🦄 Relauch ✨
+Takeover
+Team 👩🏽‍💻🦄
+Impact Work
+Women IT 🏆
+MADE Magazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>Camille Smith</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/iamcamillesmith/</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>528</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>33700</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>1548</v>
+      </c>
+      <c r="F175" s="0" t="inlineStr"/>
+      <c r="G175" s="0" t="inlineStr">
+        <is>
+          <t>bit.ly/4lOgBVt</t>
+        </is>
+      </c>
+      <c r="H175" s="0" t="inlineStr">
+        <is>
+          <t>Camille Smith
+she/her
+iamcamillesmith
+Digital creator
+🧠 your fav Philly engineer, speaker + frequent flyer
+👩🏾‍🔬 founder + ceo @stemsoulcial
+🌎 SOULSTICE Summit 11/7-11/9
+📧 ca... 
+more
+bit.ly/4lOgBVt and 3 more</t>
+        </is>
+      </c>
+      <c r="I175" s="0" t="inlineStr">
+        <is>
+          <t>iamcamillesmith
+Follow
+Message
+528 posts
+33.7K followers
+1,548 following
+Camille Smith
+she/her
+iamcamillesmith
+Digital creator
+🧠 your fav Philly engineer, speaker + frequent flyer
+👩🏾‍🔬 founder + ceo @stemsoulcial
+🌎 SOULSTICE Summit 11/7-11/9
+📧 ca... 
+more
+bit.ly/4lOgBVt and 3 more
+camille
+STEM
+pod
+speaking
+media
+travel guides
+links
+winter arc</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>Patrick Collison</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/patrickcollison/</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="F176" s="0" t="inlineStr"/>
+      <c r="G176" s="0" t="inlineStr">
+        <is>
+          <t>patrickcollison.com</t>
+        </is>
+      </c>
+      <c r="H176" s="0" t="inlineStr">
+        <is>
+          <t>Patrick Collison
+patrickcollison
+Stripe CEO; Arc Institute cofounder
+patrickcollison.com</t>
+        </is>
+      </c>
+      <c r="I176" s="0" t="inlineStr">
+        <is>
+          <t>patrickcollison
+Follow
+Message
+99 posts
+16.3K followers
+136 following
+Patrick Collison
+patrickcollison
+Stripe CEO; Arc Institute cofounder
+patrickcollison.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>Nazariy Dumanskyy</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nazdumanskyy/</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>131000</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>1961</v>
+      </c>
+      <c r="F177" s="0" t="inlineStr"/>
+      <c r="G177" s="0" t="inlineStr">
+        <is>
+          <t>getpoppy.ai</t>
+        </is>
+      </c>
+      <c r="H177" s="0" t="inlineStr">
+        <is>
+          <t>Nazariy Dumanskyy
+nazdumanskyy
+🔥 CoFounder of @getpoppyai with @realcleverprogrammer
+👶 Imagine if ChatGPT + Whiteboard + Notion had a baby
+👇 Want to... 
+more
+getpoppy.ai</t>
+        </is>
+      </c>
+      <c r="I177" s="0" t="inlineStr">
+        <is>
+          <t>nazdumanskyy
+Follow
+Message
+1,365 posts
+131K followers
+1,961 following
+Nazariy Dumanskyy
+nazdumanskyy
+🔥 CoFounder of @getpoppyai with @realcleverprogrammer
+👶 Imagine if ChatGPT + Whiteboard + Notion had a baby
+👇 Want to... 
+more
+getpoppy.ai
+PoppyAI
+SaaS
+TESTIMONIALS
+WINS 🔥
+UI/UX
+Web3
+FREE COURSE
+AGENCY
+WORKSHOPS
+Blockchain
+Dominican Republ</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>Khambrel (Kham) Ward</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/the.dni.guy/</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F178" s="0" t="inlineStr"/>
+      <c r="G178" s="0" t="inlineStr"/>
+      <c r="H178" s="0" t="inlineStr">
+        <is>
+          <t>Khambrel (Kham) Ward
+he/him/his
+Founder @blkmenintech👨🏾‍💻
+NUPE ♦️
+Diversity Leader🌎
+linktr.ee/the.dni.guy</t>
+        </is>
+      </c>
+      <c r="I178" s="0" t="inlineStr">
+        <is>
+          <t>the.dni.guy
+Follow
+48 posts
+960 followers
+1,209 following
+Khambrel (Kham) Ward
+he/him/his
+Founder @blkmenintech👨🏾‍💻
+NUPE ♦️
+Diversity Leader🌎
+linktr.ee/the.dni.guy</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>Atul Jalan</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/atuljalan_official/</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>830</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>4166</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F179" s="0" t="inlineStr"/>
+      <c r="G179" s="0" t="inlineStr">
+        <is>
+          <t>timesofindia.indiatimes.com/blogs/voices/my-algorithmic-alter-ego-is-a-shopaholic</t>
+        </is>
+      </c>
+      <c r="H179" s="0" t="inlineStr">
+        <is>
+          <t>Atul Jalan
+atuljalan_official
+Entrepreneur
+Futurist | Storyteller | EntrepreneurFounder &amp; CEO of AlgonomyAuthor of 📙 Where Will Man Take Us?Read my ToI article:
+timesofindia.indiatimes.com/blogs/voices/my-algorithmic-alter-ego-is-a-shopaholic</t>
+        </is>
+      </c>
+      <c r="I179" s="0" t="inlineStr">
+        <is>
+          <t>atuljalan_official
+Follow
+Message
+830 posts
+4,166 followers
+4,575 following
+Atul Jalan
+atuljalan_official
+Entrepreneur
+Futurist | Storyteller | EntrepreneurFounder &amp; CEO of AlgonomyAuthor of 📙 Where Will Man Take Us?Read my ToI article:
+timesofindia.indiatimes.com/blogs/voices/my-algorithmic-alter-ego-is-a-shopaholic
+Happy New Year!
+Ibn Battuta
+Pilgrims
+Missionary
+Travel
+Eternal Flames
+Baku
+Happy Holidays!
+Tequila!
+Ladakh
+Scandinavia
+Paris
+Art Deco</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>Shirley (Yue Ming) Zhong</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/shirleyzhong.xatoms/</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>2418</v>
+      </c>
+      <c r="F180" s="0" t="inlineStr"/>
+      <c r="G180" s="0" t="inlineStr">
+        <is>
+          <t>xatoms.ai</t>
+        </is>
+      </c>
+      <c r="H180" s="0" t="inlineStr">
+        <is>
+          <t>Shirley (Yue Ming) Zhong
+🇨🇳🇨🇦🇫🇷🇯🇵
+💧COO at @xatoms.ai
+✨ Forbes 30 under 30
+linktr.ee/shirleyzhong</t>
+        </is>
+      </c>
+      <c r="I180" s="0" t="inlineStr">
+        <is>
+          <t>shirleyzhong.xatoms
+Follow
+Message
+37 posts
+1,938 followers
+2,418 following
+Shirley (Yue Ming) Zhong
+🇨🇳🇨🇦🇫🇷🇯🇵
+💧COO at @xatoms.ai
+✨ Forbes 30 under 30
+linktr.ee/shirleyzhong
+🏆
+🇰🇪
+🇿🇦
+🇫🇷
+🇯🇵</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>Zahed Khan</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/zzahedkhan/</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>1249</v>
+      </c>
+      <c r="F181" s="0" t="inlineStr"/>
+      <c r="G181" s="0" t="inlineStr"/>
+      <c r="H181" s="0" t="inlineStr">
+        <is>
+          <t>Zahed Khan
+🛠️ cofounder @100xengineers
+👁️ dopamine @zen.zahed</t>
+        </is>
+      </c>
+      <c r="I181" s="0" t="inlineStr">
+        <is>
+          <t>zzahedkhan
+Follow
+8 posts
+1,621 followers
+1,249 following
+Zahed Khan
+🛠️ cofounder @100xengineers
+👁️ dopamine @zen.zahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>Laurie Segall</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lauriesegall/</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>1108</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>21500</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>5625</v>
+      </c>
+      <c r="F182" s="0" t="inlineStr"/>
+      <c r="G182" s="0" t="inlineStr"/>
+      <c r="H182" s="0" t="inlineStr">
+        <is>
+          <t>Laurie Segall
+lauriesegall
+Founder @mostlyhumanmedia, building a co focused on tech &amp; humans. Former correspondent @60minutes, @cnn. Lover of... 
+more
+youtu.be/zlspV3fqz6A?t=1288 and 1 more</t>
+        </is>
+      </c>
+      <c r="I182" s="0" t="inlineStr">
+        <is>
+          <t>lauriesegall
+Follow
+Message
+1,108 posts
+21.5K followers
+5,625 following
+Laurie Segall
+lauriesegall
+Founder @mostlyhumanmedia, building a co focused on tech &amp; humans. Former correspondent @60minutes, @cnn. Lover of... 
+more
+youtu.be/zlspV3fqz6A?t=1288 and 1 more
+Highlights
+MHM launch
+SXSW
+SC
+AI
+Highlights
+Wedding!
+Web3
+Webby takeover!
+Highlights
+Highlights
+2020
+Work</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>Jonathan Geller</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jonathan/</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>67200</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="F183" s="0" t="inlineStr"/>
+      <c r="G183" s="0" t="inlineStr">
+        <is>
+          <t>bgr.com</t>
+        </is>
+      </c>
+      <c r="H183" s="0" t="inlineStr">
+        <is>
+          <t>Jonathan Geller
+jonathan
+Founder of @bgr
+Over 2 billion visitors
+Angel Investor
+Dad
+bgr.com</t>
+        </is>
+      </c>
+      <c r="I183" s="0" t="inlineStr">
+        <is>
+          <t>jonathan
+Follow
+Message
+94 posts
+67.2K followers
+290 following
+Jonathan Geller
+jonathan
+Founder of @bgr
+Over 2 billion visitors
+Angel Investor
+Dad
+bgr.com
+🍽
+✈️
+📱
+📈</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>Jason Alvarez-Cohen</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jasonalco/</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>44500</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>5057</v>
+      </c>
+      <c r="F184" s="0" t="inlineStr"/>
+      <c r="G184" s="0" t="inlineStr">
+        <is>
+          <t>jasonal.co</t>
+        </is>
+      </c>
+      <c r="H184" s="0" t="inlineStr">
+        <is>
+          <t>Jason Alvarez-Cohen
+jasonalco
+Entrepreneur
+CEO / Founder @popl
+@forbes 30 under 30 | Software Engineer
+🗽50% New York 🏝️ 50% Los Angeles
+jasonal.co</t>
+        </is>
+      </c>
+      <c r="I184" s="0" t="inlineStr">
+        <is>
+          <t>jasonalco
+Follow
+Message
+176 posts
+44.5K followers
+5,057 following
+Jason Alvarez-Cohen
+jasonalco
+Entrepreneur
+CEO / Founder @popl
+@forbes 30 under 30 | Software Engineer
+🗽50% New York 🏝️ 50% Los Angeles
+jasonal.co
+SUNSETS
+POPL
+TEAM
+🎤
+EXPLORE
+ORIGINS
+MUSIC
+0 - 1M
+ENGINEER</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>Sinéad Bovell</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sineadbovell/</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>920</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>264000</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>1282</v>
+      </c>
+      <c r="F185" s="0" t="inlineStr"/>
+      <c r="G185" s="0" t="inlineStr">
+        <is>
+          <t>substack.com/@sineadbovell?r=5iie2&amp;utm_medium=ios&amp;utm_source=profile</t>
+        </is>
+      </c>
+      <c r="H185" s="0" t="inlineStr">
+        <is>
+          <t>Sinéad Bovell
+sineadbovell
+Founder @wayetalks
+UN Speaker:Tech&amp;the future
+MBA, B.B.A. Finance 🇨🇦📍NYC
+substack.com/@sineadbovell?r=5iie2&amp;utm_medium=ios&amp;utm_source=profile</t>
+        </is>
+      </c>
+      <c r="I185" s="0" t="inlineStr">
+        <is>
+          <t>sineadbovell
+Follow
+Message
+920 posts
+264K followers
+1,282 following
+Sinéad Bovell
+sineadbovell
+Founder @wayetalks
+UN Speaker:Tech&amp;the future
+MBA, B.B.A. Finance 🇨🇦📍NYC
+substack.com/@sineadbovell?r=5iie2&amp;utm_medium=ios&amp;utm_source=profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>Tyfrion Edwards</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tatamity/</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>457</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>9428</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="F186" s="0" t="inlineStr"/>
+      <c r="G186" s="0" t="inlineStr">
+        <is>
+          <t>tatamifightwear.com</t>
+        </is>
+      </c>
+      <c r="H186" s="0" t="inlineStr">
+        <is>
+          <t>Tyfrion Edwards
+tatamity
+🤝 CEO of @tatamifightwear
+🥋 The world’s leading jiu jitsu brand
+🌎 We support over 200+ Athletes/Academies
+⬇️ Shop the be... 
+more
+tatamifightwear.com</t>
+        </is>
+      </c>
+      <c r="I186" s="0" t="inlineStr">
+        <is>
+          <t>tatamity
+Follow
+Message
+457 posts
+9,428 followers
+999 following
+Tyfrion Edwards
+tatamity
+🤝 CEO of @tatamifightwear
+🥋 The world’s leading jiu jitsu brand
+🌎 We support over 200+ Athletes/Academies
+⬇️ Shop the be... 
+more
+tatamifightwear.com
+ADCC
+🥋tatami🥋
+🤜reorg🤛
+🥋athlete🥋
+🤜collabs🤛
+🇺🇸vegas🇺🇸</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>Mustafa Rashed</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mustafalrashed/</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>4079</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>108000</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>995</v>
+      </c>
+      <c r="F187" s="0" t="inlineStr"/>
+      <c r="G187" s="0" t="inlineStr"/>
+      <c r="H187" s="0" t="inlineStr">
+        <is>
+          <t>Mustafa Rashed
+mustafalrashed
+CEO: @bellevuestrategies
+Veteran: @oneninemarines
+Lives: PHL📍
+Does: 👨🏾‍💼🏃🏾‍♂️🏄🏾‍♂️🏋️‍♀️🚴 🧘🏾 🧠
+Code: We all have the... 
+more</t>
+        </is>
+      </c>
+      <c r="I187" s="0" t="inlineStr">
+        <is>
+          <t>mustafalrashed
+Follow
+4,079 posts
+108K followers
+995 following
+Mustafa Rashed
+mustafalrashed
+CEO: @bellevuestrategies
+Veteran: @oneninemarines
+Lives: PHL📍
+Does: 👨🏾‍💼🏃🏾‍♂️🏄🏾‍♂️🏋️‍♀️🚴 🧘🏾 🧠
+Code: We all have the... 
+more
+Onward ⬆️
+School Dance 😎
+🏄‍♂️ ⬆️
+☀️
+Waves 🏄‍♂️
+Bird bombed
+Big 2024 Energy
+July
+Solar Eclipse
+ATL
+Work
+Spring
+NYC</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>Nithin Kamath</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nithinkamath/</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>536</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>296000</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F188" s="0" t="inlineStr"/>
+      <c r="G188" s="0" t="inlineStr">
+        <is>
+          <t>nithinkamath.me/blog</t>
+        </is>
+      </c>
+      <c r="H188" s="0" t="inlineStr">
+        <is>
+          <t>Nithin Kamath
+nithinkamath
+Entrepreneur
+Founder &amp; CEO @zerodhaonline @rainmatter
+nithinkamath.me/blog</t>
+        </is>
+      </c>
+      <c r="I188" s="0" t="inlineStr">
+        <is>
+          <t>nithinkamath
+Follow
+Message
+536 posts
+296K followers
+38 following
+Nithin Kamath
+nithinkamath
+Entrepreneur
+Founder &amp; CEO @zerodhaonline @rainmatter
+nithinkamath.me/blog</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>Sam Valenti IV</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sv4/</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>6052</v>
+      </c>
+      <c r="F189" s="0" t="inlineStr"/>
+      <c r="G189" s="0" t="inlineStr">
+        <is>
+          <t>herbsundays.substack.com</t>
+        </is>
+      </c>
+      <c r="H189" s="0" t="inlineStr">
+        <is>
+          <t>Sam Valenti IV
+he/him/his
+sv4
+founder @ghostly / @herbsundays on substack/ co-founder @allflowersgroup
+herbsundays.substack.com and 2 more</t>
+        </is>
+      </c>
+      <c r="I189" s="0" t="inlineStr">
+        <is>
+          <t>sv4
+Follow
+Message
+1,583 posts
+11K followers
+6,052 following
+Sam Valenti IV
+he/him/his
+sv4
+founder @ghostly / @herbsundays on substack/ co-founder @allflowersgroup
+herbsundays.substack.com and 2 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>Lynn in Tech</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lynnintech/</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>3928</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>1471</v>
+      </c>
+      <c r="F190" s="0" t="inlineStr"/>
+      <c r="G190" s="0" t="inlineStr"/>
+      <c r="H190" s="0" t="inlineStr">
+        <is>
+          <t>Lynn in Tech
+🧠 software, ai, machine learning engineer
+✨ health &amp; fitness advocate | travel enthusiast |
+🌀 a real down to mars gal</t>
+        </is>
+      </c>
+      <c r="I190" s="0" t="inlineStr">
+        <is>
+          <t>lynnintech
+Follow
+Message
+199 posts
+3,928 followers
+1,471 following
+Lynn in Tech
+🧠 software, ai, machine learning engineer
+✨ health &amp; fitness advocate | travel enthusiast |
+🌀 a real down to mars gal
+Home
+‘24 Travels
+‘23 Travels
+Cookins
+Sophie
+Workouts
+Greece 2023
+BTS
+Data &amp; Algos
+‘22 Travels</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>Richard Glennie</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/by_richardglennie/</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>484</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F191" s="0" t="inlineStr"/>
+      <c r="G191" s="0" t="inlineStr">
+        <is>
+          <t>www.woven-communications.com</t>
+        </is>
+      </c>
+      <c r="H191" s="0" t="inlineStr">
+        <is>
+          <t>Richard Glennie
+Founder of Woven
+www.woven-communications.com</t>
+        </is>
+      </c>
+      <c r="I191" s="0" t="inlineStr">
+        <is>
+          <t>by_richardglennie
+Follow
+308 posts
+484 followers
+1,023 following
+Richard Glennie
+Founder of Woven
+www.woven-communications.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>jinu ben</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jinu.ben/</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>2327</v>
+      </c>
+      <c r="F192" s="0" t="inlineStr"/>
+      <c r="G192" s="0" t="inlineStr"/>
+      <c r="H192" s="0" t="inlineStr">
+        <is>
+          <t>jinu ben
+Co-founder @creatorsandmarketers.school |
+ex- @metaindia Creator &amp; Media Partnerships
+creatorsandmarketers.school</t>
+        </is>
+      </c>
+      <c r="I192" s="0" t="inlineStr">
+        <is>
+          <t>jinu.ben
+Follow
+Message
+214 posts
+34.8K followers
+2,327 following
+jinu ben
+Co-founder @creatorsandmarketers.school |
+ex- @metaindia Creator &amp; Media Partnerships
+creatorsandmarketers.school
+#KullanteBharya
+Thirike
+Danie Boy
+B’day :)
+Reels spotted
+Music Stories
+misc
+#BornOnIG
+FB Workshop
+InfluencerCon
+Halloween 👻</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr"/>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mike_thefounder/</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>1139</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="F193" s="0" t="inlineStr"/>
+      <c r="G193" s="0" t="inlineStr">
+        <is>
+          <t>stockvibes.ai</t>
+        </is>
+      </c>
+      <c r="H193" s="0" t="inlineStr">
+        <is>
+          <t>mike_thefounder
+Entrepreneur
+🚀 Operator | Investor | Vibe Coder
+🌊 YC Founder Raised $8M+
+🥊 Obsessed with Self-Improvement
+🌎 Fluent in American and... 
+more
+stockvibes.ai and 2 more</t>
+        </is>
+      </c>
+      <c r="I193" s="0" t="inlineStr">
+        <is>
+          <t>mike_thefounder
+Follow
+Message
+10 posts
+1,139 followers
+453 following
+mike_thefounder
+Entrepreneur
+🚀 Operator | Investor | Vibe Coder
+🌊 YC Founder Raised $8M+
+🥊 Obsessed with Self-Improvement
+🌎 Fluent in American and... 
+more
+stockvibes.ai and 2 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>Honey Colombo</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/iamhoneycolombollc/</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>90700</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="F194" s="0" t="inlineStr"/>
+      <c r="G194" s="0" t="inlineStr"/>
+      <c r="H194" s="0" t="inlineStr">
+        <is>
+          <t>Honey Colombo
+iamhoneycolombollc
+Credit Counseling Service
+Bianca Garrett 🔑
+CREDIT COACH 🏦
+FINANCIAL LITERACY COACH 📈
+WOMAN IN TECH👩🏽‍💻
+CEO of @bluprintsolutionsinc_
+linktr.ee/bluprintsolutions</t>
+        </is>
+      </c>
+      <c r="I194" s="0" t="inlineStr">
+        <is>
+          <t>iamhoneycolombollc
+Follow
+Message
+74 posts
+90.7K followers
+552 following
+Honey Colombo
+iamhoneycolombollc
+Credit Counseling Service
+Bianca Garrett 🔑
+CREDIT COACH 🏦
+FINANCIAL LITERACY COACH 📈
+WOMAN IN TECH👩🏽‍💻
+CEO of @bluprintsolutionsinc_
+linktr.ee/bluprintsolutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>Rebecca Camon</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rebecca_inspires/</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>2811</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>1257</v>
+      </c>
+      <c r="F195" s="0" t="inlineStr"/>
+      <c r="G195" s="0" t="inlineStr"/>
+      <c r="H195" s="0" t="inlineStr">
+        <is>
+          <t>Rebecca Camon
+she/her
+rebecca_inspires
+Public figure
+CEO | Executive | Engineer | Believer | Mom
+✨Inspiring change through action✨
+➡️ @inspireatlanta
+➡️ @inthecitymagazine ... 
+more
+linktr.ee/rebecca_inspires and 2 more</t>
+        </is>
+      </c>
+      <c r="I195" s="0" t="inlineStr">
+        <is>
+          <t>rebecca_inspires
+Follow
+Message
+94 posts
+2,811 followers
+1,257 following
+Rebecca Camon
+she/her
+rebecca_inspires
+Public figure
+CEO | Executive | Engineer | Believer | Mom
+✨Inspiring change through action✨
+➡️ @inspireatlanta
+➡️ @inthecitymagazine ... 
+more
+linktr.ee/rebecca_inspires and 2 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>Margo | Programmer</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/riittagirl/</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>1843</v>
+      </c>
+      <c r="F196" s="0" t="inlineStr"/>
+      <c r="G196" s="0" t="inlineStr">
+        <is>
+          <t>finua.org</t>
+        </is>
+      </c>
+      <c r="H196" s="0" t="inlineStr">
+        <is>
+          <t>Margo | Programmer
+riittagirl
+Digital creator
+Tech founder. Also a coder by night 🌖
+Founder of @finuaorg
+finua.org</t>
+        </is>
+      </c>
+      <c r="I196" s="0" t="inlineStr">
+        <is>
+          <t>riittagirl
+Follow
+Message
+960 posts
+11.9K followers
+1,843 following
+Margo | Programmer
+riittagirl
+Digital creator
+Tech founder. Also a coder by night 🌖
+Founder of @finuaorg
+finua.org
+Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>Kawser Khan</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ceokawser/</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>915</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>2279</v>
+      </c>
+      <c r="F197" s="0" t="inlineStr"/>
+      <c r="G197" s="0" t="inlineStr">
+        <is>
+          <t>beige.app</t>
+        </is>
+      </c>
+      <c r="H197" s="0" t="inlineStr">
+        <is>
+          <t>Kawser Khan
+Entrepreneur
+🌎 Founder &amp; CEO @beigevideo @bw.weddings
+📲Join @beige.app Waitlist
+💍 Husband to @naffytaffy100
+🎥 Host of @beigemoguls
+youtu.be/OFYpDDXOuSY and 4 more</t>
+        </is>
+      </c>
+      <c r="I197" s="0" t="inlineStr">
+        <is>
+          <t>ceokawser
+Follow
+Message
+915 posts
+40K followers
+2,279 following
+Kawser Khan
+Entrepreneur
+🌎 Founder &amp; CEO @beigevideo @bw.weddings
+📲Join @beige.app Waitlist
+💍 Husband to @naffytaffy100
+🎥 Host of @beigemoguls
+youtu.be/OFYpDDXOuSY and 4 more
+25’
+Cars 🏎️
+PR📸
+Health
+Influence
+Wife 💍❤️‍🔥
+24’
+ceotalks
+HTX
+Meera🐅&amp;Cloudy🐈‍⬛
+LA
+Content 🌎
+WORLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>Shoukri Kattan</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/onlycto/</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>481</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>1885</v>
+      </c>
+      <c r="F198" s="0" t="inlineStr"/>
+      <c r="G198" s="0" t="inlineStr"/>
+      <c r="H198" s="0" t="inlineStr">
+        <is>
+          <t>Shoukri Kattan
+onlycto
+Entrepreneur
+🧠Chief Technology Officer | Angel Investor | Biohacker
+🛠️Helping Founders Scale with Software
+🚀Guided 100+ startups... 
+more
+linktr.ee/onlycto</t>
+        </is>
+      </c>
+      <c r="I198" s="0" t="inlineStr">
+        <is>
+          <t>onlycto
+Follow
+Message
+213 posts
+481 followers
+1,885 following
+Shoukri Kattan
+onlycto
+Entrepreneur
+🧠Chief Technology Officer | Angel Investor | Biohacker
+🛠️Helping Founders Scale with Software
+🚀Guided 100+ startups... 
+more
+linktr.ee/onlycto
+Business
+Travel
+Martial arts
+Biohacking
+Crossfit
+Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>Danica Simic</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/codingmermaid.ai/</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>791</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>197000</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>903</v>
+      </c>
+      <c r="F199" s="0" t="inlineStr"/>
+      <c r="G199" s="0" t="inlineStr">
+        <is>
+          <t>codingmermaid.ai
+ codingmermaid.ai</t>
+        </is>
+      </c>
+      <c r="H199" s="0" t="inlineStr">
+        <is>
+          <t>Danica Simic
+she/her
+codingmermaid.ai
+Digital creator
+📊 Helping you succeed in data &amp; AI
+👩🏼‍💻 Freelance data scientist -&gt; AI consulting startup founder
+Business →... 
+more
+stan.store/codingmermaid and 4 more</t>
+        </is>
+      </c>
+      <c r="I199" s="0" t="inlineStr">
+        <is>
+          <t>codingmermaid.ai
+Follow
+Message
+791 posts
+197K followers
+903 following
+Danica Simic
+she/her
+codingmermaid.ai
+Digital creator
+📊 Helping you succeed in data &amp; AI
+👩🏼‍💻 Freelance data scientist -&gt; AI consulting startup founder
+Business →... 
+more
+stan.store/codingmermaid and 4 more
+Personal Brand
+Testimonials 🤍
+Tech Roadmaps
+Monthly Planner
+Q&amp;A
+About me
+books &amp; e-books</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>Dr.Siddhant Bhargava</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dr.siddhant.bhargava/</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>903</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>640000</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>1249</v>
+      </c>
+      <c r="F200" s="0" t="inlineStr"/>
+      <c r="G200" s="0" t="inlineStr">
+        <is>
+          <t>www.getinnergize.com</t>
+        </is>
+      </c>
+      <c r="H200" s="0" t="inlineStr">
+        <is>
+          <t>Dr.Siddhant Bhargava
+Entrepreneur
+🧙‍♀️Health-Tech Wizard 🔆 | 🥼Fat-Loss Doctor🌙
+Co-founder &amp; CEO @getinnergize
+www.getinnergize.com</t>
+        </is>
+      </c>
+      <c r="I200" s="0" t="inlineStr">
+        <is>
+          <t>dr.siddhant.bhargava
+Follow
+Message
+903 posts
+640K followers
+1,249 following
+Dr.Siddhant Bhargava
+Entrepreneur
+🧙‍♀️Health-Tech Wizard 🔆 | 🥼Fat-Loss Doctor🌙
+Co-founder &amp; CEO @getinnergize
+www.getinnergize.com
+My Program</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>Nova Nnaoji | Coding + Relationships</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/techfoundernova/</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>5269</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>3589</v>
+      </c>
+      <c r="F201" s="0" t="inlineStr"/>
+      <c r="G201" s="0" t="inlineStr">
+        <is>
+          <t>wazzle.ai
+ www.techfounderpro.com</t>
+        </is>
+      </c>
+      <c r="H201" s="0" t="inlineStr">
+        <is>
+          <t>Nova Nnaoji | Coding + Relationships
+techfoundernova
+Coach
+Mastermind: Outcomes are Engineered
+@techfounderpro | @wazzle.ai | @projectveraonline
+Focused on the Future of Work.
+www.techfounderpro.com</t>
+        </is>
+      </c>
+      <c r="I201" s="0" t="inlineStr">
+        <is>
+          <t>techfoundernova
+Follow
+Message
+430 posts
+5,269 followers
+3,589 following
+Nova Nnaoji | Coding + Relationships
+techfoundernova
+Coach
+Mastermind: Outcomes are Engineered
+@techfounderpro | @wazzle.ai | @projectveraonline
+Focused on the Future of Work.
+www.techfounderpro.com
+Tech
+Motivation
+Fitness
+EQ
+BDay 2020
+Music
+Watch Out
+Eos
+2020
+Summer2020
+Life of Luxury
+Des Moines Files
+Fly Whips...</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>AZEEM</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/azeem_kattali/</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>7480</v>
+      </c>
+      <c r="F202" s="0" t="inlineStr"/>
+      <c r="G202" s="0" t="inlineStr"/>
+      <c r="H202" s="0" t="inlineStr">
+        <is>
+          <t>AZEEM
+azeem_kattali
+Co-founder &amp; Director, @eunoians
+In search of beautiful thinkers ✨️
+yoo-noy-uh 😌
+linktr.ee/eunoians and 2 more</t>
+        </is>
+      </c>
+      <c r="I202" s="0" t="inlineStr">
+        <is>
+          <t>azeem_kattali
+Follow
+69 posts
+12K followers
+7,480 following
+AZEEM
+azeem_kattali
+Co-founder &amp; Director, @eunoians
+In search of beautiful thinkers ✨️
+yoo-noy-uh 😌
+linktr.ee/eunoians and 2 more
+eunoia
+meeTrip
+Fun Euno
+paathu
+initiative
+നാട്.. കളി</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>Sumeet Meena</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sumeetmeena/</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>1159</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F203" s="0" t="inlineStr"/>
+      <c r="G203" s="0" t="inlineStr">
+        <is>
+          <t>nyasa.co
+ www.nyasa.co.in</t>
+        </is>
+      </c>
+      <c r="H203" s="0" t="inlineStr">
+        <is>
+          <t>Sumeet Meena
+Founder, Nyasa
+@nyasa.co.in
+www.nyasa.co.in</t>
+        </is>
+      </c>
+      <c r="I203" s="0" t="inlineStr">
+        <is>
+          <t>sumeetmeena
+Follow
+187 posts
+1,159 followers
+1,901 following
+Sumeet Meena
+Founder, Nyasa
+@nyasa.co.in
+www.nyasa.co.in</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>自如 王</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/shawnmetallica/</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>3465</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="F204" s="0" t="inlineStr"/>
+      <c r="G204" s="0" t="inlineStr">
+        <is>
+          <t>www.zealer.com</t>
+        </is>
+      </c>
+      <c r="H204" s="0" t="inlineStr">
+        <is>
+          <t>自如 王
+Founder &amp; CEO
+www.zealer.com</t>
+        </is>
+      </c>
+      <c r="I204" s="0" t="inlineStr">
+        <is>
+          <t>shawnmetallica
+Follow
+77 posts
+3,465 followers
+221 following
+自如 王
+Founder &amp; CEO
+www.zealer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>Isa Fernandes</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/isafernandes/</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>970</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>798</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>2029</v>
+      </c>
+      <c r="F205" s="0" t="inlineStr"/>
+      <c r="G205" s="0" t="inlineStr">
+        <is>
+          <t>www.linkedin.com/in/isabelle-fernandes-?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+        </is>
+      </c>
+      <c r="H205" s="0" t="inlineStr">
+        <is>
+          <t>Isa Fernandes
+she/her
+isafernandes
+🐕🧡
+Head of Creators &amp; Media | Co-founder @cc_caramelo
+www.linkedin.com/in/isabelle-fernandes-?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app and 1 more</t>
+        </is>
+      </c>
+      <c r="I205" s="0" t="inlineStr">
+        <is>
+          <t>isafernandes
+Follow
+970 posts
+798 followers
+2,029 following
+Isa Fernandes
+she/her
+isafernandes
+🐕🧡
+Head of Creators &amp; Media | Co-founder @cc_caramelo
+www.linkedin.com/in/isabelle-fernandes-?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>Jahu Coleman</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jahucoleman/</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>206000</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>775</v>
+      </c>
+      <c r="F206" s="0" t="inlineStr">
+        <is>
+          <t>3.28
+7.18
+1.31
+1.10
+1.5
+12.10
+11.10
+11.5
+10.28
+10.21
+10.15</t>
+        </is>
+      </c>
+      <c r="G206" s="0" t="inlineStr"/>
+      <c r="H206" s="0" t="inlineStr">
+        <is>
+          <t>Jahu Coleman
+jahucoleman
+Founder @einsteintechnologies ™️▪️◾ ⬛
+Building Software Applications #Web3 🚀💡🧑‍💻
+Inventor: Blockchain as a Service.
+linktr.ee/EinsteinTechnologies</t>
+        </is>
+      </c>
+      <c r="I206" s="0" t="inlineStr">
+        <is>
+          <t>jahucoleman
+Follow
+Message
+8 posts
+206K followers
+775 following
+Jahu Coleman
+jahucoleman
+Founder @einsteintechnologies ™️▪️◾ ⬛
+Building Software Applications #Web3 🚀💡🧑‍💻
+Inventor: Blockchain as a Service.
+linktr.ee/EinsteinTechnologies
+3.28
+7.18
+1.31
+1.10
+1.5
+12.10
+11.10
+11.5
+10.28
+10.21
+10.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>Temante Leary</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/temanteleary/</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>1165</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>7469</v>
+      </c>
+      <c r="F207" s="0" t="inlineStr"/>
+      <c r="G207" s="0" t="inlineStr">
+        <is>
+          <t>miamiwire.com/bite-con-empowers-underrepresented-communities-in-tech-poised-to-be-the-ultimate-tech-conference</t>
+        </is>
+      </c>
+      <c r="H207" s="0" t="inlineStr">
+        <is>
+          <t>Temante Leary
+temanteleary
+Content Developer @microsoft
+Founder @bite_con @blackmentalktech
+Charlotte #704 ✈️ Miami #305 #unc #alumni 🐏👣... 
+more
+miamiwire.com/bite-con-empowers-underrepresented-communities-in-tech-poised-to-be-the-ultimate-tech-conference and 4 more</t>
+        </is>
+      </c>
+      <c r="I207" s="0" t="inlineStr">
+        <is>
+          <t>temanteleary
+Follow
+1,165 posts
+10K followers
+7,469 following
+Temante Leary
+temanteleary
+Content Developer @microsoft
+Founder @bite_con @blackmentalktech
+Charlotte #704 ✈️ Miami #305 #unc #alumni 🐏👣... 
+more
+miamiwire.com/bite-con-empowers-underrepresented-communities-in-tech-poised-to-be-the-ultimate-tech-conference and 4 more
+Phylicia Rashad
+Highlights
+Top 18
+Onyyx
+BIA Launch
+1MilCups
+VCafe
+Covid Tech
+VCafe
+Blockchain
+@10dofc
+KF Grant
+MarketWatch 🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>Mohit Ahuja</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/iliketomohitmohit/</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>447</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>3010</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>1554</v>
+      </c>
+      <c r="F208" s="0" t="inlineStr"/>
+      <c r="G208" s="0" t="inlineStr">
+        <is>
+          <t>topmate.io/mohit_ahuja</t>
+        </is>
+      </c>
+      <c r="H208" s="0" t="inlineStr">
+        <is>
+          <t>Mohit Ahuja
+iliketomohitmohit
+Entrepreneur
+🚀 CSO @limoverseofficial | @vieroots | @worldbiohacksummit
+⚽️ Semi-pro footballer
+🔗 At the intersection of... 
+more
+topmate.io/mohit_ahuja</t>
+        </is>
+      </c>
+      <c r="I208" s="0" t="inlineStr">
+        <is>
+          <t>iliketomohitmohit
+Follow
+Message
+447 posts
+3,010 followers
+1,554 following
+Mohit Ahuja
+iliketomohitmohit
+Entrepreneur
+🚀 CSO @limoverseofficial | @vieroots | @worldbiohacksummit
+⚽️ Semi-pro footballer
+🔗 At the intersection of... 
+more
+topmate.io/mohit_ahuja
+NFTs and more
+Web3++
+AMA - Sales
+Life in sales
+Switzerland
+Paris
+Belgium
+The Netherlands
+Global Gluttony
+Margaret
+Lunar Eclipse
+Society
+Note To Self</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>Dustin Laemmlen</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dustinlaemmlen/</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>2187</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>1377</v>
+      </c>
+      <c r="F209" s="0" t="inlineStr"/>
+      <c r="G209" s="0" t="inlineStr">
+        <is>
+          <t>maneco.co
+ maneco.co</t>
+        </is>
+      </c>
+      <c r="H209" s="0" t="inlineStr">
+        <is>
+          <t>Dustin Laemmlen
+dustinlaemmlen
+• Co-Founder/CEO @maneco.co
+• Cinematographer
+• Husband to @michellelaemmlen
+maneco.co</t>
+        </is>
+      </c>
+      <c r="I209" s="0" t="inlineStr">
+        <is>
+          <t>dustinlaemmlen
+Follow
+210 posts
+2,187 followers
+1,377 following
+Dustin Laemmlen
+dustinlaemmlen
+• Co-Founder/CEO @maneco.co
+• Cinematographer
+• Husband to @michellelaemmlen
+maneco.co
+BTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>Johnnie Turnage</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/johnnie.turnage/</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>5616</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>4811</v>
+      </c>
+      <c r="F210" s="0" t="inlineStr"/>
+      <c r="G210" s="0" t="inlineStr"/>
+      <c r="H210" s="0" t="inlineStr">
+        <is>
+          <t>Johnnie Turnage
+Community
+Husband | Tech Founder &amp; CEO | Organizer | Politics | Social Justice</t>
+        </is>
+      </c>
+      <c r="I210" s="0" t="inlineStr">
+        <is>
+          <t>johnnie.turnage
+Follow
+Message
+1,090 posts
+5,616 followers
+4,811 following
+Johnnie Turnage
+Community
+Husband | Tech Founder &amp; CEO | Organizer | Politics | Social Justice
+Travel
+My Ecosystem
+🙏🙏🙏
+New Heights</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>Suprava Sabat</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/suprava.ss/</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>216000</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F211" s="0" t="inlineStr">
+        <is>
+          <t>supravasabatax@gmail.com</t>
+        </is>
+      </c>
+      <c r="G211" s="0" t="inlineStr">
+        <is>
+          <t>gmail.com</t>
+        </is>
+      </c>
+      <c r="H211" s="0" t="inlineStr">
+        <is>
+          <t>Suprava Sabat
+suprava.ss
+Entrepreneur
+➡️ I post tips on lead-gen
+➡️ Co-founder at AcquisitionX
+For collab: supravasabatax@gmail.com
+tally.so/r/3X122j and 2 more</t>
+        </is>
+      </c>
+      <c r="I211" s="0" t="inlineStr">
+        <is>
+          <t>suprava.ss
+Follow
+Message
+106 posts
+216K followers
+41 following
+Suprava Sabat
+suprava.ss
+Entrepreneur
+➡️ I post tips on lead-gen
+➡️ Co-founder at AcquisitionX
+For collab: supravasabatax@gmail.com
+tally.so/r/3X122j and 2 more
+Life
+Q/A: Oct 2024
+Hiring
+Q/A/: June 2024
+Q/A: Aug 2024
+Q/A Sept 2024
+Partner-up</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>Elena 👽</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/highfrequencies_e/</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>2566</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>2960</v>
+      </c>
+      <c r="F212" s="0" t="inlineStr"/>
+      <c r="G212" s="0" t="inlineStr"/>
+      <c r="H212" s="0" t="inlineStr">
+        <is>
+          <t>Elena 👽
+Co-Founder of prizma.fyi
+#blockchain ⛓️</t>
+        </is>
+      </c>
+      <c r="I212" s="0" t="inlineStr">
+        <is>
+          <t>highfrequencies_e
+Follow
+378 posts
+2,566 followers
+2,960 following
+Elena 👽
+Co-Founder of prizma.fyi
+#blockchain ⛓️
+Pula Croatia
+Paris ‘25.
+Cannes 🇫🇷
+Paris
+Barcelona ‘23
+Istra
+Budapest 🇭🇺
+Cyprus 🇨🇾
+Colombia 🇨🇴
+🪞
+Croatia 🛳
+RHCP
+BS 11.6. ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>Varun Mayya</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/thevarunmayya/</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>1697</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="F213" s="0" t="inlineStr"/>
+      <c r="G213" s="0" t="inlineStr">
+        <is>
+          <t>yaas.me</t>
+        </is>
+      </c>
+      <c r="H213" s="0" t="inlineStr">
+        <is>
+          <t>Varun Mayya
+thevarunmayya
+Entrepreneur
+⚡ Founder @aeosgroup, @aeos.labs @yaas.media
+🤹 Stay up to date with the absolute latest in tech/AI
+📧... 
+more
+youtu.be/GuqAUv4UKXo and 2 more</t>
+        </is>
+      </c>
+      <c r="I213" s="0" t="inlineStr">
+        <is>
+          <t>thevarunmayya
+Follow
+Message
+1,697 posts
+1.1M followers
+815 following
+Varun Mayya
+thevarunmayya
+Entrepreneur
+⚡ Founder @aeosgroup, @aeos.labs @yaas.media
+🤹 Stay up to date with the absolute latest in tech/AI
+📧... 
+more
+youtu.be/GuqAUv4UKXo and 2 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>Ethan Kaplan</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ethank/</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>3334</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="F214" s="0" t="inlineStr"/>
+      <c r="G214" s="0" t="inlineStr">
+        <is>
+          <t>distrokid.com/hyperfollow/chronictown/i-december-california</t>
+        </is>
+      </c>
+      <c r="H214" s="0" t="inlineStr">
+        <is>
+          <t>Ethan Kaplan
+ethank
+CDO - Universal Audio (@uaudio) &amp; VC Advisor
+Former: CDO/GM - digital @fender, @livenation, SVP tech @warnerrecords and... 
+more
+distrokid.com/hyperfollow/chronictown/i-december-california and 2 more</t>
+        </is>
+      </c>
+      <c r="I214" s="0" t="inlineStr">
+        <is>
+          <t>ethank
+Follow
+Message
+3,334 posts
+1,360 followers
+692 following
+Ethan Kaplan
+ethank
+CDO - Universal Audio (@uaudio) &amp; VC Advisor
+Former: CDO/GM - digital @fender, @livenation, SVP tech @warnerrecords and... 
+more
+distrokid.com/hyperfollow/chronictown/i-december-california and 2 more
+Children
+REM
+House
+Flying
+Animals
+Extended Family
+JMSProjects
+New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>Halle Tecco MBA, MPH</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/halletecco/</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>6457</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>1178</v>
+      </c>
+      <c r="F215" s="0" t="inlineStr"/>
+      <c r="G215" s="0" t="inlineStr">
+        <is>
+          <t>halletecco.com</t>
+        </is>
+      </c>
+      <c r="H215" s="0" t="inlineStr">
+        <is>
+          <t>Halle Tecco MBA, MPH
+💻 Board member @cofertility @collective.health
+👩‍🏫 Adjunct prof @columbia_biz @harvardmed
+✨ Dedicated to making... 
+more
+halletecco.com</t>
+        </is>
+      </c>
+      <c r="I215" s="0" t="inlineStr">
+        <is>
+          <t>halletecco
+Follow
+Message
+52 posts
+6,457 followers
+1,178 following
+Halle Tecco MBA, MPH
+💻 Board member @cofertility @collective.health
+👩‍🏫 Adjunct prof @columbia_biz @harvardmed
+✨ Dedicated to making... 
+more
+halletecco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>Molly Graves</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mollstar/</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>1198</v>
+      </c>
+      <c r="F216" s="0" t="inlineStr"/>
+      <c r="G216" s="0" t="inlineStr">
+        <is>
+          <t>foursuns.com</t>
+        </is>
+      </c>
+      <c r="H216" s="0" t="inlineStr">
+        <is>
+          <t>Molly Graves
+:: Mom to four little dudes :: adding puns wherever possible :: @neatmethod co-founder :: @foursunsranch builder
+foursuns.com</t>
+        </is>
+      </c>
+      <c r="I216" s="0" t="inlineStr">
+        <is>
+          <t>mollstar
+Follow
+1,055 posts
+5,285 followers
+1,198 following
+Molly Graves
+:: Mom to four little dudes :: adding puns wherever possible :: @neatmethod co-founder :: @foursunsranch builder
+foursuns.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/msg/</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>754</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>2621</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>814</v>
+      </c>
+      <c r="F217" s="0" t="inlineStr"/>
+      <c r="G217" s="0" t="inlineStr">
+        <is>
+          <t>twitter.com/msg</t>
+        </is>
+      </c>
+      <c r="H217" s="0" t="inlineStr">
+        <is>
+          <t>msg
+msg
+CEO of Contains Inc
+Make AI apps that enable humans
+Follow along as I share my journey
+twitter.com/msg</t>
+        </is>
+      </c>
+      <c r="I217" s="0" t="inlineStr">
+        <is>
+          <t>msg
+Follow
+754 posts
+2,621 followers
+814 following
+msg
+msg
+CEO of Contains Inc
+Make AI apps that enable humans
+Follow along as I share my journey
+twitter.com/msg</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>John Henry</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/johnhenrystyle/</t>
+        </is>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>1616</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>149000</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>701</v>
+      </c>
+      <c r="F218" s="0" t="inlineStr"/>
+      <c r="G218" s="0" t="inlineStr">
+        <is>
+          <t>www.ridewithloop.com</t>
+        </is>
+      </c>
+      <c r="H218" s="0" t="inlineStr">
+        <is>
+          <t>John Henry
+Entrepreneur
+God fearing
+proud son of immigrants 🇩🇴
+CEO, LOOP
+www.ridewithloop.com</t>
+        </is>
+      </c>
+      <c r="I218" s="0" t="inlineStr">
+        <is>
+          <t>johnhenrystyle
+Follow
+Message
+1,616 posts
+149K followers
+701 following
+John Henry
+Entrepreneur
+God fearing
+proud son of immigrants 🇩🇴
+CEO, LOOP
+www.ridewithloop.com
+🏐
+💪🏾
+🪞
+🕺</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>Adel Sajan</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/adelsajan/</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>267000</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F219" s="0" t="inlineStr"/>
+      <c r="G219" s="0" t="inlineStr">
+        <is>
+          <t>www.ceo-middleeast.com/leadership/ceo-1/innovate-and-inspire-adel-sajan-on-what-it-takes-to-bridge-entrepreneurism-with-vision</t>
+        </is>
+      </c>
+      <c r="H219" s="0" t="inlineStr">
+        <is>
+          <t>Adel Sajan
+Entrepreneur
+MD @danubeproperties @danube.group
+Founder @DanubeHome @DanubeSportsWorld
+Guest 🦈 Shark Tank Dubai
+Harvard Business... 
+more
+www.ceo-middleeast.com/leadership/ceo-1/innovate-and-inspire-adel-sajan-on-what-it-takes-to-bridge-entrepreneurism-with-vision</t>
+        </is>
+      </c>
+      <c r="I219" s="0" t="inlineStr">
+        <is>
+          <t>adelsajan
+Follow
+Message
+1,035 posts
+267K followers
+1,031 following
+Adel Sajan
+Entrepreneur
+MD @danubeproperties @danube.group
+Founder @DanubeHome @DanubeSportsWorld
+Guest 🦈 Shark Tank Dubai
+Harvard Business... 
+more
+www.ceo-middleeast.com/leadership/ceo-1/innovate-and-inspire-adel-sajan-on-what-it-takes-to-bridge-entrepreneurism-with-vision
+• EVENTS •
+•FRIENDS &amp; FAM•
+• TRAVEL •
+• COLLABS •
+• DSW •
+• HARVARD •</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>Stephanie Jones</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/stephkjones/</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>987</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>31300</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>3364</v>
+      </c>
+      <c r="F220" s="0" t="inlineStr"/>
+      <c r="G220" s="0" t="inlineStr"/>
+      <c r="H220" s="0" t="inlineStr">
+        <is>
+          <t>Stephanie Jones
+stephkjones
+Southern roots in NYC
+Founder @jonesworks
+Fluent in sarcasm
+hoo.be/jonesworks</t>
+        </is>
+      </c>
+      <c r="I220" s="0" t="inlineStr">
+        <is>
+          <t>stephkjones
+Follow
+987 posts
+31.3K followers
+3,364 following
+Stephanie Jones
+stephkjones
+Southern roots in NYC
+Founder @jonesworks
+Fluent in sarcasm
+hoo.be/jonesworks</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="inlineStr"/>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/olivier/</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>53100</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="F221" s="0" t="inlineStr"/>
+      <c r="G221" s="0" t="inlineStr">
+        <is>
+          <t>olivierrogers.com</t>
+        </is>
+      </c>
+      <c r="H221" s="0" t="inlineStr">
+        <is>
+          <t>Founder of @olivierrogers
+olivierrogers.com</t>
+        </is>
+      </c>
+      <c r="I221" s="0" t="inlineStr">
+        <is>
+          <t>olivier
+Follow
+25 posts
+53.1K followers
+580 following
+Founder of @olivierrogers
+olivierrogers.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>William TJ Sims IV</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/williamtjsims/</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>1697</v>
+      </c>
+      <c r="F222" s="0" t="inlineStr"/>
+      <c r="G222" s="0" t="inlineStr"/>
+      <c r="H222" s="0" t="inlineStr">
+        <is>
+          <t>William TJ Sims IV
+williamtjsims
+Entrepreneur
+💼 Founder &amp; CEO @cythority
+🌐 2022 @forbes Business Council
+💰 Accumulated 100MM + in Salary Offerings
+💻 DM me... 
+more
+linktr.ee/cythority and 1 more</t>
+        </is>
+      </c>
+      <c r="I222" s="0" t="inlineStr">
+        <is>
+          <t>williamtjsims
+Follow
+Message
+93 posts
+17K followers
+1,697 following
+William TJ Sims IV
+williamtjsims
+Entrepreneur
+💼 Founder &amp; CEO @cythority
+🌐 2022 @forbes Business Council
+💰 Accumulated 100MM + in Salary Offerings
+💻 DM me... 
+more
+linktr.ee/cythority and 1 more
+Travel
+Family
+Program
+Books
+Merch</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>Rob Olson LaFave</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/roblafave/</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>246</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>545</v>
+      </c>
+      <c r="F223" s="0" t="inlineStr"/>
+      <c r="G223" s="0" t="inlineStr">
+        <is>
+          <t>about.me/rob</t>
+        </is>
+      </c>
+      <c r="H223" s="0" t="inlineStr">
+        <is>
+          <t>Rob Olson LaFave
+roblafave
+tech geek, entrepreneur, foodie
+Founder/CEO of Float
+about.me/rob</t>
+        </is>
+      </c>
+      <c r="I223" s="0" t="inlineStr">
+        <is>
+          <t>roblafave
+Follow
+246 posts
+1,069 followers
+545 following
+Rob Olson LaFave
+roblafave
+tech geek, entrepreneur, foodie
+Founder/CEO of Float
+about.me/rob</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>Jason Yeager</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mytechceo/</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>253000</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>1747</v>
+      </c>
+      <c r="F224" s="0" t="inlineStr"/>
+      <c r="G224" s="0" t="inlineStr">
+        <is>
+          <t>pillar.io/mytechceo</t>
+        </is>
+      </c>
+      <c r="H224" s="0" t="inlineStr">
+        <is>
+          <t>Jason Yeager
+Entrepreneur
+🌐 Tech Comedy &amp; Insights
+📈 Building a $1B+ fully AI-run company
+📍 San Francisco | Founder &amp; Investor
+pillar.io/mytechceo</t>
+        </is>
+      </c>
+      <c r="I224" s="0" t="inlineStr">
+        <is>
+          <t>mytechceo
+Follow
+Message
+118 posts
+253K followers
+1,747 following
+Jason Yeager
+Entrepreneur
+🌐 Tech Comedy &amp; Insights
+📈 Building a $1B+ fully AI-run company
+📍 San Francisco | Founder &amp; Investor
+pillar.io/mytechceo
+Formula 1
+Singapore
+Dubai
+San Francisco
+New York
+Press
+Mongolia
+Mexico
+Summit</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>Pratham Mittal</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/pratham.a.mittal/</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>64900</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>698</v>
+      </c>
+      <c r="F225" s="0" t="inlineStr"/>
+      <c r="G225" s="0" t="inlineStr">
+        <is>
+          <t>tetr.co
+ mastersunion.org</t>
+        </is>
+      </c>
+      <c r="H225" s="0" t="inlineStr">
+        <is>
+          <t>Pratham Mittal
+pratham.a.mittal
+Founder, @masters.union &amp; @tetr.college
+mastersunion.org and 1 more</t>
+        </is>
+      </c>
+      <c r="I225" s="0" t="inlineStr">
+        <is>
+          <t>pratham.a.mittal
+Follow
+105 posts
+64.9K followers
+698 following
+Pratham Mittal
+pratham.a.mittal
+Founder, @masters.union &amp; @tetr.college
+mastersunion.org and 1 more
+Throwback
+News
+Interviews</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>Jay Clouse</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jayclouse/</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>10100</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>2790</v>
+      </c>
+      <c r="F226" s="0" t="inlineStr"/>
+      <c r="G226" s="0" t="inlineStr">
+        <is>
+          <t>creatorscience.com</t>
+        </is>
+      </c>
+      <c r="H226" s="0" t="inlineStr">
+        <is>
+          <t>Jay Clouse
+🧪 Founder of @creatorscience
+💰 Helping creators build sturdy businesses
+🎙️ 2M+ podcast downloads / 120K YT subs
+👇 Join... 
+more
+creatorscience.com</t>
+        </is>
+      </c>
+      <c r="I226" s="0" t="inlineStr">
+        <is>
+          <t>jayclouse
+Follow
+Message
+2,334 posts
+10.1K followers
+2,790 following
+Jay Clouse
+🧪 Founder of @creatorscience
+💰 Helping creators build sturdy businesses
+🎙️ 2M+ podcast downloads / 120K YT subs
+👇 Join... 
+more
+creatorscience.com
+The Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>Cole Gordon</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/colethomasgordon/</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>3026</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>517000</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="F227" s="0" t="inlineStr"/>
+      <c r="G227" s="0" t="inlineStr">
+        <is>
+          <t>Closers.io
+ bit.ly/Closersio</t>
+        </is>
+      </c>
+      <c r="H227" s="0" t="inlineStr">
+        <is>
+          <t>Cole Gordon
+Founder of Closers.io
+$0 &gt; $30M/yr in 26 Months
+👇 Click below if you want my personal help growing your business OR... 
+more
+bit.ly/Closersio</t>
+        </is>
+      </c>
+      <c r="I227" s="0" t="inlineStr">
+        <is>
+          <t>colethomasgordon
+Follow
+Message
+3,026 posts
+517K followers
+518 following
+Cole Gordon
+Founder of Closers.io
+$0 &gt; $30M/yr in 26 Months
+👇 Click below if you want my personal help growing your business OR... 
+more
+bit.ly/Closersio</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>Parul Parmar</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/parulpparmar/</t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>9008</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>2812</v>
+      </c>
+      <c r="F228" s="0" t="inlineStr"/>
+      <c r="G228" s="0" t="inlineStr"/>
+      <c r="H228" s="0" t="inlineStr">
+        <is>
+          <t>Parul Parmar
+Founder @newnarrativemedia 🖊️</t>
+        </is>
+      </c>
+      <c r="I228" s="0" t="inlineStr">
+        <is>
+          <t>parulpparmar
+Follow
+Message
+303 posts
+9,008 followers
+2,812 following
+Parul Parmar
+Founder @newnarrativemedia 🖊️
+NN - 2
+NN
+📰
+📰
+Music
+Books
+📰
+📰
+📰
+📰
+📰
+📰</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>MANDELA SH DIXON</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mandelash/</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>3473</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>7477</v>
+      </c>
+      <c r="F229" s="0" t="inlineStr"/>
+      <c r="G229" s="0" t="inlineStr">
+        <is>
+          <t>linkedin.com/in/mandelash</t>
+        </is>
+      </c>
+      <c r="H229" s="0" t="inlineStr">
+        <is>
+          <t>MANDELA SH DIXON
+👩🏽‍💻 Startup Executive, Investor, and Board Member
+🏆 Entrepreneur Magazine’s 100 Most Powerful Women
+✨ Family is my... 
+more
+linkedin.com/in/mandelash</t>
+        </is>
+      </c>
+      <c r="I229" s="0" t="inlineStr">
+        <is>
+          <t>mandelash
+Follow
+3,473 posts
+44.1K followers
+7,477 following
+MANDELA SH DIXON
+👩🏽‍💻 Startup Executive, Investor, and Board Member
+🏆 Entrepreneur Magazine’s 100 Most Powerful Women
+✨ Family is my... 
+more
+linkedin.com/in/mandelash</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>Erin Winick Anthony 🚀🔬🌌</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/erinwinick/</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>48400</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F230" s="0" t="inlineStr"/>
+      <c r="G230" s="0" t="inlineStr">
+        <is>
+          <t>erinwinick.substack.com</t>
+        </is>
+      </c>
+      <c r="H230" s="0" t="inlineStr">
+        <is>
+          <t>Erin Winick Anthony 🚀🔬🌌
+she/her
+erinwinick
+Science, Technology &amp; Engineering
+🔬Founder, @steampowermedia
+🚀Space and Science Communicator | BS Mech Engineering | Pinballer
+Formerly @NASA MIT
+📧Erin.wi... 
+more
+erinwinick.substack.com and 4 more</t>
+        </is>
+      </c>
+      <c r="I230" s="0" t="inlineStr">
+        <is>
+          <t>erinwinick
+Follow
+Message
+2,499 posts
+48.4K followers
+1,182 following
+Erin Winick Anthony 🚀🔬🌌
+she/her
+erinwinick
+Science, Technology &amp; Engineering
+🔬Founder, @steampowermedia
+🚀Space and Science Communicator | BS Mech Engineering | Pinballer
+Formerly @NASA MIT
+📧Erin.wi... 
+more
+erinwinick.substack.com and 4 more
+🧵🛠️
+🚀👩‍🚀
+Ocean Adventure
+🪐👗
+🔬🧬
+👾🕹️</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>Ken Silver</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/waterneversleeps/</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>1109</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F231" s="0" t="inlineStr"/>
+      <c r="G231" s="0" t="inlineStr">
+        <is>
+          <t>rvivl.co
+ rvivl.co/product/rvivl-pack</t>
+        </is>
+      </c>
+      <c r="H231" s="0" t="inlineStr">
+        <is>
+          <t>Ken Silver
+waterneversleeps
+Founder @rvivl.co
+Marina Del Rey, CA
+rvivl.co/product/rvivl-pack</t>
+        </is>
+      </c>
+      <c r="I231" s="0" t="inlineStr">
+        <is>
+          <t>waterneversleeps
+Follow
+219 posts
+1,109 followers
+1,018 following
+Ken Silver
+waterneversleeps
+Founder @rvivl.co
+Marina Del Rey, CA
+rvivl.co/product/rvivl-pack</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>Reed Duchscher</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reedjd/</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>91800</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="F232" s="0" t="inlineStr"/>
+      <c r="G232" s="0" t="inlineStr"/>
+      <c r="H232" s="0" t="inlineStr">
+        <is>
+          <t>Reed Duchscher
+reedjd
+Entrepreneur
+Founder &amp; CEO @NightMedia 📍ATX | LA
+beacons.page/reedjd</t>
+        </is>
+      </c>
+      <c r="I232" s="0" t="inlineStr">
+        <is>
+          <t>reedjd
+Follow
+Message
+64 posts
+91.8K followers
+1,007 following
+Reed Duchscher
+reedjd
+Entrepreneur
+Founder &amp; CEO @NightMedia 📍ATX | LA
+beacons.page/reedjd</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>Reed Duchscher</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reedjd/</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>91800</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="F233" s="0" t="inlineStr"/>
+      <c r="G233" s="0" t="inlineStr"/>
+      <c r="H233" s="0" t="inlineStr">
+        <is>
+          <t>Reed Duchscher
+reedjd
+Entrepreneur
+Founder &amp; CEO @NightMedia 📍ATX | LA
+beacons.page/reedjd</t>
+        </is>
+      </c>
+      <c r="I233" s="0" t="inlineStr">
+        <is>
+          <t>reedjd
+Follow
+Message
+64 posts
+91.8K followers
+1,007 following
+Reed Duchscher
+reedjd
+Entrepreneur
+Founder &amp; CEO @NightMedia 📍ATX | LA
+beacons.page/reedjd</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>Tony Parker</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_tonyparker09/</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>515</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>793000</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="F234" s="0" t="inlineStr"/>
+      <c r="G234" s="0" t="inlineStr">
+        <is>
+          <t>tonyparker9.komi.io</t>
+        </is>
+      </c>
+      <c r="H234" s="0" t="inlineStr">
+        <is>
+          <t>Tony Parker
+_tonyparker09
+Entrepreneur
+Founder/CEO @infinityninegroup
+tonyparker9.komi.io</t>
+        </is>
+      </c>
+      <c r="I234" s="0" t="inlineStr">
+        <is>
+          <t>_tonyparker09
+Follow
+Message
+515 posts
+793K followers
+341 following
+Tony Parker
+_tonyparker09
+Entrepreneur
+Founder/CEO @infinityninegroup
+tonyparker9.komi.io</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>Sarah Louise Bardsley</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sarahlouisebardsley/</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>2318</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>991</v>
+      </c>
+      <c r="F235" s="0" t="inlineStr"/>
+      <c r="G235" s="0" t="inlineStr"/>
+      <c r="H235" s="0" t="inlineStr">
+        <is>
+          <t>Sarah Louise Bardsley
+sarahlouisebardsley
+Tech CEO | Owner at 11 Eleven Media | Photographer | Sauna Lover | Avoiding Burnout ⚽️🌿</t>
+        </is>
+      </c>
+      <c r="I235" s="0" t="inlineStr">
+        <is>
+          <t>sarahlouisebardsley
+Follow
+Message
+1,020 posts
+2,318 followers
+991 following
+Sarah Louise Bardsley
+sarahlouisebardsley
+Tech CEO | Owner at 11 Eleven Media | Photographer | Sauna Lover | Avoiding Burnout ⚽️🌿
+Work Fun
+11 Eleven
+SK ⚽️
+Football fun
+🏠
+Coco &amp; Sage
+Endo &amp; adhesion
+IBIZA
+Blog life
+My Events
+Calm
+Faves
+Shout outs</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>Snigdha Sur</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/snigdhasur/</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>8883</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>2798</v>
+      </c>
+      <c r="F236" s="0" t="inlineStr"/>
+      <c r="G236" s="0" t="inlineStr">
+        <is>
+          <t>www.thejuggernaut.com/subscribe</t>
+        </is>
+      </c>
+      <c r="H236" s="0" t="inlineStr">
+        <is>
+          <t>Snigdha Sur
+snigdhasur
+founder &amp; ceo of @_thejuggernaut //
+runner 🏃🏽‍♀️, coder 👩🏽‍💻, bollywood buff 🎬
+Subscribe to the juggernaut today 👇🏽
+www.thejuggernaut.com/subscribe</t>
+        </is>
+      </c>
+      <c r="I236" s="0" t="inlineStr">
+        <is>
+          <t>snigdhasur
+Follow
+566 posts
+8,883 followers
+2,798 following
+Snigdha Sur
+snigdhasur
+founder &amp; ceo of @_thejuggernaut //
+runner 🏃🏽‍♀️, coder 👩🏽‍💻, bollywood buff 🎬
+Subscribe to the juggernaut today 👇🏽
+www.thejuggernaut.com/subscribe
+👰🏽‍♀️🤵🏽‍♂️💍
+Food 🥭
+💪🏽
+Diaspora
+Hollywood
+Bollywood Recs
+Crosswords
+Covid
+Speaking
+Writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>Sienna La Rocca</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/siennalarocca/</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>978</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>957</v>
+      </c>
+      <c r="F237" s="0" t="inlineStr"/>
+      <c r="G237" s="0" t="inlineStr"/>
+      <c r="H237" s="0" t="inlineStr">
+        <is>
+          <t>Sienna La Rocca
+ceo comms @meta 📍NYC</t>
+        </is>
+      </c>
+      <c r="I237" s="0" t="inlineStr">
+        <is>
+          <t>siennalarocca
+Follow
+17 posts
+978 followers
+957 following
+Sienna La Rocca
+ceo comms @meta 📍NYC</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>Peyush Bansal</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/peyushbansal/</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>912000</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>821</v>
+      </c>
+      <c r="F238" s="0" t="inlineStr"/>
+      <c r="G238" s="0" t="inlineStr">
+        <is>
+          <t>open.spotify.com/episode/2MDLnHRMHO14PNjoQnra6P</t>
+        </is>
+      </c>
+      <c r="H238" s="0" t="inlineStr">
+        <is>
+          <t>Peyush Bansal
+peyushbansal
+Official IG account of Peyush Bansal, Founder @lenskart @johnjacobseyewear @lenskartfoundation
+Do More, Be More!
+open.spotify.com/episode/2MDLnHRMHO14PNjoQnra6P and 1 more</t>
+        </is>
+      </c>
+      <c r="I238" s="0" t="inlineStr">
+        <is>
+          <t>peyushbansal
+Follow
+Message
+204 posts
+912K followers
+821 following
+Peyush Bansal
+peyushbansal
+Official IG account of Peyush Bansal, Founder @lenskart @johnjacobseyewear @lenskartfoundation
+Do More, Be More!
+open.spotify.com/episode/2MDLnHRMHO14PNjoQnra6P and 1 more
+Highlights
+Highlights
+Kapil Sharma dho
+Highlights
+Highlights
+Highlights
+Highlights
+Highlights
+#iamhooked
+#iamhooked</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>Ilya Pozin</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ilyaneversleeps/</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>2405</v>
+      </c>
+      <c r="F239" s="0" t="inlineStr"/>
+      <c r="G239" s="0" t="inlineStr">
+        <is>
+          <t>telly.com</t>
+        </is>
+      </c>
+      <c r="H239" s="0" t="inlineStr">
+        <is>
+          <t>Ilya Pozin
+Founder &amp; CEO @ Telly. Previously Founder @ Pluto TV
+telly.com</t>
+        </is>
+      </c>
+      <c r="I239" s="0" t="inlineStr">
+        <is>
+          <t>ilyaneversleeps
+Follow
+68 posts
+18.6K followers
+2,405 following
+Ilya Pozin
+Founder &amp; CEO @ Telly. Previously Founder @ Pluto TV
+telly.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>Zach Ferraro</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/neozach/</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>5578</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>5677</v>
+      </c>
+      <c r="F240" s="0" t="inlineStr"/>
+      <c r="G240" s="0" t="inlineStr"/>
+      <c r="H240" s="0" t="inlineStr">
+        <is>
+          <t>Zach Ferraro
+neozach
+cofounder @favoritedapp prev @famousbirthdays, @fourthwall</t>
+        </is>
+      </c>
+      <c r="I240" s="0" t="inlineStr">
+        <is>
+          <t>neozach
+Follow
+Message
+33 posts
+5,578 followers
+5,677 following
+Zach Ferraro
+neozach
+cofounder @favoritedapp prev @famousbirthdays, @fourthwall
+LonkedIn
+White House
+VidCon
+CONs</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Eric Cole</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/drericcole/</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>4531</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>148000</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>915</v>
+      </c>
+      <c r="F241" s="0" t="inlineStr"/>
+      <c r="G241" s="0" t="inlineStr"/>
+      <c r="H241" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Eric Cole
+Founder &amp; CEO of @secureanchor
+Cybersecurity Expert
+America’s Cyber Czar
+Keynote Speaker... 
+more
+linktr.ee/drericcole</t>
+        </is>
+      </c>
+      <c r="I241" s="0" t="inlineStr">
+        <is>
+          <t>drericcole
+Follow
+Message
+4,531 posts
+148K followers
+915 following
+Dr. Eric Cole
+Founder &amp; CEO of @secureanchor
+Cybersecurity Expert
+America’s Cyber Czar
+Keynote Speaker... 
+more
+linktr.ee/drericcole
+My Life
+Traveling
+Backstage
+Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>Danny Thompson</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dthompsondev/</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>5755</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="F242" s="0" t="inlineStr"/>
+      <c r="G242" s="0" t="inlineStr">
+        <is>
+          <t>open.spotify.com/episode/3cTXOv8Sr4LiTeXxDK0NiI?si=4Dwr46gaRRShxtFxSMVKyg</t>
+        </is>
+      </c>
+      <c r="H242" s="0" t="inlineStr">
+        <is>
+          <t>Danny Thompson
+dthompsondev
+Director Of Technology | Software Engineer | International Speaker
+open.spotify.com/episode/3cTXOv8Sr4LiTeXxDK0NiI?si=4Dwr46gaRRShxtFxSMVKyg and 1 more</t>
+        </is>
+      </c>
+      <c r="I242" s="0" t="inlineStr">
+        <is>
+          <t>dthompsondev
+Follow
+Message
+1,155 posts
+5,755 followers
+588 following
+Danny Thompson
+dthompsondev
+Director Of Technology | Software Engineer | International Speaker
+open.spotify.com/episode/3cTXOv8Sr4LiTeXxDK0NiI?si=4Dwr46gaRRShxtFxSMVKyg and 1 more
+RenderATL 2023
+kind words
+positive impact
+Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>Louis Gleeson</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/aigleeson/</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>861</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>338</v>
+      </c>
+      <c r="F243" s="0" t="inlineStr"/>
+      <c r="G243" s="0" t="inlineStr"/>
+      <c r="H243" s="0" t="inlineStr">
+        <is>
+          <t>Louis Gleeson
+aigleeson
+‣ Founder of @sentientagency (25+ million follower network)
+🇦🇺</t>
+        </is>
+      </c>
+      <c r="I243" s="0" t="inlineStr">
+        <is>
+          <t>aigleeson
+Follow
+Message
+861 posts
+38.4K followers
+338 following
+Louis Gleeson
+aigleeson
+‣ Founder of @sentientagency (25+ million follower network)
+🇦🇺
+Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>Cole Gordon</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/colethomasgordon/</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>3026</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>517000</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="F244" s="0" t="inlineStr"/>
+      <c r="G244" s="0" t="inlineStr">
+        <is>
+          <t>Closers.io
+ bit.ly/Closersio</t>
+        </is>
+      </c>
+      <c r="H244" s="0" t="inlineStr">
+        <is>
+          <t>Cole Gordon
+Founder of Closers.io
+$0 &gt; $30M/yr in 26 Months
+👇 Click below if you want my personal help growing your business OR... 
+more
+bit.ly/Closersio</t>
+        </is>
+      </c>
+      <c r="I244" s="0" t="inlineStr">
+        <is>
+          <t>colethomasgordon
+Follow
+Message
+3,026 posts
+517K followers
+518 following
+Cole Gordon
+Founder of Closers.io
+$0 &gt; $30M/yr in 26 Months
+👇 Click below if you want my personal help growing your business OR... 
+more
+bit.ly/Closersio</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>Cam Easton</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cam.eastonn/</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>1687</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="F245" s="0" t="inlineStr"/>
+      <c r="G245" s="0" t="inlineStr">
+        <is>
+          <t>boostwin.ai</t>
+        </is>
+      </c>
+      <c r="H245" s="0" t="inlineStr">
+        <is>
+          <t>Cam Easton
+Proverbs 13:12
+Miami 📍
+Founder: @boostwin.ai
+90’s RnB Enthusiast
+stan.store/boostwinai</t>
+        </is>
+      </c>
+      <c r="I245" s="0" t="inlineStr">
+        <is>
+          <t>cam.eastonn
+Follow
+10 posts
+1,687 followers
+386 following
+Cam Easton
+Proverbs 13:12
+Miami 📍
+Founder: @boostwin.ai
+90’s RnB Enthusiast
+stan.store/boostwinai</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>Anisha Nandi</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/anisha_nandi/</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>912</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F246" s="0" t="inlineStr"/>
+      <c r="G246" s="0" t="inlineStr">
+        <is>
+          <t>Verbate.io
+ verbate.io</t>
+        </is>
+      </c>
+      <c r="H246" s="0" t="inlineStr">
+        <is>
+          <t>Anisha Nandi
+Founder of Verbate.io | NY 🌃 U of M〽️ | Trinidadian &amp; Indian🇹🇹🇮🇳 |
+Prev: @nbcnews @cbsnews
+verbate.io</t>
+        </is>
+      </c>
+      <c r="I246" s="0" t="inlineStr">
+        <is>
+          <t>anisha_nandi
+Follow
+200 posts
+912 followers
+1,051 following
+Anisha Nandi
+Founder of Verbate.io | NY 🌃 U of M〽️ | Trinidadian &amp; Indian🇹🇹🇮🇳 |
+Prev: @nbcnews @cbsnews
+verbate.io</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>Nik Shevchenko</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kodjima33/</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>5335</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="F247" s="0" t="inlineStr"/>
+      <c r="G247" s="0" t="inlineStr">
+        <is>
+          <t>omi.me</t>
+        </is>
+      </c>
+      <c r="H247" s="0" t="inlineStr">
+        <is>
+          <t>Nik Shevchenko
+kodjima33
+🩸Peter Thiel’s blood boy
+🧠 founder @omidotme
+📍San Francisco | immigrant
+omi.me and 1 more</t>
+        </is>
+      </c>
+      <c r="I247" s="0" t="inlineStr">
+        <is>
+          <t>kodjima33
+Follow
+Message
+53 posts
+5,335 followers
+510 following
+Nik Shevchenko
+kodjima33
+🩸Peter Thiel’s blood boy
+🧠 founder @omidotme
+📍San Francisco | immigrant
+omi.me and 1 more
+Woods surviving
+Don’t deport me
+Skydiving
+Work
+Burning man
+Yosemite</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>Michael Gruen</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/michaelgruen/</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="F248" s="0" t="inlineStr"/>
+      <c r="G248" s="0" t="inlineStr">
+        <is>
+          <t>link.me/michaelgruen</t>
+        </is>
+      </c>
+      <c r="H248" s="0" t="inlineStr">
+        <is>
+          <t>Michael Gruen
+he/him/his
+michaelgruen
+Founder of Frax Finance (DeFi), CrossCheck Studios, @animalcapitalfund (VC fund), @talentxent, @swayla house, @ani... 
+more
+link.me/michaelgruen</t>
+        </is>
+      </c>
+      <c r="I248" s="0" t="inlineStr">
+        <is>
+          <t>michaelgruen
+Follow
+102 posts
+74K followers
+6,900 following
+Michael Gruen
+he/him/his
+michaelgruen
+Founder of Frax Finance (DeFi), CrossCheck Studios, @animalcapitalfund (VC fund), @talentxent, @swayla house, @ani... 
+more
+link.me/michaelgruen
+BusinessInsider</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>Chris Hall</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chrishallnyc/</t>
+        </is>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>666</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>25100</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="F249" s="0" t="inlineStr"/>
+      <c r="G249" s="0" t="inlineStr">
+        <is>
+          <t>hallmedia.co</t>
+        </is>
+      </c>
+      <c r="H249" s="0" t="inlineStr">
+        <is>
+          <t>Chris Hall
+Entrepreneur
+📍SF — CEO of Hall Media — Boutique Production Studio for top Investors and Executives.
+hallmedia.co</t>
+        </is>
+      </c>
+      <c r="I249" s="0" t="inlineStr">
+        <is>
+          <t>chrishallnyc
+Follow
+Message
+666 posts
+25.1K followers
+174 following
+Chris Hall
+Entrepreneur
+📍SF — CEO of Hall Media — Boutique Production Studio for top Investors and Executives.
+hallmedia.co</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>Songe</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/songelaron/</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>2261</v>
+      </c>
+      <c r="F250" s="0" t="inlineStr"/>
+      <c r="G250" s="0" t="inlineStr">
+        <is>
+          <t>vote.webbyawards.com/PublicVoting%23/2025/apps-software/general-apps/services-utilities</t>
+        </is>
+      </c>
+      <c r="H250" s="0" t="inlineStr">
+        <is>
+          <t>Songe
+songelaron
+Entrepreneur
+CEO @getsquire
+vote.webbyawards.com/PublicVoting%23/2025/apps-software/general-apps/services-utilities</t>
+        </is>
+      </c>
+      <c r="I250" s="0" t="inlineStr">
+        <is>
+          <t>songelaron
+Follow
+Message
+74 posts
+11.9K followers
+2,261 following
+Songe
+songelaron
+Entrepreneur
+CEO @getsquire
+vote.webbyawards.com/PublicVoting%23/2025/apps-software/general-apps/services-utilities
+Essence</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>Ryan Hoover</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rrhoover/</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>1127</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>6381</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>740</v>
+      </c>
+      <c r="F251" s="0" t="inlineStr"/>
+      <c r="G251" s="0" t="inlineStr">
+        <is>
+          <t>ryanhoover.me</t>
+        </is>
+      </c>
+      <c r="H251" s="0" t="inlineStr">
+        <is>
+          <t>Ryan Hoover
+rrhoover
+Founder of Product Hunt. Weekend Fund Investor. 😸☀️
+ryanhoover.me</t>
+        </is>
+      </c>
+      <c r="I251" s="0" t="inlineStr">
+        <is>
+          <t>rrhoover
+Follow
+1,127 posts
+6,381 followers
+740 following
+Ryan Hoover
+rrhoover
+Founder of Product Hunt. Weekend Fund Investor. 😸☀️
+ryanhoover.me</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>Devinder Maheshwari</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/devindermaheshwari/</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>2672</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>726</v>
+      </c>
+      <c r="F252" s="0" t="inlineStr"/>
+      <c r="G252" s="0" t="inlineStr"/>
+      <c r="H252" s="0" t="inlineStr">
+        <is>
+          <t>Devinder Maheshwari
+devindermaheshwari
+Entrepreneur
+We Fly High, No Lie, You Know This!
+Founder @beebomco</t>
+        </is>
+      </c>
+      <c r="I252" s="0" t="inlineStr">
+        <is>
+          <t>devindermaheshwari
+Follow
+Message
+261 posts
+2,672 followers
+726 following
+Devinder Maheshwari
+devindermaheshwari
+Entrepreneur
+We Fly High, No Lie, You Know This!
+Founder @beebomco
+Ad Shoot
+Pablo 🐶
+London
+2025
+Turkey 🇹🇷
+MWC 2024
+Forbes Cover
+Kabir
+Surprises
+29
+Rupesh’s weddin
+Birthdays
+London</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Rotar</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/zoneoftech/</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>1486</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>107000</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="F253" s="0" t="inlineStr"/>
+      <c r="G253" s="0" t="inlineStr">
+        <is>
+          <t>bit.ly/ZONEofTECH_xboom</t>
+        </is>
+      </c>
+      <c r="H253" s="0" t="inlineStr">
+        <is>
+          <t>Daniel Rotar
+zoneoftech
+Digital creator
+Obsessed with Technology | Founder of @ZONEofTECH &amp; @WallpaperZapp | 1,500,000+ Followers
+bit.ly/ZONEofTECH_xboom and 4 more</t>
+        </is>
+      </c>
+      <c r="I253" s="0" t="inlineStr">
+        <is>
+          <t>zoneoftech
+Follow
+Message
+1,486 posts
+107K followers
+574 following
+Daniel Rotar
+zoneoftech
+Digital creator
+Obsessed with Technology | Founder of @ZONEofTECH &amp; @WallpaperZapp | 1,500,000+ Followers
+bit.ly/ZONEofTECH_xboom and 4 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>geoff</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/geoffreywoo/</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>306000</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>775</v>
+      </c>
+      <c r="F254" s="0" t="inlineStr"/>
+      <c r="G254" s="0" t="inlineStr">
+        <is>
+          <t>archive.com
+ youtube.com/@geoffreywooshow</t>
+        </is>
+      </c>
+      <c r="H254" s="0" t="inlineStr">
+        <is>
+          <t>geoff
+founder @ketone @getw archive.com
+founder/gp @antifund
+🇺🇸
+youtube.com/@geoffreywooshow and 1 more</t>
+        </is>
+      </c>
+      <c r="I254" s="0" t="inlineStr">
+        <is>
+          <t>geoffreywoo
+Follow
+Message
+346 posts
+306K followers
+775 following
+geoff
+founder @ketone @getw archive.com
+founder/gp @antifund
+🇺🇸
+youtube.com/@geoffreywooshow and 1 more
+Anti Fund</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>Aaron LaBerge</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/laberge/</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>716</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>694</v>
+      </c>
+      <c r="F255" s="0" t="inlineStr"/>
+      <c r="G255" s="0" t="inlineStr"/>
+      <c r="H255" s="0" t="inlineStr">
+        <is>
+          <t>Aaron LaBerge
+CTO @ PENN Entertainment #gamecock
+laber.ge</t>
+        </is>
+      </c>
+      <c r="I255" s="0" t="inlineStr">
+        <is>
+          <t>laberge
+Follow
+716 posts
+320 followers
+694 following
+Aaron LaBerge
+CTO @ PENN Entertainment #gamecock
+laber.ge</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>Josh Felser</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/joshmedia/</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>2111</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>1469</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="F256" s="0" t="inlineStr"/>
+      <c r="G256" s="0" t="inlineStr">
+        <is>
+          <t>www.twitter.com</t>
+        </is>
+      </c>
+      <c r="H256" s="0" t="inlineStr">
+        <is>
+          <t>Josh Felser
+joshmedia
+Climactic Founder
+www.twitter.com</t>
+        </is>
+      </c>
+      <c r="I256" s="0" t="inlineStr">
+        <is>
+          <t>joshmedia
+Follow
+2,111 posts
+1,469 followers
+356 following
+Josh Felser
+joshmedia
+Climactic Founder
+www.twitter.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>Amit Khatri</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/itsamitkhatri/</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>2765</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>868</v>
+      </c>
+      <c r="F257" s="0" t="inlineStr"/>
+      <c r="G257" s="0" t="inlineStr"/>
+      <c r="H257" s="0" t="inlineStr">
+        <is>
+          <t>Amit Khatri
+itsamitkhatri
+Entrepreneur
+Co-founder @go_noise
+Building smart tech for everyday life.
+linktr.ee/itsamitkhatri</t>
+        </is>
+      </c>
+      <c r="I257" s="0" t="inlineStr">
+        <is>
+          <t>itsamitkhatri
+Follow
+Message
+92 posts
+2,765 followers
+868 following
+Amit Khatri
+itsamitkhatri
+Entrepreneur
+Co-founder @go_noise
+Building smart tech for everyday life.
+linktr.ee/itsamitkhatri</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>Rei Leigh</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/missreiatx/</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="F258" s="0" t="inlineStr"/>
+      <c r="G258" s="0" t="inlineStr"/>
+      <c r="H258" s="0" t="inlineStr">
+        <is>
+          <t>Rei Leigh
+missreiatx
+Entrepreneur in ATX📍
+Business, Fashion, Wellness✨
+Chase your wildest dreams 🐘 ⁣
+Founder &amp; CEO of @spasway |... 
+more
+Rei Leigh Harmer</t>
+        </is>
+      </c>
+      <c r="I258" s="0" t="inlineStr">
+        <is>
+          <t>missreiatx
+Follow
+304 posts
+14K followers
+2,334 following
+Rei Leigh
+missreiatx
+Entrepreneur in ATX📍
+Business, Fashion, Wellness✨
+Chase your wildest dreams 🐘 ⁣
+Founder &amp; CEO of @spasway |... 
+more
+Rei Leigh Harmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>Aarthy Rao</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/aarthyrao/</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>882</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>1321</v>
+      </c>
+      <c r="F259" s="0" t="inlineStr"/>
+      <c r="G259" s="0" t="inlineStr"/>
+      <c r="H259" s="0" t="inlineStr">
+        <is>
+          <t>Aarthy Rao
+Living in flow state
+Co-Founder @cidfortherescue
+Food Stylist @missblueapron</t>
+        </is>
+      </c>
+      <c r="I259" s="0" t="inlineStr">
+        <is>
+          <t>aarthyrao
+Follow
+882 posts
+1,564 followers
+1,321 following
+Aarthy Rao
+Living in flow state
+Co-Founder @cidfortherescue
+Food Stylist @missblueapron</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>Dr.Abhinav Aurange</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_thedoctopreneur_/</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="F260" s="0" t="inlineStr"/>
+      <c r="G260" s="0" t="inlineStr"/>
+      <c r="H260" s="0" t="inlineStr">
+        <is>
+          <t>Dr.Abhinav Aurange
+MBBS, AIIMS Delhi 2024
+Founder and CEO @_care._.diabetics_
+On a less-traveled path — from medicine to startups... 
+more</t>
+        </is>
+      </c>
+      <c r="I260" s="0" t="inlineStr">
+        <is>
+          <t>_thedoctopreneur_
+Follow
+21 posts
+361 followers
+708 following
+Dr.Abhinav Aurange
+MBBS, AIIMS Delhi 2024
+Founder and CEO @_care._.diabetics_
+On a less-traveled path — from medicine to startups... 
+more</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>Amrapali Gan</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/amrapali_gan/</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>42600</v>
+      </c>
+      <c r="E261" s="0" t="n">
+        <v>1837</v>
+      </c>
+      <c r="F261" s="0" t="inlineStr"/>
+      <c r="G261" s="0" t="inlineStr">
+        <is>
+          <t>www.flaunt.com/post/Amrapali-Gan</t>
+        </is>
+      </c>
+      <c r="H261" s="0" t="inlineStr">
+        <is>
+          <t>Amrapali Gan
+founder @hoxton_projects, frmr CEO OnlyFans
+📍nyc
+www.flaunt.com/post/Amrapali-Gan and 1 more</t>
+        </is>
+      </c>
+      <c r="I261" s="0" t="inlineStr">
+        <is>
+          <t>amrapali_gan
+Follow
+Message
+51 posts
+42.6K followers
+1,837 following
+Amrapali Gan
+founder @hoxton_projects, frmr CEO OnlyFans
+📍nyc
+www.flaunt.com/post/Amrapali-Gan and 1 more
+🎵🇪🇸
+✨NYC
+Casa Bonita✨
+MIA 🌴
+Hoxton ✨
+LDN 🇬🇧
+LA 🌴
+Trini 🇹🇹
+LDN🇬🇧
+Valencia🇪🇸
+🇬🇷⚔️✨
+LDN ✨
+🦊 Foxx✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>Edward Craven</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/stake.eddie/</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>30500</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F262" s="0" t="inlineStr"/>
+      <c r="G262" s="0" t="inlineStr">
+        <is>
+          <t>stake.com</t>
+        </is>
+      </c>
+      <c r="H262" s="0" t="inlineStr">
+        <is>
+          <t>Edward Craven
+stake.eddie
+Co-Founder @stake, @kickstreaming
+stake.com</t>
+        </is>
+      </c>
+      <c r="I262" s="0" t="inlineStr">
+        <is>
+          <t>stake.eddie
+Follow
+10 posts
+30.5K followers
+15 following
+Edward Craven
+stake.eddie
+Co-Founder @stake, @kickstreaming
+stake.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>Michael Mignano</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mignano/</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>492</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>488</v>
+      </c>
+      <c r="F263" s="0" t="inlineStr"/>
+      <c r="G263" s="0" t="inlineStr">
+        <is>
+          <t>mignano.co</t>
+        </is>
+      </c>
+      <c r="H263" s="0" t="inlineStr">
+        <is>
+          <t>Michael Mignano
+mignano
+Partner / VC: Lightspeed
+Host: Generative Now (new AI podcast)
+Co-Founder: Anchor (acq. by Spotify)
+mignano.co and 1 more</t>
+        </is>
+      </c>
+      <c r="I263" s="0" t="inlineStr">
+        <is>
+          <t>mignano
+Follow
+492 posts
+2,024 followers
+488 following
+Michael Mignano
+mignano
+Partner / VC: Lightspeed
+Host: Generative Now (new AI podcast)
+Co-Founder: Anchor (acq. by Spotify)
+mignano.co and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>Jessica Banks</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rockpaperrobot/</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>14600</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="F264" s="0" t="inlineStr"/>
+      <c r="G264" s="0" t="inlineStr">
+        <is>
+          <t>www.rockpaperrobot.com</t>
+        </is>
+      </c>
+      <c r="H264" s="0" t="inlineStr">
+        <is>
+          <t>Jessica Banks
+rockpaperrobot
+Science, Technology &amp; Engineering
+Founder, RockPaperRobot &amp; The Practice of Curiosity
+Emmy-win host, Netflix "Hack My Home"
+MIT roboticist, Inventor,... 
+more
+www.rockpaperrobot.com and 3 more</t>
+        </is>
+      </c>
+      <c r="I264" s="0" t="inlineStr">
+        <is>
+          <t>rockpaperrobot
+Follow
+Message
+175 posts
+14.6K followers
+1,989 following
+Jessica Banks
+rockpaperrobot
+Science, Technology &amp; Engineering
+Founder, RockPaperRobot &amp; The Practice of Curiosity
+Emmy-win host, Netflix "Hack My Home"
+MIT roboticist, Inventor,... 
+more
+www.rockpaperrobot.com and 3 more
+RockPaperRobot</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>Hannan Malik</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/hannwn/</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>3920</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>1951</v>
+      </c>
+      <c r="F265" s="0" t="inlineStr"/>
+      <c r="G265" s="0" t="inlineStr">
+        <is>
+          <t>www.hannwn.com</t>
+        </is>
+      </c>
+      <c r="H265" s="0" t="inlineStr">
+        <is>
+          <t>Hannan Malik
+hannwn
+🛠️ Building Creator Businesses
+✨ Helping You Find Purpose
+👨🏽‍💻 Founder @nwngroup @tbocreators
+Sign up to my weekly new... 
+more
+www.hannwn.com</t>
+        </is>
+      </c>
+      <c r="I265" s="0" t="inlineStr">
+        <is>
+          <t>hannwn
+Follow
+Message
+217 posts
+3,920 followers
+1,951 following
+Hannan Malik
+hannwn
+🛠️ Building Creator Businesses
+✨ Helping You Find Purpose
+👨🏽‍💻 Founder @nwngroup @tbocreators
+Sign up to my weekly new... 
+more
+www.hannwn.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>🇭🇹Howard R. Jean- 🌎 Partnerships</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/howardrjean/</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>996</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>6863</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>3380</v>
+      </c>
+      <c r="F266" s="0" t="inlineStr"/>
+      <c r="G266" s="0" t="inlineStr"/>
+      <c r="H266" s="0" t="inlineStr">
+        <is>
+          <t>🇭🇹Howard R. Jean- 🌎 Partnerships
+howardrjean
+Entrepreneur
+Founder, @bmaweb3 - Al + VR Workforce Dev • Tech Event Producer • Startup Advisor • Thought Leader • Power Connector •... 
+more
+linktr.ee/Howardrjean</t>
+        </is>
+      </c>
+      <c r="I266" s="0" t="inlineStr">
+        <is>
+          <t>howardrjean
+Follow
+Message
+996 posts
+6,863 followers
+3,380 following
+🇭🇹Howard R. Jean- 🌎 Partnerships
+howardrjean
+Entrepreneur
+Founder, @bmaweb3 - Al + VR Workforce Dev • Tech Event Producer • Startup Advisor • Thought Leader • Power Connector •... 
+more
+linktr.ee/Howardrjean</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>Alexa Turnage</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alexa.turnage/</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>833</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>2811</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>1841</v>
+      </c>
+      <c r="F267" s="0" t="inlineStr"/>
+      <c r="G267" s="0" t="inlineStr">
+        <is>
+          <t>www.blacktechsaturdays.com</t>
+        </is>
+      </c>
+      <c r="H267" s="0" t="inlineStr">
+        <is>
+          <t>Alexa Turnage
+I 💗 Jesus | Johnnie’s Wife ❤️ | Community Builder | Co-founder of @BlackTechSaturdays 🚀 | Bridging the gap &amp; creating... 
+more
+www.blacktechsaturdays.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I267" s="0" t="inlineStr">
+        <is>
+          <t>alexa.turnage
+Follow
+Message
+833 posts
+2,811 followers
+1,841 following
+Alexa Turnage
+I 💗 Jesus | Johnnie’s Wife ❤️ | Community Builder | Co-founder of @BlackTechSaturdays 🚀 | Bridging the gap &amp; creating... 
+more
+www.blacktechsaturdays.com and 1 more
+Detroit Policy
+BTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>Kobi Wu</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kobiwu/</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>1415</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>2159</v>
+      </c>
+      <c r="F268" s="0" t="inlineStr"/>
+      <c r="G268" s="0" t="inlineStr">
+        <is>
+          <t>www.kobiwu.com</t>
+        </is>
+      </c>
+      <c r="H268" s="0" t="inlineStr">
+        <is>
+          <t>Kobi Wu
+kobiwu
+CEO + Founder @cache_ai
+www.kobiwu.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I268" s="0" t="inlineStr">
+        <is>
+          <t>kobiwu
+Follow
+Message
+72 posts
+1,415 followers
+2,159 following
+Kobi Wu
+kobiwu
+CEO + Founder @cache_ai
+www.kobiwu.com and 1 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>Askar Musakunov</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/askarmusakunov/</t>
+        </is>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>7342</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="F269" s="0" t="inlineStr"/>
+      <c r="G269" s="0" t="inlineStr">
+        <is>
+          <t>wedevx.co</t>
+        </is>
+      </c>
+      <c r="H269" s="0" t="inlineStr">
+        <is>
+          <t>Askar Musakunov
+askarmusakunov
+🏗 CEO at @wedevx
+📱 Ex Software Engineer at @apple
+🔝 Don't be good, be great my friend!
+📍 Silicon... 
+more
+wedevx.co</t>
+        </is>
+      </c>
+      <c r="I269" s="0" t="inlineStr">
+        <is>
+          <t>askarmusakunov
+Follow
+Message
+262 posts
+7,342 followers
+243 following
+Askar Musakunov
+askarmusakunov
+🏗 CEO at @wedevx
+📱 Ex Software Engineer at @apple
+🔝 Don't be good, be great my friend!
+📍 Silicon... 
+more
+wedevx.co
+Surf
+Bike
+Bali
+Job offers
+Learn to code
+10X
+Mexico
+Hawaii
+Wedding</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>Canvas Marketing Group LLC</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/canvasmktg/</t>
+        </is>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>5354</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F270" s="0" t="inlineStr">
+        <is>
+          <t>Founder@Canvasmktg.com</t>
+        </is>
+      </c>
+      <c r="G270" s="0" t="inlineStr">
+        <is>
+          <t>Canvasmktg.com
+ www.whatnot.com/s/moAH65bG</t>
+        </is>
+      </c>
+      <c r="H270" s="0" t="inlineStr">
+        <is>
+          <t>Canvas Marketing Group LLC
+Entrepreneur
+Booking and Business Inquiries
+📩 Founder@Canvasmktg.com
+www.whatnot.com/s/moAH65bG and 5 more</t>
+        </is>
+      </c>
+      <c r="I270" s="0" t="inlineStr">
+        <is>
+          <t>canvasmktg
+Follow
+Message
+203 posts
+5,354 followers
+1,715 following
+Canvas Marketing Group LLC
+Entrepreneur
+Booking and Business Inquiries
+📩 Founder@Canvasmktg.com
+www.whatnot.com/s/moAH65bG and 5 more
+⭐️
+⭐️
+⭐️
+⭐️
+⭐️</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>Youssef Ahres</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/youssefahres/</t>
+        </is>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>975</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>853</v>
+      </c>
+      <c r="F271" s="0" t="inlineStr"/>
+      <c r="G271" s="0" t="inlineStr"/>
+      <c r="H271" s="0" t="inlineStr">
+        <is>
+          <t>Youssef Ahres
+youssefahres
+Co-Founder @get.flagship. Ex-Data Science Director @instagram</t>
+        </is>
+      </c>
+      <c r="I271" s="0" t="inlineStr">
+        <is>
+          <t>youssefahres
+Follow
+Message
+11 posts
+975 followers
+853 following
+Youssef Ahres
+youssefahres
+Co-Founder @get.flagship. Ex-Data Science Director @instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>Mike McCue</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mmccue/</t>
+        </is>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>1561</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F272" s="0" t="inlineStr"/>
+      <c r="G272" s="0" t="inlineStr"/>
+      <c r="H272" s="0" t="inlineStr">
+        <is>
+          <t>Mike McCue
+mmccue
+CEO, co-founder @flipboard</t>
+        </is>
+      </c>
+      <c r="I272" s="0" t="inlineStr">
+        <is>
+          <t>mmccue
+Follow
+75 posts
+1,561 followers
+62 following
+Mike McCue
+mmccue
+CEO, co-founder @flipboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>Arjun Vaidya</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/abvaidya/</t>
+        </is>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>754</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>217000</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>3588</v>
+      </c>
+      <c r="F273" s="0" t="inlineStr"/>
+      <c r="G273" s="0" t="inlineStr"/>
+      <c r="H273" s="0" t="inlineStr">
+        <is>
+          <t>Arjun Vaidya
+Entrepreneur
+Founder @dr.vaidyas (acquired)I Early Stage VC @V3Ventures I D2C Enthusiast I @forbesunder30 I BW 40U40 I... 
+more
+forms.gle/14SSUQgG9htHNnwbA and 1 more</t>
+        </is>
+      </c>
+      <c r="I273" s="0" t="inlineStr">
+        <is>
+          <t>abvaidya
+Follow
+Message
+754 posts
+217K followers
+3,588 following
+Arjun Vaidya
+Entrepreneur
+Founder @dr.vaidyas (acquired)I Early Stage VC @V3Ventures I D2C Enthusiast I @forbesunder30 I BW 40U40 I... 
+more
+forms.gle/14SSUQgG9htHNnwbA and 1 more
+‘24
+‘23
+‘22
+‘21
+‘20
+‘19
+‘18</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>Jeroy Joseph</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jeroyjoseph/</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>567</v>
+      </c>
+      <c r="F274" s="0" t="inlineStr"/>
+      <c r="G274" s="0" t="inlineStr">
+        <is>
+          <t>www.behance.net/jeroy</t>
+        </is>
+      </c>
+      <c r="H274" s="0" t="inlineStr">
+        <is>
+          <t>Jeroy Joseph
+Co-Founder | Director @eunoians
+www.behance.net/jeroy</t>
+        </is>
+      </c>
+      <c r="I274" s="0" t="inlineStr">
+        <is>
+          <t>jeroyjoseph
+Follow
+Message
+21 posts
+606 followers
+567 following
+Jeroy Joseph
+Co-Founder | Director @eunoians
+www.behance.net/jeroy
+Eunoians
+Xmas
+Day out
+Agif 2024
+Eunaguration
+Home
+SJCC
+10th year✨
+Motion Poster
+BTS
+Signature Film
+Title Animation
+Trailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>Fabian Doerig</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fabiandoerig/</t>
+        </is>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>1401</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>33900</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>1221</v>
+      </c>
+      <c r="F275" s="0" t="inlineStr"/>
+      <c r="G275" s="0" t="inlineStr">
+        <is>
+          <t>rideonsra.com</t>
+        </is>
+      </c>
+      <c r="H275" s="0" t="inlineStr">
+        <is>
+          <t>Fabian Doerig
+Entrepreneur
+Founder &amp; CEO @rideonsra 🌍 ONSRA®™
+🛹 #skateboarder
+YouTube: Fabi / ONSRA
+TikTok: fabiandoerig
+rideonsra.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I275" s="0" t="inlineStr">
+        <is>
+          <t>fabiandoerig
+Follow
+Message
+1,401 posts
+33.9K followers
+1,221 following
+Fabian Doerig
+Entrepreneur
+Founder &amp; CEO @rideonsra 🌍 ONSRA®™
+🛹 #skateboarder
+YouTube: Fabi / ONSRA
+TikTok: fabiandoerig
+rideonsra.com and 1 more
+GYM
+VEGAS 23
+VELAR
+CHINA 🇨🇳
+SHOWROOM
+ONSRA
+Together
+FormulaE</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>Mitu Khandaker</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mitu/</t>
+        </is>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>946</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>3830</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>3429</v>
+      </c>
+      <c r="F276" s="0" t="inlineStr"/>
+      <c r="G276" s="0" t="inlineStr">
+        <is>
+          <t>www.timeforkids.com/your-hot-job/articles/5q-game-developer</t>
+        </is>
+      </c>
+      <c r="H276" s="0" t="inlineStr">
+        <is>
+          <t>Mitu Khandaker
+she/her/hers
+mitu
+🇧🇩 Brit in NYC • 👸🏾 Game Designer &amp; Engineer • Prof @NYUGameCenter • Frmr CEO @GlowUp.Games • 👩🏾‍🎓 Dr of VR •... 
+more
+www.timeforkids.com/your-hot-job/articles/5q-game-developer and 1 more</t>
+        </is>
+      </c>
+      <c r="I276" s="0" t="inlineStr">
+        <is>
+          <t>mitu
+Follow
+946 posts
+3,830 followers
+3,429 following
+Mitu Khandaker
+she/her/hers
+mitu
+🇧🇩 Brit in NYC • 👸🏾 Game Designer &amp; Engineer • Prof @NYUGameCenter • Frmr CEO @GlowUp.Games • 👩🏾‍🎓 Dr of VR •... 
+more
+www.timeforkids.com/your-hot-job/articles/5q-game-developer and 1 more
+The Acolyte
+PROJECT RUNWAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>Josephine Miller</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/josephinemiller/</t>
+        </is>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>27900</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>3148</v>
+      </c>
+      <c r="F277" s="0" t="inlineStr"/>
+      <c r="G277" s="0" t="inlineStr"/>
+      <c r="H277" s="0" t="inlineStr">
+        <is>
+          <t>Josephine Miller
+she/her
+josephinemiller
+I explore XR, 3D, fashion + AR
+Creative Tech Director based in London
+Blending tech &amp; art to inspire you! 🧚🏻... 
+more
+linktr.ee/josephine_miller</t>
+        </is>
+      </c>
+      <c r="I277" s="0" t="inlineStr">
+        <is>
+          <t>josephinemiller
+Follow
+Message
+146 posts
+27.9K followers
+3,148 following
+Josephine Miller
+she/her
+josephinemiller
+I explore XR, 3D, fashion + AR
+Creative Tech Director based in London
+Blending tech &amp; art to inspire you! 🧚🏻... 
+more
+linktr.ee/josephine_miller
+IRL
+BBC Glow Up AR
+Meta
+Features
+Q&amp;A
+Threads
+Cannes Lions
+@design
+3D
+LDN
+Metaverse
+Meta Fashion
+👾</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>Elizabeth Weil</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/elizabeth/</t>
+        </is>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>989</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>37700</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F278" s="0" t="inlineStr"/>
+      <c r="G278" s="0" t="inlineStr">
+        <is>
+          <t>scribble.vc</t>
+        </is>
+      </c>
+      <c r="H278" s="0" t="inlineStr">
+        <is>
+          <t>Elizabeth Weil
+elizabeth
+Founder, Scribble Ventures. @scribblevc Letterpress printer (@paperwheel). Ultra runner. Mom of 3. Twitter &amp; a16z alum... 
+more
+scribble.vc and 2 more</t>
+        </is>
+      </c>
+      <c r="I278" s="0" t="inlineStr">
+        <is>
+          <t>elizabeth
+Follow
+989 posts
+37.7K followers
+1,726 following
+Elizabeth Weil
+elizabeth
+Founder, Scribble Ventures. @scribblevc Letterpress printer (@paperwheel). Ultra runner. Mom of 3. Twitter &amp; a16z alum... 
+more
+scribble.vc and 2 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>Mitch Diraimondo</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mitch_diraimondo/</t>
+        </is>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>19400</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>2118</v>
+      </c>
+      <c r="F279" s="0" t="inlineStr"/>
+      <c r="G279" s="0" t="inlineStr">
+        <is>
+          <t>www.steelwavellc.com</t>
+        </is>
+      </c>
+      <c r="H279" s="0" t="inlineStr">
+        <is>
+          <t>Mitch Diraimondo
+mitch_diraimondo
+Founder @steelwave_digital | R❤️
+www.steelwavellc.com</t>
+        </is>
+      </c>
+      <c r="I279" s="0" t="inlineStr">
+        <is>
+          <t>mitch_diraimondo
+Follow
+63 posts
+19.4K followers
+2,118 following
+Mitch Diraimondo
+mitch_diraimondo
+Founder @steelwave_digital | R❤️
+www.steelwavellc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>Pinar Seyhan Demirdag</t>
+        </is>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/pinarseyhandemirdag/</t>
+        </is>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>916</v>
+      </c>
+      <c r="F280" s="0" t="inlineStr"/>
+      <c r="G280" s="0" t="inlineStr"/>
+      <c r="H280" s="0" t="inlineStr">
+        <is>
+          <t>Pinar Seyhan Demirdag
+Co-Founder &amp; CEO @cuebric
+“Arguably, Pinar Seyhan Demirdag knows more about the creative potential of AI than anyone on... 
+more
+linktr.ee/pinarseyhandemirdag</t>
+        </is>
+      </c>
+      <c r="I280" s="0" t="inlineStr">
+        <is>
+          <t>pinarseyhandemirdag
+Follow
+Message
+450 posts
+17.7K followers
+916 following
+Pinar Seyhan Demirdag
+Co-Founder &amp; CEO @cuebric
+“Arguably, Pinar Seyhan Demirdag knows more about the creative potential of AI than anyone on... 
+more
+linktr.ee/pinarseyhandemirdag
+Life 💕
+Lectures
+Cuebric
+AI Course
+Press
+Articles
+SevgiSohbetleri</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>Itai Tsiddon</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/itaitsi/</t>
+        </is>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="F281" s="0" t="inlineStr"/>
+      <c r="G281" s="0" t="inlineStr"/>
+      <c r="H281" s="0" t="inlineStr">
+        <is>
+          <t>Itai Tsiddon
+Co-founder @Lightricks. Currently enjoying life.</t>
+        </is>
+      </c>
+      <c r="I281" s="0" t="inlineStr">
+        <is>
+          <t>itaitsi
+Follow
+26 posts
+409 followers
+222 following
+Itai Tsiddon
+Co-founder @Lightricks. Currently enjoying life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>Demetria Gallagher</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/throne_of_demetria/</t>
+        </is>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>1815</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>3119</v>
+      </c>
+      <c r="F282" s="0" t="inlineStr"/>
+      <c r="G282" s="0" t="inlineStr"/>
+      <c r="H282" s="0" t="inlineStr">
+        <is>
+          <t>Demetria Gallagher
+throne_of_demetria
+➖Chasing Dreams &amp; Business Plans. Co-Founder @thejamiigroup ➖Chi-Town Guru ✊🏽Obama44 ➖Master of God's Plan
+linktr.ee/demetriag</t>
+        </is>
+      </c>
+      <c r="I282" s="0" t="inlineStr">
+        <is>
+          <t>throne_of_demetria
+Follow
+217 posts
+1,815 followers
+3,119 following
+Demetria Gallagher
+throne_of_demetria
+➖Chasing Dreams &amp; Business Plans. Co-Founder @thejamiigroup ➖Chi-Town Guru ✊🏽Obama44 ➖Master of God's Plan
+linktr.ee/demetriag</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>Kimberly Bryant | Tech Innovator</t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/6gems/</t>
+        </is>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>3605</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>4616</v>
+      </c>
+      <c r="F283" s="0" t="inlineStr">
+        <is>
+          <t>1815864920</t>
+        </is>
+      </c>
+      <c r="G283" s="0" t="inlineStr">
+        <is>
+          <t>podcasts.apple.com/us/podcast/roots-and-resilience-the-inner-garden-podcast/id1815864920</t>
+        </is>
+      </c>
+      <c r="H283" s="0" t="inlineStr">
+        <is>
+          <t>Kimberly Bryant | Tech Innovator
+she/her
+6gems
+Public figure
+Founder @blackinnovationlab @blackgirlscode
+✨ Cultural Architect | 🎤 Speaker
+🎙 Host, Inner Garden Pod
+📚 ASCENDING... 
+more
+podcasts.apple.com/us/podcast/roots-and-resilience-the-inner-garden-podcast/id1815864920 and 3 more</t>
+        </is>
+      </c>
+      <c r="I283" s="0" t="inlineStr">
+        <is>
+          <t>6gems
+Follow
+Message
+220 posts
+3,605 followers
+4,616 following
+Kimberly Bryant | Tech Innovator
+she/her
+6gems
+Public figure
+Founder @blackinnovationlab @blackgirlscode
+✨ Cultural Architect | 🎤 Speaker
+🎙 Host, Inner Garden Pod
+📚 ASCENDING... 
+more
+podcasts.apple.com/us/podcast/roots-and-resilience-the-inner-garden-podcast/id1815864920 and 3 more
+My Writing
+Inspiration
+Globetrotting
+Just Me
+Podcasts
+Renovation Life
+Healthy Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>Chris Howard</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chrisfhoward/</t>
+        </is>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>483</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="F284" s="0" t="inlineStr"/>
+      <c r="G284" s="0" t="inlineStr">
+        <is>
+          <t>www.ritualcapital.com/blog/getting-back-to-basics-with-my-new-firmritual-capital</t>
+        </is>
+      </c>
+      <c r="H284" s="0" t="inlineStr">
+        <is>
+          <t>Chris Howard
+chrisfhoward
+Founder of Ritual Capital and Fuel Capital.
+www.ritualcapital.com/blog/getting-back-to-basics-with-my-new-firmritual-capital</t>
+        </is>
+      </c>
+      <c r="I284" s="0" t="inlineStr">
+        <is>
+          <t>chrisfhoward
+Follow
+93 posts
+483 followers
+398 following
+Chris Howard
+chrisfhoward
+Founder of Ritual Capital and Fuel Capital.
+www.ritualcapital.com/blog/getting-back-to-basics-with-my-new-firmritual-capital</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>Tani Chambers</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tanichambers/</t>
+        </is>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D285" s="0" t="n">
+        <v>3610</v>
+      </c>
+      <c r="E285" s="0" t="n">
+        <v>2532</v>
+      </c>
+      <c r="F285" s="0" t="inlineStr"/>
+      <c r="G285" s="0" t="inlineStr"/>
+      <c r="H285" s="0" t="inlineStr">
+        <is>
+          <t>Tani Chambers
+tanichambers
+👩🏾‍💻 Founder + Investor @joinravn
+📚 Financial Educator
+🔥 Blk Grl on FI/RE
+💰 Conscious Capitalist
+💪🏾 Champ 4... 
+more
+linktr.ee/TaniChambers</t>
+        </is>
+      </c>
+      <c r="I285" s="0" t="inlineStr">
+        <is>
+          <t>tanichambers
+Follow
+Message
+1,740 posts
+3,610 followers
+2,532 following
+Tani Chambers
+tanichambers
+👩🏾‍💻 Founder + Investor @joinravn
+📚 Financial Educator
+🔥 Blk Grl on FI/RE
+💰 Conscious Capitalist
+💪🏾 Champ 4... 
+more
+linktr.ee/TaniChambers
+🎥
+💼
+💰
+👩🏾‍💻</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>Isaac Mosh</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ikesaul/</t>
+        </is>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>1605</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F286" s="0" t="inlineStr"/>
+      <c r="G286" s="0" t="inlineStr">
+        <is>
+          <t>bit.ly/42uuQWu</t>
+        </is>
+      </c>
+      <c r="H286" s="0" t="inlineStr">
+        <is>
+          <t>Isaac Mosh
+ikesaul
+Get out of your bubble. Founder: @tangle.news
+bit.ly/42uuQWu</t>
+        </is>
+      </c>
+      <c r="I286" s="0" t="inlineStr">
+        <is>
+          <t>ikesaul
+Follow
+365 posts
+1,605 followers
+1,700 following
+Isaac Mosh
+ikesaul
+Get out of your bubble. Founder: @tangle.news
+bit.ly/42uuQWu</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>Jessica O. Matthews - Innovator</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jessicaomatthews/</t>
+        </is>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>793</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>16900</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>1478</v>
+      </c>
+      <c r="F287" s="0" t="inlineStr"/>
+      <c r="G287" s="0" t="inlineStr">
+        <is>
+          <t>www.uncharted.city</t>
+        </is>
+      </c>
+      <c r="H287" s="0" t="inlineStr">
+        <is>
+          <t>Jessica O. Matthews - Innovator
+she/her
+jessicaomatthews
+👩🏾‍🔬 Love Child of Bill Nye &amp; Beyoncé
+🏆Award-Winning Tech &amp; Sustainability Founder
+💡Helping People Tap Into Their Inne... 
+more
+www.uncharted.city and 1 more</t>
+        </is>
+      </c>
+      <c r="I287" s="0" t="inlineStr">
+        <is>
+          <t>jessicaomatthews
+Follow
+Message
+793 posts
+16.9K followers
+1,478 following
+Jessica O. Matthews - Innovator
+she/her
+jessicaomatthews
+👩🏾‍🔬 Love Child of Bill Nye &amp; Beyoncé
+🏆Award-Winning Tech &amp; Sustainability Founder
+💡Helping People Tap Into Their Inne... 
+more
+www.uncharted.city and 1 more
+PROPOSAL STORY</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>Maria Derchi Russo</t>
+        </is>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mderchi/</t>
+        </is>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>557</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>1474</v>
+      </c>
+      <c r="E288" s="0" t="n">
+        <v>3096</v>
+      </c>
+      <c r="F288" s="0" t="inlineStr"/>
+      <c r="G288" s="0" t="inlineStr">
+        <is>
+          <t>refreshmiami.com</t>
+        </is>
+      </c>
+      <c r="H288" s="0" t="inlineStr">
+        <is>
+          <t>Maria Derchi Russo
+mderchi
+Investor @floridafunders, Executive Director @refreshmiami, Founder @womeninmiamitech
+refreshmiami.com and 3 more</t>
+        </is>
+      </c>
+      <c r="I288" s="0" t="inlineStr">
+        <is>
+          <t>mderchi
+Follow
+557 posts
+1,474 followers
+3,096 following
+Maria Derchi Russo
+mderchi
+Investor @floridafunders, Executive Director @refreshmiami, Founder @womeninmiamitech
+refreshmiami.com and 3 more</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>Roxanne Varza</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rvarza/</t>
+        </is>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>3876</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>33800</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>4149</v>
+      </c>
+      <c r="F289" s="0" t="inlineStr"/>
+      <c r="G289" s="0" t="inlineStr">
+        <is>
+          <t>techbaguette.com</t>
+        </is>
+      </c>
+      <c r="H289" s="0" t="inlineStr">
+        <is>
+          <t>Roxanne Varza
+Public figure
+director @joinstationf scout @sequoiacapital investor @bumpbyamo @neoplantsofficial @beyond_aerospace @dancefloorparis... 
+more
+techbaguette.com</t>
+        </is>
+      </c>
+      <c r="I289" s="0" t="inlineStr">
+        <is>
+          <t>rvarza
+Follow
+Message
+3,876 posts
+33.8K followers
+4,149 following
+Roxanne Varza
+Public figure
+director @joinstationf scout @sequoiacapital investor @bumpbyamo @neoplantsofficial @beyond_aerospace @dancefloorparis... 
+more
+techbaguette.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>LGTM Author • DevRel @ Viam</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/adriennetacke/</t>
+        </is>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D290" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="E290" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="F290" s="0" t="inlineStr"/>
+      <c r="G290" s="0" t="inlineStr">
+        <is>
+          <t>adrienne.io</t>
+        </is>
+      </c>
+      <c r="H290" s="0" t="inlineStr">
+        <is>
+          <t>LGTM Author • DevRel @ Viam
+🇵🇭 • DevRel @ Viam 🤖 • Author • Instructor • Technologist at ❤️ • #AdrienneWroteACodingBookForKids •
+adrienne.io and 3 more</t>
+        </is>
+      </c>
+      <c r="I290" s="0" t="inlineStr">
+        <is>
+          <t>adriennetacke
+Follow
+Message
+60 posts
+15.6K followers
+253 following
+LGTM Author • DevRel @ Viam
+🇵🇭 • DevRel @ Viam 🤖 • Author • Instructor • Technologist at ❤️ • #AdrienneWroteACodingBookForKids •
+adrienne.io and 3 more
+Code Reviews
+🎥 [in]structor
+Doing More
+Kids Python Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>Christal Wang</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/adhd.christal/</t>
+        </is>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="D291" s="0" t="n">
+        <v>163000</v>
+      </c>
+      <c r="E291" s="0" t="n">
+        <v>468</v>
+      </c>
+      <c r="F291" s="0" t="inlineStr"/>
+      <c r="G291" s="0" t="inlineStr">
+        <is>
+          <t>beacons.ai/adhd.christal</t>
+        </is>
+      </c>
+      <c r="H291" s="0" t="inlineStr">
+        <is>
+          <t>Christal Wang
+she/her/hers
+Entrepreneur
+🧠 adhd tips + my journey building an adhd company
+✨ ceo @shimmer.care | @tilfpod | @forbesunder30
+beacons.ai/adhd.christal</t>
+        </is>
+      </c>
+      <c r="I291" s="0" t="inlineStr">
+        <is>
+          <t>adhd.christal
+Follow
+Message
+179 posts
+163K followers
+468 following
+Christal Wang
+she/her/hers
+Entrepreneur
+🧠 adhd tips + my journey building an adhd company
+✨ ceo @shimmer.care | @tilfpod | @forbesunder30
+beacons.ai/adhd.christal
+Start
+Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>Saf</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/saffalino/</t>
+        </is>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>934</v>
+      </c>
+      <c r="E292" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="F292" s="0" t="inlineStr"/>
+      <c r="G292" s="0" t="inlineStr">
+        <is>
+          <t>talkingheads.co
+ twitter.com/safwaan</t>
+        </is>
+      </c>
+      <c r="H292" s="0" t="inlineStr">
+        <is>
+          <t>Saf
+Founder @talkingheads.co - we grow YouTube channels using the same systems behind top creators like @aliabdaal... 
+more
+twitter.com/safwaan</t>
+        </is>
+      </c>
+      <c r="I292" s="0" t="inlineStr">
+        <is>
+          <t>saffalino
+Follow
+22 posts
+934 followers
+397 following
+Saf
+Founder @talkingheads.co - we grow YouTube channels using the same systems behind top creators like @aliabdaal... 
+more
+twitter.com/safwaan</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>Adam Harry Guild</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/harry/</t>
+        </is>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>42700</v>
+      </c>
+      <c r="E293" s="0" t="n">
+        <v>718</v>
+      </c>
+      <c r="F293" s="0" t="inlineStr"/>
+      <c r="G293" s="0" t="inlineStr">
+        <is>
+          <t>Owner.com
+ adamguild.com</t>
+        </is>
+      </c>
+      <c r="H293" s="0" t="inlineStr">
+        <is>
+          <t>Adam Harry Guild
+harry
+Entrepreneur
+💻 Co-Founder CEO, Owner.com
+🇺🇸 Thiel Fellow.
+📚 High School Dropout But Lifelong Student.
+adamguild.com</t>
+        </is>
+      </c>
+      <c r="I293" s="0" t="inlineStr">
+        <is>
+          <t>harry
+Follow
+Message
+13 posts
+42.7K followers
+718 following
+Adam Harry Guild
+harry
+Entrepreneur
+💻 Co-Founder CEO, Owner.com
+🇺🇸 Thiel Fellow.
+📚 High School Dropout But Lifelong Student.
+adamguild.com
+1/24 News</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>Rourke Sefton-Minns</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rourkeheath/</t>
+        </is>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>495</v>
+      </c>
+      <c r="D294" s="0" t="n">
+        <v>556000</v>
+      </c>
+      <c r="E294" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="F294" s="0" t="inlineStr">
+        <is>
+          <t>rourkeheath@rakugomedia.com</t>
+        </is>
+      </c>
+      <c r="G294" s="0" t="inlineStr">
+        <is>
+          <t>rakugomedia.com
+ genhq.kit.com/signup</t>
+        </is>
+      </c>
+      <c r="H294" s="0" t="inlineStr">
+        <is>
+          <t>Rourke Sefton-Minns
+🌊| Creative Gen AI Education
+💙| Founder @generativehq
+✉️| rourkeheath@rakugomedia.com
+👇| Waitlist for Paid Community
+genhq.kit.com/signup</t>
+        </is>
+      </c>
+      <c r="I294" s="0" t="inlineStr">
+        <is>
+          <t>rourkeheath
+Follow
+Message
+495 posts
+556K followers
+250 following
+Rourke Sefton-Minns
+🌊| Creative Gen AI Education
+💙| Founder @generativehq
+✉️| rourkeheath@rakugomedia.com
+👇| Waitlist for Paid Community
+genhq.kit.com/signup
+Adobe</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>Cyrus Harbin 👨🏾‍💻 Tech + Faith 🙏🏾</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/imjustcyrus/</t>
+        </is>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>206000</v>
+      </c>
+      <c r="E295" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F295" s="0" t="inlineStr"/>
+      <c r="G295" s="0" t="inlineStr">
+        <is>
+          <t>techisthenewblack.com</t>
+        </is>
+      </c>
+      <c r="H295" s="0" t="inlineStr">
+        <is>
+          <t>Cyrus Harbin 👨🏾‍💻 Tech + Faith 🙏🏾
+imjustcyrus
+💰 $500k+ My 1st Year In Tech (NO DEGREE)
+🤝🏾 Helped 6,000+ Others Get In Tech!
+🎙️ Founder Of @techisthenewblack
+👇🏾 Comme... 
+more
+techisthenewblack.com and 1 more</t>
+        </is>
+      </c>
+      <c r="I295" s="0" t="inlineStr">
+        <is>
+          <t>imjustcyrus
+Follow
+Message
+1,984 posts
+206K followers
+750 following
+Cyrus Harbin 👨🏾‍💻 Tech + Faith 🙏🏾
+imjustcyrus
+💰 $500k+ My 1st Year In Tech (NO DEGREE)
+🤝🏾 Helped 6,000+ Others Get In Tech!
+🎙️ Founder Of @techisthenewblack
+👇🏾 Comme... 
+more
+techisthenewblack.com and 1 more
+🇨🇴
+🏙️
+DR 🇩🇴
+🇲🇽
+🇲🇽
+Testimony #1
+🇯🇲
+🇦🇪
+👨🏾‍💻
+Testimony #2
+Tech FAQs
+🐴
+🎰</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/gina/</t>
+        </is>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="E296" s="0" t="n">
+        <v>2340</v>
+      </c>
+      <c r="F296" s="0" t="inlineStr"/>
+      <c r="G296" s="0" t="inlineStr">
+        <is>
+          <t>latitud.com</t>
+        </is>
+      </c>
+      <c r="H296" s="0" t="inlineStr">
+        <is>
+          <t>Gina
+gina
+🇧🇷🇺🇸🇮🇱Voted most likely to drop out of college, ex VP Duolingo, co-founder at Outsmart / ✡️💍 @mauriciocatach
+latitud.com</t>
+        </is>
+      </c>
+      <c r="I296" s="0" t="inlineStr">
+        <is>
+          <t>gina
+Follow
+Message
+1,019 posts
+21.6K followers
+2,340 following
+Gina
+gina
+🇧🇷🇺🇸🇮🇱Voted most likely to drop out of college, ex VP Duolingo, co-founder at Outsmart / ✡️💍 @mauriciocatach
+latitud.com
+Hey girls
+Media and talks
+Luna</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>Christie Marchese</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/christiemarchese/</t>
+        </is>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>1116</v>
+      </c>
+      <c r="D297" s="0" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E297" s="0" t="n">
+        <v>5624</v>
+      </c>
+      <c r="F297" s="0" t="inlineStr"/>
+      <c r="G297" s="0" t="inlineStr">
+        <is>
+          <t>kinema.com</t>
+        </is>
+      </c>
+      <c r="H297" s="0" t="inlineStr">
+        <is>
+          <t>Christie Marchese
+she
+🍿 ceo @kinemahq
+✊🏻 founded @citizenpicmo
+❤️ love @instajoemarchese
+🎥 board member @theredfordcenter @subjectmatterorg @r... 
+more
+kinema.com</t>
+        </is>
+      </c>
+      <c r="I297" s="0" t="inlineStr">
+        <is>
+          <t>christiemarchese
+Follow
+Message
+1,116 posts
+9,460 followers
+5,624 following
+Christie Marchese
+she
+🍿 ceo @kinemahq
+✊🏻 founded @citizenpicmo
+❤️ love @instajoemarchese
+🎥 board member @theredfordcenter @subjectmatterorg @r... 
+more
+kinema.com
+Telluride 🏔️
+Chile 2024
+🇫🇷This is 40
+🇧🇦 Sarajevo 2023
+🇬🇷 Greece 2023
+🇮🇱 Tel Aviv 2023
+🇮🇳 India 2023
+✨ TAYLOR ✨
+🇲🇽 Mexico City
+🇬🇧London 2022
+Kinema
+August 2021
+COVID-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Mauricio Balvanera</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/maubrowncow/</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Mauricio Balvanera
+maubrowncow
+Director of Video and Audio Experiences at Digg. Donut connoisseur. Professional Shenaniganist.
+linktr.ee/maubrowncow</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>maubrowncow
+Follow
+1,247 posts
+1,340 followers
+1,988 following
+Mauricio Balvanera
+maubrowncow
+Director of Video and Audio Experiences at Digg. Donut connoisseur. Professional Shenaniganist.
+linktr.ee/maubrowncow
+Minted
+Xavier</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G143" display="www.teachaapi.org" r:id="rId1"/>
